--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.549</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.167</v>
+        <v>17.118</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2815158532.523</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1420814.087</v>
+        <v>27.743</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.965</v>
+        <v>8.112</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2748654.74626931</v>
+        <v>26.5233887732</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2622940.713197598</v>
+        <v>26.52866187838865</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1197152.643733977</v>
+        <v>26.552316826309</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3403558.346073317</v>
+        <v>26.48852395601008</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1940280.36585696</v>
+        <v>26.52677742640945</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1667265.836512749</v>
+        <v>26.53348162309109</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3211230.210251166</v>
+        <v>26.49953263001524</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-579043.5225713958</v>
+        <v>26.56420321750353</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38523.55282983235</v>
+        <v>26.57228465081036</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1450220.726418211</v>
+        <v>26.53239508785326</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1134876.068755089</v>
+        <v>26.55470878274838</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-908299.888721298</v>
+        <v>26.55848504974646</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1255951.80245521</v>
+        <v>26.50584804214778</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1210070.677562091</v>
+        <v>26.51359463638774</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>218189.8608063482</v>
+        <v>26.54774968440613</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1668716.829564646</v>
+        <v>26.52809001039235</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-443147.9736275188</v>
+        <v>26.56023951694656</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3576.498259122936</v>
+        <v>26.58017019213739</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1981581.137650668</v>
+        <v>26.47992217069616</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1231912.248078845</v>
+        <v>26.51491742598862</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-900958.8054050155</v>
+        <v>26.53202025543862</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2135488.036493142</v>
+        <v>26.48011906783345</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-330601.3654946334</v>
+        <v>26.56392706941554</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2101667.304883365</v>
+        <v>26.51800284708756</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1095268.007661947</v>
+        <v>26.54407900356265</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-682370.646240295</v>
+        <v>26.55790705560752</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2883378.659906434</v>
+        <v>26.47951921729645</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-374775.7674837309</v>
+        <v>26.56242308825539</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-350472.831034113</v>
+        <v>26.56544889978004</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2522947.88592239</v>
+        <v>26.49187358074719</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>637564.5635320401</v>
+        <v>26.60054911165367</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>824219.9994386717</v>
+        <v>26.6027587065607</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>386004.7266933889</v>
+        <v>26.61305166835957</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>686313.9446602664</v>
+        <v>26.62965251966294</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>940555.0509587137</v>
+        <v>26.62891229698374</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-703677.9289578757</v>
+        <v>26.51601077672469</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>917229.7883668548</v>
+        <v>26.58903490321384</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1337038.818805115</v>
+        <v>26.6050918193016</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-936625.1260478552</v>
+        <v>26.53130380347281</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>391625.1610513362</v>
+        <v>26.59860892328532</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>558971.6107410504</v>
+        <v>26.61115290231265</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1457344.490402528</v>
+        <v>26.48015756259162</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>87592.15427389844</v>
+        <v>26.58432007402716</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>422615.2004389774</v>
+        <v>26.60630348374611</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1478293.697428989</v>
+        <v>26.49291201739672</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1518646.637154628</v>
+        <v>26.65030260213376</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3438647.639265343</v>
+        <v>26.50638744381184</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-2119330.01474764</v>
+        <v>26.53171675286537</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1022374.249180117</v>
+        <v>26.55207276815202</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-3220456.980909437</v>
+        <v>26.47964736331879</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-727015.0212143942</v>
+        <v>26.55811363585504</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-445286.2749954537</v>
+        <v>26.56949638231618</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-2633562.770440593</v>
+        <v>26.49185459198747</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>560229.1280430704</v>
+        <v>26.59866084067144</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1212913.649929057</v>
+        <v>26.61031160632556</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>751807.4790892012</v>
+        <v>26.61750442018936</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1112634.022624158</v>
+        <v>26.62817757658588</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1398535.874148586</v>
+        <v>26.63843426857804</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-2078159.596907795</v>
+        <v>26.49413662380579</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-6962.652523544062</v>
+        <v>26.57461286249649</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>590213.0910341854</v>
+        <v>26.597570199247</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1347443.268075469</v>
+        <v>26.51326138447894</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>144194.164490935</v>
+        <v>26.57840900162793</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>453265.0676739144</v>
+        <v>26.60224032903104</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1595670.558274558</v>
+        <v>26.47227983442103</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-218128.0383206854</v>
+        <v>26.57068833189147</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>386485.0076301576</v>
+        <v>26.60696981033988</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1575539.548351955</v>
+        <v>26.48658776803644</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1193559.814937956</v>
+        <v>26.64158707310535</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-4954930.849510659</v>
+        <v>26.51065967013204</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-3615012.555278858</v>
+        <v>26.53023155023708</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-1322011.372461828</v>
+        <v>26.55757686968471</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-4425420.953015197</v>
+        <v>26.49718153356324</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-1167311.558829706</v>
+        <v>26.55619899180897</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-127322.4871138004</v>
+        <v>26.57627237529891</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-4720352.352794047</v>
+        <v>26.50261683064412</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-13428.23404763501</v>
+        <v>26.58742538934246</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1610857.06137434</v>
+        <v>26.60654914951316</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>207805.7246838765</v>
+        <v>26.58903025764478</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>596361.9139726955</v>
+        <v>26.59708796083736</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1542845.869964133</v>
+        <v>26.6184122258591</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-3156490.251184226</v>
+        <v>26.50271412938415</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-683402.0395853471</v>
+        <v>26.56211460688445</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1040971.595413288</v>
+        <v>26.5996026803243</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-2244410.123724635</v>
+        <v>26.51030907993234</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-313368.5201977632</v>
+        <v>26.5626889085727</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>523457.1020644636</v>
+        <v>26.59346760929028</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-2213926.751986702</v>
+        <v>26.4873349331261</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-595981.6429158276</v>
+        <v>26.55708255689082</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>494701.7796907196</v>
+        <v>26.59720003427484</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2357340.38358959</v>
+        <v>26.4890233464992</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>815143.9976607963</v>
+        <v>26.60619962409718</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>72052.03384155284</v>
+        <v>26.594958478107</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-179269.7211947471</v>
+        <v>26.55358338421544</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>437920.8535641629</v>
+        <v>26.6153255864868</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>534342.4462485698</v>
+        <v>26.61806177816928</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1040729.121048176</v>
+        <v>26.49456588152378</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-341555.5500073668</v>
+        <v>26.55889997298363</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57410.96085107206</v>
+        <v>26.58239340178297</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-1064142.923580105</v>
+        <v>26.53042105062836</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-222061.1154175297</v>
+        <v>26.57042710904595</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>546988.2364085133</v>
+        <v>26.61286796186955</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1803778.33688569</v>
+        <v>26.45490430188395</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-977823.3316958811</v>
+        <v>26.51707558741301</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-530652.3085690057</v>
+        <v>26.54355891282479</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1770437.107270451</v>
+        <v>26.46539472749296</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-43424.79524745335</v>
+        <v>26.59215683534656</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1030087.651623726</v>
+        <v>26.6470865287055</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>60038.27807630651</v>
+        <v>26.59961140608102</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>787191.214156319</v>
+        <v>26.67485952874926</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>941887.1230546223</v>
+        <v>26.7018324145436</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-898273.2727216595</v>
+        <v>26.47414957847896</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-137860.8533373563</v>
+        <v>26.59111762896105</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>426570.0579292767</v>
+        <v>26.64099099071828</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1936904.060984137</v>
+        <v>26.6834792708239</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>975396.6094713069</v>
+        <v>26.68518240932882</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1321505.77654616</v>
+        <v>26.72722711493482</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1402793.769233844</v>
+        <v>26.72763492231239</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-476021.2542614705</v>
+        <v>26.53945442168995</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1178421.330274568</v>
+        <v>26.71070175347937</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1301017.180715912</v>
+        <v>26.71896664291881</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-467719.4923998054</v>
+        <v>26.55307241869499</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>666345.5428707909</v>
+        <v>26.63926518571146</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1051621.053875932</v>
+        <v>26.66246232921413</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-1122514.321758681</v>
+        <v>26.48518828226599</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>685913.4086030509</v>
+        <v>26.64276947344181</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>913158.2679258756</v>
+        <v>26.6577542825917</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-1057066.824370512</v>
+        <v>26.50873214194523</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2086117.554417026</v>
+        <v>26.73116854452481</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2401368.015729442</v>
+        <v>26.76806795151501</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1682206.89311243</v>
+        <v>26.82630823051828</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1889153.704351608</v>
+        <v>26.8647147983361</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2062273.672948773</v>
+        <v>26.88394167777681</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>-60317.62201887608</v>
+        <v>26.57534531155141</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1671106.909229813</v>
+        <v>26.83432066886962</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1820705.548907142</v>
+        <v>26.84863941152829</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2155474.779788925</v>
+        <v>26.69004456955314</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>769289.0238946438</v>
+        <v>26.66644698370519</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1066441.872146227</v>
+        <v>26.69888250102751</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1458771.24059095</v>
+        <v>26.71942080720485</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-839495.3751958392</v>
+        <v>26.50522321811716</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1020939.561844343</v>
+        <v>26.68894932997887</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1264039.554973596</v>
+        <v>26.70863040016258</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-865203.615940575</v>
+        <v>26.53299110632477</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>492611.2162221413</v>
+        <v>26.62076971735173</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1001189.631818461</v>
+        <v>26.65347928268809</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1246141.604283926</v>
+        <v>26.47829785483309</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>670989.3197443513</v>
+        <v>26.63498056238112</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>987966.5612934969</v>
+        <v>26.66225416338861</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-1169275.905052783</v>
+        <v>26.50417774834802</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2148219.271009478</v>
+        <v>26.72817657547449</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2641179.047272953</v>
+        <v>26.77716498726727</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1717333.799718546</v>
+        <v>26.82489264536758</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1947475.020254412</v>
+        <v>26.85288911829963</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2287556.000343806</v>
+        <v>26.89057944773048</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-477162.9112953647</v>
+        <v>26.54113527237018</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1659746.358717784</v>
+        <v>26.82121116065055</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1870736.430182139</v>
+        <v>26.84791379557497</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2501998.649423375</v>
+        <v>26.65709173376646</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>114840.1138201216</v>
+        <v>26.59277290047545</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>590632.4277305554</v>
+        <v>26.62657686880443</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1064324.543733735</v>
+        <v>26.65900764222808</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1283615.282532522</v>
+        <v>26.49947652327918</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1068843.964410229</v>
+        <v>26.64495656513614</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1574080.758108714</v>
+        <v>26.67799426771466</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1407185.087636209</v>
+        <v>26.53244379779058</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>582170.2287549991</v>
+        <v>26.60800897859434</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1552800.701508877</v>
+        <v>26.6529070609599</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1785026.278627008</v>
+        <v>26.49517992338381</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>525700.6396804696</v>
+        <v>26.61267009979225</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1314790.426012487</v>
+        <v>26.65417736006028</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1905736.875714041</v>
+        <v>26.50544519116843</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2290548.83612347</v>
+        <v>26.68343917491276</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3549835.263346536</v>
+        <v>26.74400425592339</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1859186.221852043</v>
+        <v>26.73235036107951</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2535420.68021389</v>
+        <v>26.77681808824893</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2961539.118905389</v>
+        <v>26.82925395206527</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-920159.4541449534</v>
+        <v>26.52589011588384</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2173367.483581622</v>
+        <v>26.7502327425072</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2592032.563681075</v>
+        <v>26.80340462284348</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1052468.180696458</v>
+        <v>26.51990665859844</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1190303.872286978</v>
+        <v>26.51449437692377</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-583739.3486310005</v>
+        <v>26.54274987756785</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1729170.314834309</v>
+        <v>26.46417340549468</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1217130.609259377</v>
+        <v>26.49860453417653</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-1142593.394595957</v>
+        <v>26.50418401430046</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1538632.269076961</v>
+        <v>26.48911359781101</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-613309.3798080834</v>
+        <v>26.54687122466096</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-384413.4299363411</v>
+        <v>26.56144157170988</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-825079.7373106045</v>
+        <v>26.50687776346713</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-564320.4978507883</v>
+        <v>26.53938163789251</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-485083.4332689443</v>
+        <v>26.54890481926161</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-560094.5420784897</v>
+        <v>26.49769722659144</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-714069.8328189305</v>
+        <v>26.49244310937573</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-367313.378134707</v>
+        <v>26.53629963805106</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-919685.8153481199</v>
+        <v>26.51372421493503</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-385862.6678600985</v>
+        <v>26.53830011470452</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-58282.80489793682</v>
+        <v>26.57262106626827</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1136392.608603266</v>
+        <v>26.44123033418704</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-845990.7090167159</v>
+        <v>26.46261816695554</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-694161.1588979734</v>
+        <v>26.49049305722957</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1135848.105166042</v>
+        <v>26.44712914214581</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-481735.6056428413</v>
+        <v>26.51839592542324</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-788429.3717835357</v>
+        <v>26.51709815358278</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-462985.6128760867</v>
+        <v>26.53612271762522</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-302914.9394724659</v>
+        <v>26.55525232170206</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1450652.353902197</v>
+        <v>26.4569222804038</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-421182.6678128025</v>
+        <v>26.54338435771828</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-406947.5846478576</v>
+        <v>26.54831207804968</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1206841.757957153</v>
+        <v>26.48521140237976</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>130254.7598167664</v>
+        <v>26.59488284331113</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>191699.6503828005</v>
+        <v>26.6060556857982</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>191761.5153319325</v>
+        <v>26.6110269609804</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>523464.1964050004</v>
+        <v>26.64106773597252</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>584034.8969277205</v>
+        <v>26.64718181258237</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-257964.7027823476</v>
+        <v>26.5235100311033</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>406448.3201670728</v>
+        <v>26.59465057546923</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>328932.5343334088</v>
+        <v>26.62208636671535</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-544057.6601133021</v>
+        <v>26.52455021368192</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>63827.66234973917</v>
+        <v>26.59093176353232</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>285393.4818542958</v>
+        <v>26.62108859100908</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-802240.177012968</v>
+        <v>26.45003561200024</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-110105.3512997615</v>
+        <v>26.55192948994586</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>226730.5933744347</v>
+        <v>26.59220076428816</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-729871.9999807349</v>
+        <v>26.47262985949864</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>574044.6194307265</v>
+        <v>26.63077847861742</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1493672.136858318</v>
+        <v>26.4961191816648</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-927016.3403365992</v>
+        <v>26.51517301482616</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-492567.1486113391</v>
+        <v>26.54241972695846</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-1588628.637002401</v>
+        <v>26.45038491326983</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-528232.9877299074</v>
+        <v>26.53221072375256</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-391648.6395581306</v>
+        <v>26.54790007900694</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-1284618.671390926</v>
+        <v>26.4778250541555</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>186735.3446075761</v>
+        <v>26.58659333339657</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>467181.3095991871</v>
+        <v>26.60943757111824</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>274176.733087618</v>
+        <v>26.6071124801615</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>627513.6444863633</v>
+        <v>26.63069902288149</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>726577.2218762232</v>
+        <v>26.65046215792401</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-700800.8577260579</v>
+        <v>26.48932034470478</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>182631.8384080046</v>
+        <v>26.57007356814931</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>220079.3882447527</v>
+        <v>26.60714250256275</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-844859.0873837292</v>
+        <v>26.49458794849318</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-193848.4546852553</v>
+        <v>26.559317348878</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>160222.6226478656</v>
+        <v>26.60355411843543</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-999185.3743728788</v>
+        <v>26.43265651665354</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-438297.7378684148</v>
+        <v>26.52843067382638</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>113792.9554404051</v>
+        <v>26.58716217590964</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-977137.1732849131</v>
+        <v>26.4565379418717</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>57107.66043594564</v>
+        <v>26.61342484714647</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-2188558.729208981</v>
+        <v>26.49679700449556</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1742312.500845369</v>
+        <v>26.51033695986368</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-801899.8031259836</v>
+        <v>26.54458421859475</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-2257855.865830284</v>
+        <v>26.46996017885041</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-874379.4618586848</v>
+        <v>26.53039164694745</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-476260.465861597</v>
+        <v>26.55490754112977</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-2209156.366051611</v>
+        <v>26.48635503063987</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-263491.7973884704</v>
+        <v>26.57136211774625</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>452349.6358622822</v>
+        <v>26.60077005286067</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-206759.3824471328</v>
+        <v>26.56814716493381</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>160359.0951406341</v>
+        <v>26.58354906781947</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>350461.4441026639</v>
+        <v>26.61570222976363</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1164421.60659696</v>
+        <v>26.48730276750414</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-283156.3202610213</v>
+        <v>26.54488352807563</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>120457.8328397906</v>
+        <v>26.59711571475336</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1255862.790210837</v>
+        <v>26.49142972245038</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-425010.0372594759</v>
+        <v>26.5421851475376</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>234190.5218706692</v>
+        <v>26.59158711332289</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1282463.413310742</v>
+        <v>26.45453018176794</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-640153.0852776649</v>
+        <v>26.51908124214683</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>128162.314899126</v>
+        <v>26.57915033910965</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1275906.067316661</v>
+        <v>26.46096898893229</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-107791.6941572828</v>
+        <v>26.57647176012773</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-219398.7380584957</v>
+        <v>26.57341804346229</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-257922.1540758413</v>
+        <v>26.49480282658429</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>50581.1718804198</v>
+        <v>26.57836428811688</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>239469.7860558175</v>
+        <v>26.60557460601935</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-664989.7644188495</v>
+        <v>26.44642219767413</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-348899.4631419857</v>
+        <v>26.50701913884228</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-136757.358230281</v>
+        <v>26.55682297864223</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-555424.1449069184</v>
+        <v>26.52477082614839</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-202898.5038722627</v>
+        <v>26.55282523359173</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>99290.13763852694</v>
+        <v>26.60833751600181</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-985900.1310212318</v>
+        <v>26.41807290209559</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-688634.5794271382</v>
+        <v>26.46556695731938</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-525453.2703288139</v>
+        <v>26.50222460457907</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-893358.4013613787</v>
+        <v>26.43958468658284</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-231726.6956345922</v>
+        <v>26.55339204660435</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>66539.42763583198</v>
+        <v>26.63288353152821</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-145081.5944138171</v>
+        <v>26.56177121509076</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>168253.0001688764</v>
+        <v>26.64933725564945</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>244305.0323681167</v>
+        <v>26.69736141825949</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-441021.9745303461</v>
+        <v>26.44447545571949</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-204861.1425519234</v>
+        <v>26.54233126580859</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-31102.77514645684</v>
+        <v>26.6265434642655</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>954896.4101656913</v>
+        <v>26.69472364748254</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>390297.2087470494</v>
+        <v>26.66467184330381</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>642789.8718685388</v>
+        <v>26.73115589729398</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>823772.5268388708</v>
+        <v>26.75931142235324</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-288675.6565764609</v>
+        <v>26.52106405079301</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>613709.2662453125</v>
+        <v>26.70763190757926</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>718445.8819727821</v>
+        <v>26.74764225457752</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-164460.1370728798</v>
+        <v>26.56502565787427</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>310202.8351922269</v>
+        <v>26.64752380240569</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>521025.7435551312</v>
+        <v>26.68497093398254</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-567270.2117712048</v>
+        <v>26.46801963553155</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>162649.376166778</v>
+        <v>26.62625535386736</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>365035.2811053481</v>
+        <v>26.65666446617601</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-373085.0504199115</v>
+        <v>26.50747384813958</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>983703.688531454</v>
+        <v>26.7338596959385</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1107434.842057112</v>
+        <v>26.79864849743013</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>809012.5005051085</v>
+        <v>26.85280744961672</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>917645.0417712069</v>
+        <v>26.90233296792155</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1030464.09013171</v>
+        <v>26.94493166767058</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>105995.0023550087</v>
+        <v>26.59585324769565</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>855673.2878176295</v>
+        <v>26.85853068779624</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>955239.7138863542</v>
+        <v>26.91071716222046</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>936803.4102032252</v>
+        <v>26.6963704696889</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>73365.48545815401</v>
+        <v>26.63190665574004</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>374228.4609919679</v>
+        <v>26.68760073167678</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>776767.3981067579</v>
+        <v>26.74031483493131</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-507885.6615513894</v>
+        <v>26.47150895080862</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>448696.847247741</v>
+        <v>26.67354337276128</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>677744.7055291602</v>
+        <v>26.72891392152394</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-420277.5444590044</v>
+        <v>26.5324926187887</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>153291.444873437</v>
+        <v>26.61819135821835</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>467888.6852069587</v>
+        <v>26.66782953052116</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-680602.0357864429</v>
+        <v>26.45196241058446</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>110862.1053892662</v>
+        <v>26.61020046850488</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>384353.7650074988</v>
+        <v>26.65678872682372</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-524622.6361645597</v>
+        <v>26.49329464075815</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>853174.7464636428</v>
+        <v>26.72369977797969</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1191718.165370986</v>
+        <v>26.80387347878736</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>695595.1397364149</v>
+        <v>26.84026217156035</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>867184.4721802546</v>
+        <v>26.87856492106163</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1109398.407273811</v>
+        <v>26.94406288701962</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-137594.0815692835</v>
+        <v>26.54579591361182</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>777476.1708262936</v>
+        <v>26.83484196381622</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>963706.5859377685</v>
+        <v>26.90379220034621</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1175404.959984359</v>
+        <v>26.65758086898644</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-316645.5206663996</v>
+        <v>26.5486176046651</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15560.39276170562</v>
+        <v>26.59819068511205</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>545759.2587823616</v>
+        <v>26.66208572274895</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-769180.5876712888</v>
+        <v>26.4590628586882</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>336437.8247867014</v>
+        <v>26.61769653877572</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>735961.1153474377</v>
+        <v>26.68421373618468</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-676201.5927235828</v>
+        <v>26.52469459450712</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>159373.4181498359</v>
+        <v>26.5981317867103</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>717252.5281243311</v>
+        <v>26.65981881814033</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-963388.1794432729</v>
+        <v>26.4687538514066</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-26305.70687746114</v>
+        <v>26.58474126693343</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>472065.1035249697</v>
+        <v>26.64475392830975</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-860373.8076307504</v>
+        <v>26.48841309227403</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>793281.3818953951</v>
+        <v>26.66911440921759</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1572452.101836714</v>
+        <v>26.75879224862442</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>531870.9563594887</v>
+        <v>26.72365281339398</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>914433.7829335884</v>
+        <v>26.7755629412233</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1349636.277468202</v>
+        <v>26.85680864000266</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-438407.0485847798</v>
+        <v>26.50888880289019</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>791531.3556670125</v>
+        <v>26.738329266702</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1160004.927812955</v>
+        <v>26.83273060043929</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1395741.432687677</v>
+        <v>26.52912182926045</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-908641.3789810042</v>
+        <v>26.54533214763388</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-376508.2638288912</v>
+        <v>26.56385623835122</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2235201.678071878</v>
+        <v>26.48043206706869</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1454895.202604135</v>
+        <v>26.51695679407994</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1379371.945786081</v>
+        <v>26.52335595997858</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2072374.714469561</v>
+        <v>26.50145972563554</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-440817.3422971072</v>
+        <v>26.56656161392863</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-30779.38389280203</v>
+        <v>26.57622695842396</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-569135.5861362588</v>
+        <v>26.53995268351456</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-145600.6240039282</v>
+        <v>26.56723748937834</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>14862.2857816617</v>
+        <v>26.57616961246514</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1361847.439105659</v>
+        <v>26.49165238757899</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-689047.9199875682</v>
+        <v>26.52444829105428</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-538469.3628098393</v>
+        <v>26.55573458325813</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1112050.605136179</v>
+        <v>26.51484789025585</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-383483.2961134651</v>
+        <v>26.55564648792501</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-26049.06986875099</v>
+        <v>26.58110066883159</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1421121.74489269</v>
+        <v>26.45703125279946</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1047774.758597371</v>
+        <v>26.48134589858385</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-833239.5087996459</v>
+        <v>26.50913289049048</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1443702.31455024</v>
+        <v>26.4628782984744</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-486081.508746962</v>
+        <v>26.53918133939109</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1092147.969814062</v>
+        <v>26.52881358749665</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>64287.34124604161</v>
+        <v>26.5692301391191</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-5714.18757144522</v>
+        <v>26.57810697322255</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1792979.801614574</v>
+        <v>26.47888411531538</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-262533.6472464656</v>
+        <v>26.56238547567332</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-273118.1098834678</v>
+        <v>26.56666399839833</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1592574.593342618</v>
+        <v>26.50215804007938</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>683701.9922236335</v>
+        <v>26.61476786252704</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>751767.4184768739</v>
+        <v>26.61970531325179</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>684464.6805226449</v>
+        <v>26.63611377725683</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1065029.818541478</v>
+        <v>26.65972950938531</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1024753.200649517</v>
+        <v>26.66433688875143</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-932840.5082152364</v>
+        <v>26.51285177496346</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>886618.5955907759</v>
+        <v>26.61800015839953</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>763262.1813048655</v>
+        <v>26.63229517983122</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-766207.4401664952</v>
+        <v>26.5234187153679</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>164808.3774947254</v>
+        <v>26.60406100529471</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>373232.7907790478</v>
+        <v>26.624010378256</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1014994.800198416</v>
+        <v>26.46635105189419</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-86334.71483979496</v>
+        <v>26.56286666004694</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>298539.8103633429</v>
+        <v>26.59964758426862</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-974024.4738061832</v>
+        <v>26.48633196750347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>864887.4339875132</v>
+        <v>26.64118337211613</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1879239.25964756</v>
+        <v>26.51165373174372</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-562262.0361233844</v>
+        <v>26.55073303211252</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-249099.2715915384</v>
+        <v>26.56714028875843</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1892519.627922375</v>
+        <v>26.47423314302446</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-421599.3730283734</v>
+        <v>26.55277115399964</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-261335.8641855219</v>
+        <v>26.56667970549619</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1586498.961664346</v>
+        <v>26.49716788595366</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>696618.7032114038</v>
+        <v>26.60766529352384</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1055345.667756448</v>
+        <v>26.62310412962993</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>815995.5046468753</v>
+        <v>26.63293026051708</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1228726.441937706</v>
+        <v>26.65087586831811</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1135826.613334457</v>
+        <v>26.66733119277215</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1190030.26241126</v>
+        <v>26.48528192882884</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>567605.4516546653</v>
+        <v>26.59689069399963</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>512236.5859577272</v>
+        <v>26.61946656850294</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-1153385.281654984</v>
+        <v>26.49770358126708</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-185572.2784452391</v>
+        <v>26.57545201876759</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>202968.3216724841</v>
+        <v>26.6081118084287</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1232266.022024395</v>
+        <v>26.45116030923266</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-489913.2427656272</v>
+        <v>26.54125774192961</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>173020.5462161025</v>
+        <v>26.59435409964035</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1244046.574889237</v>
+        <v>26.47277503387813</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>231990.2862042656</v>
+        <v>26.6250041841189</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-2662671.830573851</v>
+        <v>26.51299598942677</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1371816.521062873</v>
+        <v>26.54215348695789</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-426184.6828399793</v>
+        <v>26.56695386544422</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2737826.154425343</v>
+        <v>26.48972999681596</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-858745.6326497375</v>
+        <v>26.54715519255959</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-272030.5568681583</v>
+        <v>26.57013767050564</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-2830010.137562279</v>
+        <v>26.50403161990176</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>131629.0398075992</v>
+        <v>26.58976111567397</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>1189972.202596332</v>
+        <v>26.61297290144288</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>338249.1712760053</v>
+        <v>26.59421234919697</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>796886.8482136303</v>
+        <v>26.60741084543922</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>1002771.981559357</v>
+        <v>26.63579396721094</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1639047.766732911</v>
+        <v>26.49092232798418</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>266722.7209008227</v>
+        <v>26.5733753005135</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>451608.6926405875</v>
+        <v>26.61169426955175</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1585790.730111965</v>
+        <v>26.49620709760738</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-467617.4789973344</v>
+        <v>26.5561747380482</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>335767.2066060405</v>
+        <v>26.59568074230205</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1589495.374910512</v>
+        <v>26.46811908566528</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-792571.8811502164</v>
+        <v>26.52813466414978</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>207349.4455989306</v>
+        <v>26.58368270849026</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1613587.719011246</v>
+        <v>26.47529102663018</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-65994.41724655654</v>
+        <v>26.58664570431979</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-142672.7402028174</v>
+        <v>26.58447477704068</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-235748.7044542147</v>
+        <v>26.52884664202048</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>178801.5399985168</v>
+        <v>26.60342344485644</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>338384.3349698879</v>
+        <v>26.62158582349525</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-969680.197996585</v>
+        <v>26.44639563204568</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-385954.0434641835</v>
+        <v>26.53422046028829</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-146583.5561051512</v>
+        <v>26.5749774762548</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-757560.1378382512</v>
+        <v>26.51470372205038</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-206218.9019019374</v>
+        <v>26.56235571668051</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>176042.4338787124</v>
+        <v>26.60737742348133</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1266880.699096076</v>
+        <v>26.4250878185343</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-857706.5802807389</v>
+        <v>26.4745189235243</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-643135.3849158343</v>
+        <v>26.51185903364198</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1206356.022647784</v>
+        <v>26.44172808083016</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-362793.6566470914</v>
+        <v>26.55701250748164</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>173784.8948208795</v>
+        <v>26.62614543071226</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-173031.2910629997</v>
+        <v>26.56923675499888</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>283988.2298791666</v>
+        <v>26.65010673622671</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>423709.1821836056</v>
+        <v>26.69672471276352</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-727579.4087206745</v>
+        <v>26.42177327321518</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-275969.4500495137</v>
+        <v>26.54981179720683</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>9172.805608923782</v>
+        <v>26.62348166546372</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1309573.910478471</v>
+        <v>26.69198915209335</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>609810.1856206162</v>
+        <v>26.67997238595238</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>898506.5340448018</v>
+        <v>26.73791154839369</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1023640.783984489</v>
+        <v>26.75484683074611</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-554533.2323665939</v>
+        <v>26.50505363498376</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>796057.7018166977</v>
+        <v>26.70965052785495</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>934301.1019748329</v>
+        <v>26.73925605304687</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-354708.5379535166</v>
+        <v>26.54680730836062</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>444391.5911733293</v>
+        <v>26.64607454069347</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>653307.9808382511</v>
+        <v>26.67300656176368</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-756129.4993065284</v>
+        <v>26.46830073882984</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>271125.037051232</v>
+        <v>26.6171377694119</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>481332.3154060435</v>
+        <v>26.64678263946885</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-603535.4037614485</v>
+        <v>26.49994544786712</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1212967.575742292</v>
+        <v>26.71683527525485</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1411595.442243869</v>
+        <v>26.77050222812832</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1063435.46067961</v>
+        <v>26.82338189304379</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1185197.602456871</v>
+        <v>26.86958774126352</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1333285.554788514</v>
+        <v>26.90950731669409</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-156321.6322250685</v>
+        <v>26.54308492858195</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1025319.147487086</v>
+        <v>26.82333177964988</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1184605.71735866</v>
+        <v>26.86569064161882</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1291114.4364574</v>
+        <v>26.69271461782079</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>274965.6679732795</v>
+        <v>26.65034793434489</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>596316.0931018887</v>
+        <v>26.69888647355048</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1001778.154074264</v>
+        <v>26.73737052665406</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-792184.3767980717</v>
+        <v>26.46290335046586</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>604950.5746839806</v>
+        <v>26.67901575606338</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>885145.0112277223</v>
+        <v>26.72176295660168</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-710360.0856577075</v>
+        <v>26.51757010871671</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>200206.8688271299</v>
+        <v>26.6178568612801</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>547473.9285457357</v>
+        <v>26.65597973504921</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-914649.2563097144</v>
+        <v>26.45256861437523</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>148417.3414167327</v>
+        <v>26.6000337872871</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>478343.8425184663</v>
+        <v>26.64418581418391</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-798007.2497301925</v>
+        <v>26.48663938874524</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1021503.011695856</v>
+        <v>26.70521151591575</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1485668.907953336</v>
+        <v>26.77274366499154</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>925264.7997112044</v>
+        <v>26.80948309482858</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1123055.245909766</v>
+        <v>26.84580821689095</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1420981.807661775</v>
+        <v>26.90560440006156</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-438192.1593567195</v>
+        <v>26.49890666411087</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>922726.3138555009</v>
+        <v>26.79975942755909</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1176560.592323991</v>
+        <v>26.85650862246859</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1604214.417976848</v>
+        <v>26.65524183497287</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-252085.178724307</v>
+        <v>26.57042257750885</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>168321.3232030686</v>
+        <v>26.61658479359215</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>762963.7251106771</v>
+        <v>26.66709916852308</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1064305.333113984</v>
+        <v>26.4602695238633</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>518365.3931018565</v>
+        <v>26.6285943171424</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1008533.267757878</v>
+        <v>26.682963025502</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-1061133.206018718</v>
+        <v>26.51296297103136</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>97363.9084075986</v>
+        <v>26.59570741142528</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>831449.6176215152</v>
+        <v>26.64709578331215</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1330096.729107767</v>
+        <v>26.46586689720519</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-168736.4901270913</v>
+        <v>26.57238148024515</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>550348.536900131</v>
+        <v>26.62999308555185</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1305967.659261214</v>
+        <v>26.48232041495411</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>705061.9173361314</v>
+        <v>26.65175646541091</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1901480.950196199</v>
+        <v>26.73027864179825</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>605051.3150470079</v>
+        <v>26.70186196018994</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1187943.837471495</v>
+        <v>26.75250662827244</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1722074.266104902</v>
+        <v>26.82740137498412</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-782918.6359007098</v>
+        <v>26.47873265988186</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>912164.0151324192</v>
+        <v>26.7150773366765</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1451713.146778239</v>
+        <v>26.79654377866491</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2933238.84938881</v>
+        <v>26.54203595160596</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2087480.59784222</v>
+        <v>26.56106699134057</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-322976.574549283</v>
+        <v>26.57800629490547</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4229961.426934513</v>
+        <v>26.50868075465225</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2053657.37337158</v>
+        <v>26.55360768665464</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1705633.502487204</v>
+        <v>26.5566191466425</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-4176022.081988191</v>
+        <v>26.52284414067493</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>509167.4191177721</v>
+        <v>26.59343836134799</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1349003.065593683</v>
+        <v>26.59876231927457</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-907533.0907033669</v>
+        <v>26.56953624539182</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-305409.1374187568</v>
+        <v>26.59283602215571</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-287414.8248566599</v>
+        <v>26.59342916512015</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-2213721.246435402</v>
+        <v>26.52102782574999</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-990573.7948946772</v>
+        <v>26.54946112100026</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>197171.144998487</v>
+        <v>26.57759111038878</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1812374.874555531</v>
+        <v>26.5304701749452</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-485446.8340656147</v>
+        <v>26.57049620544226</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>117056.2161475054</v>
+        <v>26.58509973014635</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2349951.350164214</v>
+        <v>26.48450632697563</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1445666.437748673</v>
+        <v>26.52046329011639</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1230880.527727353</v>
+        <v>26.53227303586121</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2537879.49385158</v>
+        <v>26.48524642536422</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-419881.5727890746</v>
+        <v>26.56834446828024</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1557897.388136205</v>
+        <v>26.54751971037188</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>740214.9957158173</v>
+        <v>26.58885696551146</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>891191.515148696</v>
+        <v>26.59676437187771</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3027660.157744732</v>
+        <v>26.51352518429326</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>827288.6587351486</v>
+        <v>26.60171219996875</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>828469.1983447406</v>
+        <v>26.60200929026434</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-2870863.861869977</v>
+        <v>26.52940048593449</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>3062561.534295179</v>
+        <v>26.64373454199226</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>2996983.455819779</v>
+        <v>26.64405829037111</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2130211.514566132</v>
+        <v>26.66327300191432</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2681115.878724091</v>
+        <v>26.68266111481479</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2622136.892607688</v>
+        <v>26.67865529403183</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-871351.7581477194</v>
+        <v>26.54738375226032</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2313325.089158123</v>
+        <v>26.63973194178535</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>2644685.540578294</v>
+        <v>26.65264023246878</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1042124.375931684</v>
+        <v>26.53923398050164</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>612313.8612385984</v>
+        <v>26.61509766866706</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>693266.2403818697</v>
+        <v>26.62308834866268</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1734600.106540844</v>
+        <v>26.49330301136145</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>280907.7521950913</v>
+        <v>26.59472535039504</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>550766.6989989061</v>
+        <v>26.61209587193853</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1802878.191173687</v>
+        <v>26.5060933536381</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>2053664.000621148</v>
+        <v>26.6603051594434</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3444144.362672812</v>
+        <v>26.53474556754583</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-573992.6260483038</v>
+        <v>26.57535813050274</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>300528.8121295339</v>
+        <v>26.58959712845796</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-3430272.281043133</v>
+        <v>26.5121187308379</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>447089.8935705471</v>
+        <v>26.59618371499348</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>780635.4256953659</v>
+        <v>26.60475088642942</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-3067513.362256361</v>
+        <v>26.52766567592511</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>3044802.422337579</v>
+        <v>26.64045456158733</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>3540508.508956951</v>
+        <v>26.64975545904994</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2704888.144233993</v>
+        <v>26.66421978752744</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>3239966.291194968</v>
+        <v>26.67856215946381</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>3200027.187602834</v>
+        <v>26.68501072261122</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-2454772.065474346</v>
+        <v>26.52628113948438</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1221024.156482564</v>
+        <v>26.62499974435844</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>1672193.48753186</v>
+        <v>26.64496663801118</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-1581132.177396639</v>
+        <v>26.51939041185113</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>320694.3219884567</v>
+        <v>26.59342506849186</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>569422.398235818</v>
+        <v>26.61229016874398</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1940095.054036828</v>
+        <v>26.48333557694168</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-174016.5980676793</v>
+        <v>26.57960938629103</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>500208.4030614639</v>
+        <v>26.61111056166603</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-1972953.037773636</v>
+        <v>26.49748024682595</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>1538493.325326604</v>
+        <v>26.64994694435276</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-5176395.389673682</v>
+        <v>26.53130445510721</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-2290056.586732318</v>
+        <v>26.56244827080994</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>102436.2937469534</v>
+        <v>26.5840977555199</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4761885.890808663</v>
+        <v>26.52001656314238</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29586.44904962583</v>
+        <v>26.58319315845516</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1375906.643655963</v>
+        <v>26.60037796311727</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-5310691.16193066</v>
+        <v>26.52843198308508</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2530039.155341821</v>
+        <v>26.61711972412764</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4476565.248940032</v>
+        <v>26.63376388270568</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2262886.31707813</v>
+        <v>26.62190429715384</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>3055058.07854737</v>
+        <v>26.63233695511706</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>3683528.286864888</v>
+        <v>26.65069615836003</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-3519810.691554121</v>
+        <v>26.52358550874405</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>293600.062115975</v>
+        <v>26.59688943643323</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1892579.464063641</v>
+        <v>26.63079241538067</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-2585962.234614921</v>
+        <v>26.51520988778481</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-251762.3662206997</v>
+        <v>26.57333481382917</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>756090.7308535358</v>
+        <v>26.59982159684048</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2597123.954997675</v>
+        <v>26.49530966739225</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-599582.5616419346</v>
+        <v>26.56289525139864</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>753893.0083831237</v>
+        <v>26.59910417497213</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2828594.213947179</v>
+        <v>26.49722610793966</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1090185.312529713</v>
+        <v>26.61141829404239</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24136.85363699143</v>
+        <v>26.59470252375396</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-189305.5136285962</v>
+        <v>26.55829233446944</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>598260.0976798078</v>
+        <v>26.6179227412347</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>671584.0379213452</v>
+        <v>26.62208442222866</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-1450658.630839478</v>
+        <v>26.48331997661103</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-486093.5738371804</v>
+        <v>26.56038250225157</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-29613.51390907816</v>
+        <v>26.58339716254634</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1366325.496897563</v>
+        <v>26.52459730510724</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-357379.0635539128</v>
+        <v>26.56786119095691</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>476782.5171432719</v>
+        <v>26.60340159818049</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-2155393.806860521</v>
+        <v>26.45387616987737</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1263515.082201937</v>
+        <v>26.50856029638176</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-890960.8481667174</v>
+        <v>26.5315973640245</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-2209399.169780171</v>
+        <v>26.45986199004741</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-441349.7894844195</v>
+        <v>26.57448552616239</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>832107.1512295008</v>
+        <v>26.62542848545336</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-140317.1255820783</v>
+        <v>26.58501718021741</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>814342.695757532</v>
+        <v>26.65206457691654</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>1095927.159895877</v>
+        <v>26.68218535674326</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-1301099.839246876</v>
+        <v>26.44999277023943</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-416965.8707359025</v>
+        <v>26.5622480258491</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>315237.140935108</v>
+        <v>26.61676876790155</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>2423423.54794454</v>
+        <v>26.68919554401664</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1460832.918524768</v>
+        <v>26.69402937001108</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1857943.443530014</v>
+        <v>26.73734317840167</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1876771.598910407</v>
+        <v>26.73908261536829</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>-687140.9829906905</v>
+        <v>26.53705419653076</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1632167.883812065</v>
+        <v>26.71614774943492</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1736770.062690954</v>
+        <v>26.72744802771163</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>-583199.0965968303</v>
+        <v>26.55097055194959</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>859901.3891836012</v>
+        <v>26.64014939734593</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1225396.025087361</v>
+        <v>26.65859879464173</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-1332503.146553985</v>
+        <v>26.48938671160605</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>816524.3761533709</v>
+        <v>26.63297416603605</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1020060.699162183</v>
+        <v>26.64752102229528</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-1327483.434623099</v>
+        <v>26.50785683652748</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2385771.244097751</v>
+        <v>26.71353381101485</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2835040.554000058</v>
+        <v>26.74922530068461</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2065563.850978901</v>
+        <v>26.80677828378883</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>2312172.600438357</v>
+        <v>26.84190203589072</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>2552565.488406381</v>
+        <v>26.86486705313069</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>-321473.2699487175</v>
+        <v>26.55433927519729</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1950654.78996732</v>
+        <v>26.79994667229806</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>2222400.22722013</v>
+        <v>26.82573708576431</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2737205.7815393</v>
+        <v>26.6934173809863</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1098283.341160953</v>
+        <v>26.67271553679986</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1458933.345206705</v>
+        <v>26.70778061536768</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1954782.782660964</v>
+        <v>26.72845308501624</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-1107795.515035266</v>
+        <v>26.50377207451245</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>1385860.370114347</v>
+        <v>26.69387727254995</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1681229.788038607</v>
+        <v>26.71656285668881</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-1186669.101987931</v>
+        <v>26.52831106555025</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>506853.7509484483</v>
+        <v>26.61912568580487</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1094568.877136182</v>
+        <v>26.64703087780766</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1554385.573169498</v>
+        <v>26.47916462347863</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>678630.4824896724</v>
+        <v>26.62204102563288</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1075649.340881698</v>
+        <v>26.64911679336338</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1581186.268126484</v>
+        <v>26.49982123853886</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2229032.692767783</v>
+        <v>26.70752936934677</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>3081267.964572253</v>
+        <v>26.75506753778802</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1982601.941399019</v>
+        <v>26.79971608434803</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2266267.32838156</v>
+        <v>26.82604028008098</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2773612.040800586</v>
+        <v>26.86637962620962</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-844247.1106081493</v>
+        <v>26.51994516962174</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1738198.277428765</v>
+        <v>26.78443087012984</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2194674.632613366</v>
+        <v>26.82268837393059</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>3268350.130566806</v>
+        <v>26.65805168844764</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>136093.6494435622</v>
+        <v>26.59725089514069</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>737742.8384492404</v>
+        <v>26.63171833660836</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1478381.034977383</v>
+        <v>26.66521977921624</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1628543.429288115</v>
+        <v>26.49555617147451</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1363532.480286947</v>
+        <v>26.64487945292223</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2035729.545205014</v>
+        <v>26.68009531653395</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1970556.424488067</v>
+        <v>26.52467641312617</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>304283.3902033562</v>
+        <v>26.60017727228752</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1629614.195436569</v>
+        <v>26.6405978431201</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2318378.073531651</v>
+        <v>26.49083880444435</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>180906.4990662508</v>
+        <v>26.59608223351254</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1356404.739019233</v>
+        <v>26.6368898558661</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-2634630.267504634</v>
+        <v>26.49717310412976</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1716761.291673314</v>
+        <v>26.65973295772954</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>3905650.324823601</v>
+        <v>26.71856032546318</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1562188.504699532</v>
+        <v>26.70445924053367</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2542667.12559425</v>
+        <v>26.74434710241142</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>3510274.809643588</v>
+        <v>26.80009924106508</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1499842.449174536</v>
+        <v>26.50122598484993</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1832307.30683271</v>
+        <v>26.70986723630932</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>2881500.447595116</v>
+        <v>26.77144951514076</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1735467.483803035</v>
+        <v>26.55222464311142</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-1695822.961900561</v>
+        <v>26.55915876449026</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-150184.3361605203</v>
+        <v>26.57769199376272</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-2828972.968954215</v>
+        <v>26.52523662794723</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-966584.3920972003</v>
+        <v>26.56746715177332</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-675675.0583343961</v>
+        <v>26.56823043200502</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-2508323.453854554</v>
+        <v>26.53554194831352</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>982536.5156900277</v>
+        <v>26.59651629047216</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>1373631.681984131</v>
+        <v>26.60303510729551</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-966767.9645394688</v>
+        <v>26.56770887195765</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-564714.6748006347</v>
+        <v>26.59112128686801</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-559827.58112922</v>
+        <v>26.59315252100049</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-555506.1346897815</v>
+        <v>26.5495535996094</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-797262.2193237937</v>
+        <v>26.55380752715484</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>535937.5334841816</v>
+        <v>26.58695420352461</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1351426.813731749</v>
+        <v>26.53827871762117</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-519864.4772172087</v>
+        <v>26.5644037404011</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>118284.4037745365</v>
+        <v>26.58233820045079</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-1514715.23116407</v>
+        <v>26.50354273495247</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-955944.9756194995</v>
+        <v>26.531689986387</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-784413.1744142618</v>
+        <v>26.54319671461615</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-1912393.032937993</v>
+        <v>26.4904036093813</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-602043.0367176471</v>
+        <v>26.55967742009321</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-881250.7458108298</v>
+        <v>26.55575669573193</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>94292.08469176728</v>
+        <v>26.58314036428926</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>457045.695707525</v>
+        <v>26.59376779669977</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-2232787.09266943</v>
+        <v>26.52650003738153</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>731450.7372622322</v>
+        <v>26.61076911140176</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>712490.0557994688</v>
+        <v>26.61049472486773</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-1934054.702050433</v>
+        <v>26.53865001848586</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2028619.184703169</v>
+        <v>26.64200368907659</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2069231.61342308</v>
+        <v>26.64518671032201</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1455833.654019925</v>
+        <v>26.6586848914976</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1924622.648362287</v>
+        <v>26.67948214921084</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1947646.303802461</v>
+        <v>26.67842649947157</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>398579.9520829269</v>
+        <v>26.57837685994175</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1628216.794983944</v>
+        <v>26.64278089196631</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1877059.796016043</v>
+        <v>26.66283921490275</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-707461.7181755906</v>
+        <v>26.54689316197487</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>258043.1003058861</v>
+        <v>26.60661287942683</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>490788.106537368</v>
+        <v>26.61967849723525</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-1102564.607797357</v>
+        <v>26.5116046831155</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>208219.477870283</v>
+        <v>26.60344514652705</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>547132.6848402922</v>
+        <v>26.6232524013907</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1338382.308007189</v>
+        <v>26.51017989151903</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1233094.374088348</v>
+        <v>26.6488523666252</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-2434981.999248421</v>
+        <v>26.54160060965635</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-777234.9503678837</v>
+        <v>26.56917359384788</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>90941.35863198443</v>
+        <v>26.58597398335071</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-2607698.786058958</v>
+        <v>26.52350025522868</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>560919.8403510994</v>
+        <v>26.60416339034152</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>749712.5142934428</v>
+        <v>26.61217711327197</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-2160487.810003267</v>
+        <v>26.53528126609789</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2312455.280158463</v>
+        <v>26.63806096992769</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2716296.702821619</v>
+        <v>26.6502102038992</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1865380.947343357</v>
+        <v>26.65826438804416</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2298125.280551795</v>
+        <v>26.67407482648556</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2426862.881364026</v>
+        <v>26.68370066705319</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-1182057.89489471</v>
+        <v>26.55470736040788</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>869047.4244897757</v>
+        <v>26.62677353683082</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1380334.150466109</v>
+        <v>26.65414112848634</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-1106955.975952906</v>
+        <v>26.52582804346656</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>99933.94725558216</v>
+        <v>26.58470479497884</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>426625.3525212927</v>
+        <v>26.60857734021525</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-1311037.771178389</v>
+        <v>26.50012594673518</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-167144.7646305035</v>
+        <v>26.58747969784452</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>480231.8485820461</v>
+        <v>26.62161341747611</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1538905.928685239</v>
+        <v>26.50026054218232</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>777519.7255334993</v>
+        <v>26.6383737700426</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-3803762.361448705</v>
+        <v>26.53709683049195</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-2213668.109417012</v>
+        <v>26.55861861521701</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-171685.0562036814</v>
+        <v>26.58151105851751</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-3586731.089221803</v>
+        <v>26.53151553714027</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>480530.7859613129</v>
+        <v>26.5932942952632</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1272000.41455963</v>
+        <v>26.60864008740957</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-3826039.842465772</v>
+        <v>26.53624958725831</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2313740.537409635</v>
+        <v>26.61797690666465</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3471850.747116275</v>
+        <v>26.63580240327011</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1630977.941566956</v>
+        <v>26.61790404920478</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2103698.83262206</v>
+        <v>26.62801799240844</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2645862.719115708</v>
+        <v>26.6483240275663</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1987845.745552123</v>
+        <v>26.54505945839541</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44959.29676936522</v>
+        <v>26.5981595583537</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1748375.127865796</v>
+        <v>26.63763928897399</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1946759.9370983</v>
+        <v>26.52256528831044</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-311839.4336585731</v>
+        <v>26.56969110082584</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>595644.7825385175</v>
+        <v>26.59930199379387</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1693300.74926683</v>
+        <v>26.51366873682613</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-298040.6587729179</v>
+        <v>26.57549938485391</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>800503.2905625734</v>
+        <v>26.61237277456297</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-2226424.593698992</v>
+        <v>26.50308911463473</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>618409.8895219086</v>
+        <v>26.6071099654452</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-281739.7497974925</v>
+        <v>26.59075429272392</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-339142.9317647403</v>
+        <v>26.54139291873623</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>259667.5209121161</v>
+        <v>26.60162822851347</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>399074.4442611705</v>
+        <v>26.61402738498667</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-1019434.706231434</v>
+        <v>26.49748534499577</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-551778.1616327417</v>
+        <v>26.54708635835138</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-147715.6417243012</v>
+        <v>26.57638522117083</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-924461.1406175236</v>
+        <v>26.54166636359969</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-286297.1278785534</v>
+        <v>26.56840340331918</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>337221.5022938585</v>
+        <v>26.60381868187626</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1334595.65426467</v>
+        <v>26.484933208984</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-737566.9763179469</v>
+        <v>26.53010541676478</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-484115.1177047109</v>
+        <v>26.54889987666468</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-1497156.875943176</v>
+        <v>26.47872156556422</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-202468.6703844831</v>
+        <v>26.57854043753023</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>577331.7618361032</v>
+        <v>26.63055400518305</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-130027.9212811884</v>
+        <v>26.58687520678656</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>508942.9122157207</v>
+        <v>26.65072108033813</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>703703.6514566037</v>
+        <v>26.68116715687354</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-789236.0953109472</v>
+        <v>26.48663771287531</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-273472.2234471424</v>
+        <v>26.56379722762581</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>151125.2715780613</v>
+        <v>26.62146474237858</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1664476.48143223</v>
+        <v>26.68527653813845</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>918436.0574514321</v>
+        <v>26.6762161747385</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1289342.963519177</v>
+        <v>26.72176892133913</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1410313.235721997</v>
+        <v>26.73408408206506</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-314234.9400173035</v>
+        <v>26.55798605723516</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1184405.830008411</v>
+        <v>26.70492705011853</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1297815.079637505</v>
+        <v>26.72543516321356</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-205077.807882357</v>
+        <v>26.57019929627488</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>612993.6788998799</v>
+        <v>26.64005425763256</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>943286.7717747367</v>
+        <v>26.6600661653112</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-767311.0990570539</v>
+        <v>26.52162221248777</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>622795.1111414629</v>
+        <v>26.65335314965824</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>836481.5531146007</v>
+        <v>26.66635032478041</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>-830356.076002516</v>
+        <v>26.52783221864713</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1835495.104395587</v>
+        <v>26.71665623688722</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2129257.512338208</v>
+        <v>26.7560573289653</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1602760.115494421</v>
+        <v>26.81179641314251</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1761699.611394278</v>
+        <v>26.84456615057337</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1942331.340561685</v>
+        <v>26.87002700771899</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>171739.9507562018</v>
+        <v>26.60235926270828</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1591261.811073325</v>
+        <v>26.80692887432249</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1741829.003273299</v>
+        <v>26.8391350321519</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1925885.262321412</v>
+        <v>26.68949282315307</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>525852.2625672661</v>
+        <v>26.65383851060161</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>894158.6551693262</v>
+        <v>26.69103143976189</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1423079.157469177</v>
+        <v>26.72252951914244</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-666765.0938611685</v>
+        <v>26.52271496793472</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>964472.988351933</v>
+        <v>26.68209226574677</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1264718.642313238</v>
+        <v>26.71440263404245</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-651258.0400820517</v>
+        <v>26.54724102438685</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>404493.4371860492</v>
+        <v>26.61998916104908</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>881895.4772572668</v>
+        <v>26.64938339705004</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-923966.6287154517</v>
+        <v>26.51098277120775</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>625198.5223045415</v>
+        <v>26.6429310337541</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>908071.1251461076</v>
+        <v>26.66858846693205</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-1036884.388464386</v>
+        <v>26.51944182517285</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1768187.699687881</v>
+        <v>26.7117618600018</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2362815.981651039</v>
+        <v>26.76308347308079</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1487121.41682962</v>
+        <v>26.80506850832016</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1700634.482518415</v>
+        <v>26.82904725235708</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2111502.811513454</v>
+        <v>26.87229300405261</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-261049.9839592263</v>
+        <v>26.5669082522617</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1407074.035215385</v>
+        <v>26.79216897540234</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1729050.709874198</v>
+        <v>26.83738489107878</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2332495.1846375</v>
+        <v>26.65863247365246</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-179765.2111402352</v>
+        <v>26.58541851068536</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>247929.7513371455</v>
+        <v>26.6193399321495</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1002728.064609667</v>
+        <v>26.66133207828032</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1148872.076452588</v>
+        <v>26.5101270785018</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>861074.881371454</v>
+        <v>26.63676510788174</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1477796.32509459</v>
+        <v>26.67940433933694</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1196816.004692333</v>
+        <v>26.54279097925703</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>432656.9298660291</v>
+        <v>26.6054351593169</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1366847.445773203</v>
+        <v>26.64570031414601</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1297382.660545606</v>
+        <v>26.52251515136006</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>573372.7020367859</v>
+        <v>26.62106524628474</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1296453.762088536</v>
+        <v>26.6586192613402</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-1706537.404292333</v>
+        <v>26.51778124783551</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1745673.771597341</v>
+        <v>26.66990025017625</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3120261.014725096</v>
+        <v>26.73008248885876</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1399993.563868971</v>
+        <v>26.71349912813268</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1887061.453816487</v>
+        <v>26.74953124610301</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2731592.380744843</v>
+        <v>26.80665754308334</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-782629.0103912073</v>
+        <v>26.53898465143979</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1508996.280183203</v>
+        <v>26.71871221239712</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>2272120.968197971</v>
+        <v>26.7849239857841</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.545</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.118</v>
+        <v>17.167</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.073</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.743</v>
+        <v>12.945</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.913</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.112</v>
+        <v>3.965</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.5233887732</v>
+        <v>7.812939139651451</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.52866187838865</v>
+        <v>8.736269201793856</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.552316826309</v>
+        <v>19.2082344598693</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.48852395601008</v>
+        <v>-1.155456326625117</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.52677742640945</v>
+        <v>11.37962159187681</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.53348162309109</v>
+        <v>13.71838322465097</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.49953263001524</v>
+        <v>2.870073235402504</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.56420321750353</v>
+        <v>23.46937775737794</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.57228465081036</v>
+        <v>28.30241346433568</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.53239508785326</v>
+        <v>11.24249097799498</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.55470878274838</v>
+        <v>14.88652355139566</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.55848504974646</v>
+        <v>17.50477301380401</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.50584804214778</v>
+        <v>13.24346150168399</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.51359463638774</v>
+        <v>13.78256201008746</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.54774968440613</v>
+        <v>30.56453900303342</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.52809001039235</v>
+        <v>6.821177272324626</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.56023951694656</v>
+        <v>22.37629061744461</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.58017019213739</v>
+        <v>28.04618811897852</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.47992217069616</v>
+        <v>-1.333468468276717</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.51491742598862</v>
+        <v>9.764204855760067</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.53202025543862</v>
+        <v>14.66345203454754</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.48011906783345</v>
+        <v>-0.8791003632221539</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.56392706941554</v>
+        <v>23.52979101363754</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.51800284708756</v>
+        <v>10.3656848501637</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.54407900356265</v>
+        <v>18.81044833032208</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.55790705560752</v>
+        <v>22.27509756886402</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.47951921729645</v>
+        <v>-0.2183975747922524</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.56242308825539</v>
+        <v>24.33299148505195</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.56544889978004</v>
+        <v>24.57084134557508</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.49187358074719</v>
+        <v>5.443548616999138</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.60054911165367</v>
+        <v>33.70128206280437</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.6027587065607</v>
+        <v>35.37014419779449</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.61305166835957</v>
+        <v>33.09682641897426</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.62965251966294</v>
+        <v>37.06151778253057</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.62891229698374</v>
+        <v>40.41801654479544</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.51601077672469</v>
+        <v>18.55465187526872</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.58903490321384</v>
+        <v>40.31360133336168</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.6050918193016</v>
+        <v>45.94908778192627</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.53130380347281</v>
+        <v>14.41932283944582</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.59860892328532</v>
+        <v>33.67945804443146</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.61115290231265</v>
+        <v>36.10604532124453</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.48015756259162</v>
+        <v>3.353417922551294</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.58432007402716</v>
+        <v>29.48207395749782</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.60630348374611</v>
+        <v>35.14813280022865</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.49291201739672</v>
+        <v>5.160365461018465</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.65030260213376</v>
+        <v>51.46454176106597</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.50638744381184</v>
+        <v>0.4570161297986424</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.53171675286537</v>
+        <v>11.02488152666628</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.55207276815202</v>
+        <v>19.81160631636455</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.47964736331879</v>
+        <v>-2.086354686280963</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.55811363585504</v>
+        <v>21.20872265426533</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.56949638231618</v>
+        <v>23.84078429368196</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.49185459198747</v>
+        <v>5.523606173708199</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.59866084067144</v>
+        <v>32.78243402655039</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.61031160632556</v>
+        <v>38.35305840967055</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.61750442018936</v>
+        <v>37.47555472256563</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.62817757658588</v>
+        <v>42.02292106639285</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.63843426857804</v>
+        <v>45.62603863231047</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.49413662380579</v>
+        <v>1.370294081603713</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.57461286249649</v>
+        <v>27.91156856794815</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.597570199247</v>
+        <v>35.56405442610239</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.51326138447894</v>
+        <v>9.349396401286118</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.57840900162793</v>
+        <v>29.99670409267647</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.60224032903104</v>
+        <v>34.274876453567</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.47227983442103</v>
+        <v>2.239243894614589</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.57068833189147</v>
+        <v>24.47910924509074</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.60696981033988</v>
+        <v>34.24034168351887</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.48658776803644</v>
+        <v>4.763091730049094</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.64158707310535</v>
+        <v>45.60456023634932</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.51065967013204</v>
+        <v>-0.6286114989277358</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.53023155023708</v>
+        <v>7.11343891827191</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.55757686968471</v>
+        <v>20.36240405330348</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.49718153356324</v>
+        <v>-1.822582678366761</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.55619899180897</v>
+        <v>20.13428197536998</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.57627237529891</v>
+        <v>27.14291690020789</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.50261683064412</v>
+        <v>-1.060303078829058</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.58742538934246</v>
+        <v>27.91830549167485</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.60654914951316</v>
+        <v>37.91836637971694</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.58903025764478</v>
+        <v>29.89001198472765</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.59708796083736</v>
+        <v>33.42229152523532</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.6184122258591</v>
+        <v>42.02657066253713</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.50271412938415</v>
+        <v>-1.176375061090582</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.56211460688445</v>
+        <v>21.68381062040106</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.5996026803243</v>
+        <v>37.6231941391361</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.51030907993234</v>
+        <v>5.590855565062366</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.5626889085727</v>
+        <v>24.87194444270957</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.59346760929028</v>
+        <v>33.22749160878894</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.4873349331261</v>
+        <v>2.218019275665295</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.55708255689082</v>
+        <v>21.06017955345679</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.59720003427484</v>
+        <v>33.76198985954564</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.4890233464992</v>
+        <v>2.921005558817807</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.60619962409718</v>
+        <v>36.6732044688013</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.594958478107</v>
+        <v>28.97518725088881</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.55358338421544</v>
+        <v>24.42073153198459</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.6153255864868</v>
+        <v>36.74548682729909</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.61806177816928</v>
+        <v>38.67094159543741</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.49456588152378</v>
+        <v>6.86882298789271</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.55889997298363</v>
+        <v>21.06537687143661</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.58239340178297</v>
+        <v>29.16629744928371</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.53042105062836</v>
+        <v>11.32456658922304</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.57042710904595</v>
+        <v>24.52079965150079</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.61286796186955</v>
+        <v>36.57254377507265</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.45490430188395</v>
+        <v>-4.968366960764982</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.51707558741301</v>
+        <v>10.12823016609905</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.54355891282479</v>
+        <v>18.30150926791003</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.46539472749296</v>
+        <v>-1.561660319480815</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.59215683534656</v>
+        <v>27.27558545000438</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.6470865287055</v>
+        <v>45.20084403183975</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.59961140608102</v>
+        <v>29.48075192890666</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.67485952874926</v>
+        <v>47.40929546326261</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.7018324145436</v>
+        <v>51.22344816712364</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.47414957847896</v>
+        <v>5.480538709937107</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.59111762896105</v>
+        <v>24.54424599919922</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.64099099071828</v>
+        <v>38.69465359789545</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.6834792708239</v>
+        <v>57.92682106249774</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.68518240932882</v>
+        <v>50.25328795930386</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.72722711493482</v>
+        <v>58.14945035102367</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.72763492231239</v>
+        <v>60.00396115807191</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.53945442168995</v>
+        <v>16.95797969539129</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.71070175347937</v>
+        <v>55.33697318855577</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.71896664291881</v>
+        <v>58.18089499663509</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.55307241869499</v>
+        <v>19.62679999196479</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.63926518571146</v>
+        <v>39.93061285324115</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.66246232921413</v>
+        <v>46.82841997381298</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.48518828226599</v>
+        <v>4.5605162726769</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.64276947344181</v>
+        <v>42.32362884799184</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.6577542825917</v>
+        <v>47.06889627598731</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.50873214194523</v>
+        <v>7.835313554396418</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.73116854452481</v>
+        <v>67.79676703657728</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.76806795151501</v>
+        <v>73.81069227710444</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.82630823051828</v>
+        <v>75.38554901042214</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.8647147983361</v>
+        <v>81.21492323309647</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.88394167777681</v>
+        <v>86.09144718786386</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.57534531155141</v>
+        <v>26.27273559575094</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.83432066886962</v>
+        <v>75.86405640336415</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.84863941152829</v>
+        <v>80.14884849145471</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.69004456955314</v>
+        <v>59.79185169418425</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.66644698370519</v>
+        <v>44.75433720112517</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.69888250102751</v>
+        <v>51.22581714996227</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.71942080720485</v>
+        <v>59.77007865096733</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.50522321811716</v>
+        <v>9.410463945752735</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.68894932997887</v>
+        <v>50.6085566682839</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.70863040016258</v>
+        <v>55.99184412348488</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.53299110632477</v>
+        <v>13.21371786863319</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.62076971735173</v>
+        <v>36.41975232995506</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.65347928268809</v>
+        <v>45.11172413572366</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.47829785483309</v>
+        <v>3.160410382742931</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.63498056238112</v>
+        <v>41.37587475676212</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.66225416338861</v>
+        <v>47.6943960063925</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.50417774834802</v>
+        <v>6.707484013772916</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.72817657547449</v>
+        <v>67.12089230465155</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.77716498726727</v>
+        <v>76.09796044005574</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.82489264536758</v>
+        <v>74.17877336725638</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.85288911829963</v>
+        <v>80.36717301297233</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.89057944773048</v>
+        <v>89.51180608565494</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.54113527237018</v>
+        <v>14.95401922136984</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.82121116065055</v>
+        <v>73.38039334679621</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.84791379557497</v>
+        <v>79.14918523006192</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.65709173376646</v>
+        <v>54.61972426099054</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.59277290047545</v>
+        <v>29.8047955670195</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.62657686880443</v>
+        <v>37.27927418995522</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.65900764222808</v>
+        <v>44.72075966881771</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.49947652327918</v>
+        <v>7.496765088383995</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.64495656513614</v>
+        <v>45.07397254194741</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.67799426771466</v>
+        <v>53.14441534968347</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.53244379779058</v>
+        <v>10.65272634954991</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.60800897859434</v>
+        <v>35.17792382102555</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.6529070609599</v>
+        <v>47.14406371568439</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.49517992338381</v>
+        <v>2.33394588080823</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.61267009979225</v>
+        <v>35.55977000589982</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.65417736006028</v>
+        <v>46.90605166811268</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.50544519116843</v>
+        <v>2.967041781954908</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.68343917491276</v>
+        <v>58.08940868061914</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.74400425592339</v>
+        <v>74.63138252098027</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.73235036107951</v>
+        <v>64.06234064418405</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.77681808824893</v>
+        <v>77.17893256673969</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.82925395206527</v>
+        <v>85.4441453222866</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.52589011588384</v>
+        <v>9.852725486329643</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.7502327425072</v>
+        <v>70.86490283270254</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.80340462284348</v>
+        <v>79.12203736877157</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.51990665859844</v>
+        <v>15.77854579631007</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.51449437692377</v>
+        <v>14.17786435238088</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.54274987756785</v>
+        <v>21.22187861572723</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.46417340549468</v>
+        <v>4.579633670632457</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.49860453417653</v>
+        <v>11.51507087975339</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.50418401430046</v>
+        <v>12.52465698491738</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.48911359781101</v>
+        <v>8.961953633937991</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.54687122466096</v>
+        <v>20.41178733850206</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.56144157170988</v>
+        <v>23.24411818438711</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.50687776346713</v>
+        <v>12.92545175118997</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.53938163789251</v>
+        <v>17.68983273468234</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.54890481926161</v>
+        <v>19.13758800680069</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.49769722659144</v>
+        <v>17.59503216973521</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.49244310937573</v>
+        <v>14.73443488983156</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.53629963805106</v>
+        <v>21.17657613397999</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.51372421493503</v>
+        <v>9.544274693454298</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.53830011470452</v>
+        <v>20.2570715549825</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.57262106626827</v>
+        <v>26.83096507075526</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.44123033418704</v>
+        <v>1.401767588307859</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.46261816695554</v>
+        <v>8.198996645625851</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.49049305722957</v>
+        <v>11.75276206966717</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.44712914214581</v>
+        <v>3.712740032145167</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.51839592542324</v>
+        <v>17.69961103609718</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.51709815358278</v>
+        <v>17.5403382388942</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.53612271762522</v>
+        <v>21.8581441578559</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.55525232170206</v>
+        <v>23.98187239709019</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.4569222804038</v>
+        <v>5.552724612521679</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.54338435771828</v>
+        <v>21.48316262457809</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.54831207804968</v>
+        <v>21.70344216560754</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.48521140237976</v>
+        <v>10.93992433169445</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.59488284331113</v>
+        <v>29.84213420385647</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.6060556857982</v>
+        <v>30.71076575110278</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.6110269609804</v>
+        <v>32.00344191897312</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.64106773597252</v>
+        <v>38.92748414743063</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.64718181258237</v>
+        <v>40.19185164325485</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.5235100311033</v>
+        <v>22.52523044645272</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.59465057546923</v>
+        <v>36.62745981529779</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.62208636671535</v>
+        <v>34.98217991593651</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.52455021368192</v>
+        <v>15.52683527689443</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.59093176353232</v>
+        <v>29.46389223001318</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.62108859100908</v>
+        <v>34.5437573479726</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.45003561200024</v>
+        <v>6.547758051184758</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.55192948994586</v>
+        <v>25.05608248046124</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.59220076428816</v>
+        <v>34.06338671059835</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.47262985949864</v>
+        <v>10.17016091867844</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.63077847861742</v>
+        <v>42.024008036788</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.4961191816648</v>
+        <v>9.083319342479399</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.51517301482616</v>
+        <v>16.26005993851972</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.54241972695846</v>
+        <v>21.76239340146203</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.45038491326983</v>
+        <v>4.533752014197351</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.53221072375256</v>
+        <v>20.1977577923689</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.54790007900694</v>
+        <v>22.21536133538435</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.4778250541555</v>
+        <v>10.66493589796972</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.58659333339657</v>
+        <v>30.52075215930612</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.60943757111824</v>
+        <v>34.30535021766524</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.6071124801615</v>
+        <v>33.46398034858874</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.63069902288149</v>
+        <v>40.50475554146151</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.65046215792401</v>
+        <v>42.47874794277229</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.48932034470478</v>
+        <v>13.80134576580299</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.57007356814931</v>
+        <v>31.70096734962016</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.60714250256275</v>
+        <v>32.45970876167335</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.49458794849318</v>
+        <v>9.509790873881762</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.559317348878</v>
+        <v>23.7579331279339</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.60355411843543</v>
+        <v>31.50719992097645</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.43265651665354</v>
+        <v>2.4943848616827</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.52843067382638</v>
+        <v>16.81207674073689</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.58716217590964</v>
+        <v>30.90521041248649</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.4565379418717</v>
+        <v>5.213434233608233</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.61342484714647</v>
+        <v>29.33226076884364</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.49679700449556</v>
+        <v>8.006608769629928</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.51033695986368</v>
+        <v>12.0834353825081</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.54458421859475</v>
+        <v>20.67487945411386</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.46996017885041</v>
+        <v>3.942222306391944</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.53039164694745</v>
+        <v>18.68388342645842</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.55490754112977</v>
+        <v>22.92604853140865</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.48635503063987</v>
+        <v>6.496008886310417</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.57136211774625</v>
+        <v>25.43593612626087</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.60077005286067</v>
+        <v>32.40424139299374</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.56814716493381</v>
+        <v>25.02883199449932</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.58354906781947</v>
+        <v>30.30571520879301</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.61570222976363</v>
+        <v>33.03820609518709</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.48730276750414</v>
+        <v>10.98227499157621</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.54488352807563</v>
+        <v>23.86230319311274</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.59711571475336</v>
+        <v>29.76127794575704</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.49142972245038</v>
+        <v>8.173930907301404</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.5421851475376</v>
+        <v>21.29091504939203</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.59158711332289</v>
+        <v>31.6979616046963</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.45453018176794</v>
+        <v>4.385963465782172</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.51908124214683</v>
+        <v>16.21316017051231</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.57915033910965</v>
+        <v>30.3605543078467</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.46096898893229</v>
+        <v>6.537636475789146</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.57647176012773</v>
+        <v>26.18742818919785</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.57341804346229</v>
+        <v>23.30915362878222</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.49480282658429</v>
+        <v>19.85664271521779</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.57836428811688</v>
+        <v>29.59731371347504</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.60557460601935</v>
+        <v>35.56127484840351</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.44642219767413</v>
+        <v>6.650987605892269</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.50701913884228</v>
+        <v>16.79895601139793</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.55682297864223</v>
+        <v>23.60970398254733</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.52477082614839</v>
+        <v>14.23817426293535</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.55282523359173</v>
+        <v>22.97304348713375</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.60833751600181</v>
+        <v>30.46066412343083</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.41807290209559</v>
+        <v>-0.4918343018803171</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.46556695731938</v>
+        <v>8.099038023066523</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.50222460457907</v>
+        <v>12.81492180026118</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.43958468658284</v>
+        <v>4.414422645043647</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.55339204660435</v>
+        <v>21.8824819648993</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.63288353152821</v>
+        <v>29.75715043875653</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.56177121509076</v>
+        <v>22.34416038462509</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.64933725564945</v>
+        <v>34.55927649284175</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.69736141825949</v>
+        <v>37.52410839982215</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.44447545571949</v>
+        <v>10.51814967215734</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.54233126580859</v>
+        <v>19.87944689130967</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.6265434642655</v>
+        <v>26.76714163717622</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.69472364748254</v>
+        <v>51.32797313403913</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.66467184330381</v>
+        <v>42.07903007281669</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.73115589729398</v>
+        <v>51.1870031155424</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.75931142235324</v>
+        <v>57.71545080306046</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.52106405079301</v>
+        <v>17.41192515231172</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.70763190757926</v>
+        <v>50.51007483464546</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.74764225457752</v>
+        <v>54.35165961393129</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.56502565787427</v>
+        <v>23.34481490054129</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.64752380240569</v>
+        <v>36.78158850629578</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.68497093398254</v>
+        <v>42.74956969737329</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.46801963553155</v>
+        <v>9.270707203776233</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.62625535386736</v>
+        <v>33.37040785656033</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.65666446617601</v>
+        <v>40.05256820129256</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.50747384813958</v>
+        <v>16.74699898837096</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.7338596959385</v>
+        <v>57.67160706737795</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.79864849743013</v>
+        <v>61.40369064076798</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.85280744961672</v>
+        <v>64.03190830156137</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.90233296792155</v>
+        <v>68.87021217204418</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.94493166767058</v>
+        <v>73.89497576484004</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.59585324769565</v>
+        <v>32.8000617179305</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.85853068779624</v>
+        <v>66.75062975010027</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.91071716222046</v>
+        <v>71.25967954854855</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.6963704696889</v>
+        <v>49.84696724901873</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.63190665574004</v>
+        <v>30.52648926241699</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.68760073167678</v>
+        <v>40.88655385658263</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.74031483493131</v>
+        <v>54.74777883043213</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.47150895080862</v>
+        <v>10.2174336372793</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.67354337276128</v>
+        <v>43.71051188154726</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.72891392152394</v>
+        <v>51.73022556911214</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.5324926187887</v>
+        <v>16.643316242274</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.61819135821835</v>
+        <v>32.1427578194081</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.66782953052116</v>
+        <v>40.64405694395133</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.45196241058446</v>
+        <v>6.549115664350516</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.61020046850488</v>
+        <v>31.49440905012652</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.65678872682372</v>
+        <v>40.11429380903049</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.49329464075815</v>
+        <v>12.89467119379317</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.72369977797969</v>
+        <v>52.56615070020666</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.80387347878736</v>
+        <v>62.31396882974489</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.84026217156035</v>
+        <v>57.57398780734621</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.87856492106163</v>
+        <v>64.86930584432986</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.94406288701962</v>
+        <v>75.16731018020624</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.54579591361182</v>
+        <v>22.05164299571177</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.83484196381622</v>
+        <v>61.61082419135496</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.90379220034621</v>
+        <v>69.66170631351756</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.65758086898644</v>
+        <v>47.77311154401263</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.5486176046651</v>
+        <v>20.13530767328704</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.59819068511205</v>
+        <v>28.3869585571688</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.66208572274895</v>
+        <v>41.55654935790373</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.4590628586882</v>
+        <v>8.573667688625491</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.61769653877572</v>
+        <v>36.49766970900151</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.68421373618468</v>
+        <v>46.58821184098622</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.52469459450712</v>
+        <v>14.81966529161942</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.5981317867103</v>
+        <v>31.10720928025176</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.65981881814033</v>
+        <v>41.98173332154737</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.4687538514066</v>
+        <v>6.097773015213228</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.58474126693343</v>
+        <v>27.40245017074635</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.64475392830975</v>
+        <v>38.73296752669816</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.48841309227403</v>
+        <v>10.13075609669315</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.66911440921759</v>
+        <v>44.47688295405544</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.75879224862442</v>
+        <v>60.66012149141673</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.72365281339398</v>
+        <v>44.31202000053168</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.7755629412233</v>
+        <v>56.04467990944013</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.85680864000266</v>
+        <v>69.39172385934216</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.50888880289019</v>
+        <v>14.32896611838403</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.738329266702</v>
+        <v>52.68343635866925</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.83273060043929</v>
+        <v>64.17393751575872</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.52912182926045</v>
+        <v>15.53442516693404</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.54533214763388</v>
+        <v>19.88510243847757</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.56385623835122</v>
+        <v>24.6380057319807</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.48043206706869</v>
+        <v>4.715528680111099</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.51695679407994</v>
+        <v>12.84441194268672</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.52335595997858</v>
+        <v>13.63117939571271</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.50145972563554</v>
+        <v>8.278035468149305</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.56656161392863</v>
+        <v>23.80561257899457</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.57622695842396</v>
+        <v>27.70795528914926</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.53995268351456</v>
+        <v>20.00281935071767</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.56723748937834</v>
+        <v>25.95466300090573</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.57616961246514</v>
+        <v>28.20961297218988</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.49165238757899</v>
+        <v>8.54134219656029</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.52444829105428</v>
+        <v>18.15495954210213</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.55573458325813</v>
+        <v>20.3065731922545</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.51484789025585</v>
+        <v>10.83644182349342</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.55564648792501</v>
+        <v>22.08173078070155</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.58110066883159</v>
+        <v>27.59865572029227</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.45703125279946</v>
+        <v>2.417190170264135</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.48134589858385</v>
+        <v>9.138293515695775</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.50913289049048</v>
+        <v>13.00042080761949</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.4628782984744</v>
+        <v>4.257380501979007</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.53918133939109</v>
+        <v>20.00653217140022</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.52881358749665</v>
+        <v>16.85627358909812</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.5692301391191</v>
+        <v>28.6568707460556</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.57810697322255</v>
+        <v>27.94255509515336</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.47888411531538</v>
+        <v>6.661278308637325</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.56238547567332</v>
+        <v>24.87621555869475</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.56666399839833</v>
+        <v>24.75024227815295</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.50215804007938</v>
+        <v>10.68494526492645</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.61476786252704</v>
+        <v>35.43466726222258</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.61970531325179</v>
+        <v>36.17473566519153</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.63611377725683</v>
+        <v>38.9896768532298</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.65972950938531</v>
+        <v>45.09959227967757</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.66433688875143</v>
+        <v>44.45295730343059</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.51285177496346</v>
+        <v>12.77235499863998</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.61800015839953</v>
+        <v>42.47447216546112</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.63229517983122</v>
+        <v>40.4607161746095</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.5234187153679</v>
+        <v>14.48953932138621</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.60406100529471</v>
+        <v>30.90684739260248</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.624010378256</v>
+        <v>34.58215315813392</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.46635105189419</v>
+        <v>7.125131642088615</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.56286666004694</v>
+        <v>26.22492427303249</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.59964758426862</v>
+        <v>34.14065548212613</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.48633196750347</v>
+        <v>9.699514786426544</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.64118337211613</v>
+        <v>44.251138906768</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.51165373174372</v>
+        <v>9.69521436011102</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.55073303211252</v>
+        <v>22.52388478939769</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.56714028875843</v>
+        <v>25.57440215988985</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.47423314302446</v>
+        <v>6.499232773040365</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.55277115399964</v>
+        <v>23.21088913074838</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.56667970549619</v>
+        <v>25.03170074684477</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.49716788595366</v>
+        <v>11.5341876089667</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.60766529352384</v>
+        <v>35.23124015189769</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.62310412962993</v>
+        <v>38.95455755168364</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.63293026051708</v>
+        <v>40.50661382843815</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.65087586831811</v>
+        <v>46.83210077634902</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.66733119277215</v>
+        <v>45.4083241698502</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.48528192882884</v>
+        <v>9.455840933355056</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.59689069399963</v>
+        <v>36.84601047470781</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.61946656850294</v>
+        <v>35.98316807419477</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.49770358126708</v>
+        <v>8.585560587151019</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.57545201876759</v>
+        <v>24.87691097422534</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.6081118084287</v>
+        <v>31.41727676299772</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.45116030923266</v>
+        <v>3.807190056216228</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.54125774192961</v>
+        <v>18.38200182414186</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.59435409964035</v>
+        <v>31.39755919654618</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.47277503387813</v>
+        <v>5.687290255088818</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.6250041841189</v>
+        <v>32.16165134303353</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.51299598942677</v>
+        <v>9.291512904730485</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.54215348695789</v>
+        <v>18.3617934294507</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.56695386544422</v>
+        <v>25.00633831576944</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.48972999681596</v>
+        <v>5.563340991127109</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.54715519255959</v>
+        <v>20.96315687877171</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.57013767050564</v>
+        <v>25.77152141708545</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.50403161990176</v>
+        <v>6.812753348915052</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.58976111567397</v>
+        <v>28.98644241292613</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.61297290144288</v>
+        <v>36.91022070233277</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.59421234919697</v>
+        <v>31.74025362603345</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.60741084543922</v>
+        <v>36.81058610939429</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.63579396721094</v>
+        <v>39.08668799098022</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.49092232798418</v>
+        <v>9.576270746486259</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.5733753005135</v>
+        <v>30.99907002867068</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.61169426955175</v>
+        <v>33.07737646083228</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.49620709760738</v>
+        <v>8.745466289759761</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.5561747380482</v>
+        <v>22.32280023711553</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.59568074230205</v>
+        <v>32.07783788781529</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.46811908566528</v>
+        <v>5.489915921410553</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.52813466414978</v>
+        <v>16.77614901980374</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.58368270849026</v>
+        <v>30.93728903149457</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.47529102663018</v>
+        <v>7.124146221757968</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.58664570431979</v>
+        <v>27.14695019948349</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.58447477704068</v>
+        <v>25.65427577475072</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.52884664202048</v>
+        <v>22.27549220738549</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.60342344485644</v>
+        <v>32.34252934508119</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.62158582349525</v>
+        <v>36.21787604915775</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.44639563204568</v>
+        <v>4.056721605767795</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.53422046028829</v>
+        <v>18.47032472985346</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.5749774762548</v>
+        <v>24.38095795679166</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.51470372205038</v>
+        <v>13.56357236074</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.56235571668051</v>
+        <v>24.07064277069487</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.60737742348133</v>
+        <v>31.35550830996433</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.4250878185343</v>
+        <v>-0.1589031012217568</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.4745189235243</v>
+        <v>8.935962949510227</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.51185903364198</v>
+        <v>13.70531709595353</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.44172808083016</v>
+        <v>3.504347723404269</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.55701250748164</v>
+        <v>20.63370297730543</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.62614543071226</v>
+        <v>31.52945295403079</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.56923675499888</v>
+        <v>22.81219811591051</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.65010673622671</v>
+        <v>36.51531852800582</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.69672471276352</v>
+        <v>40.70466481582584</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.42177327321518</v>
+        <v>5.818126081187184</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.54981179720683</v>
+        <v>19.58664244654869</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.62348166546372</v>
+        <v>28.2799534289754</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.69198915209335</v>
+        <v>52.60642766312213</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.67997238595238</v>
+        <v>44.91892236311112</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.73791154839369</v>
+        <v>52.92850220879641</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.75484683074611</v>
+        <v>56.40022179164785</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.50505363498376</v>
+        <v>12.35682382443567</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70965052785495</v>
+        <v>50.45736867420043</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.73925605304687</v>
+        <v>54.35725333549787</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.54680730836062</v>
+        <v>20.27770534075172</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.64607454069347</v>
+        <v>37.67598539100566</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.67300656176368</v>
+        <v>42.2245841485228</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.46830073882984</v>
+        <v>8.799242902502147</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.6171377694119</v>
+        <v>34.88540378202731</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.64678263946885</v>
+        <v>40.22341951924929</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.49994544786712</v>
+        <v>13.99913081686646</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.71683527525485</v>
+        <v>56.14003833269897</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.77050222812832</v>
+        <v>60.74799034090152</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.82338189304379</v>
+        <v>64.42856683075448</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.86958774126352</v>
+        <v>68.59957414209399</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.90950731669409</v>
+        <v>73.67238185458123</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.54308492858195</v>
+        <v>22.55531537776142</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.82333177964988</v>
+        <v>63.71320088110109</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.86569064161882</v>
+        <v>69.26133235858023</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.69271461782079</v>
+        <v>51.15821974173287</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.65034793434489</v>
+        <v>35.28269323498261</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.69888647355048</v>
+        <v>43.79344780122371</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.73737052665406</v>
+        <v>54.53184369871508</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.46290335046586</v>
+        <v>6.667276163089696</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.67901575606338</v>
+        <v>44.29140532936115</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.72176295660168</v>
+        <v>51.83689809726425</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.51757010871671</v>
+        <v>13.23655534703003</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.6178568612801</v>
+        <v>32.16163625371055</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.65597973504921</v>
+        <v>39.37918041016184</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.45256861437523</v>
+        <v>5.828340581671949</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.6000337872871</v>
+        <v>31.59827518307423</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.64418581418391</v>
+        <v>39.59606607862526</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.48663938874524</v>
+        <v>10.32813738650569</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.70521151591575</v>
+        <v>50.62238231651742</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.77274366499154</v>
+        <v>60.90163971256996</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.80948309482858</v>
+        <v>58.25650920681311</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.84580821689095</v>
+        <v>64.7242815652712</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.90560440006156</v>
+        <v>74.46651744159662</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.49890666411087</v>
+        <v>13.43044115796302</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.79975942755909</v>
+        <v>58.68063424300728</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.85650862246859</v>
+        <v>67.12055943940166</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.65524183497287</v>
+        <v>48.75615726403335</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.57042257750885</v>
+        <v>23.18472830009372</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.61658479359215</v>
+        <v>31.2162600661494</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.66709916852308</v>
+        <v>42.57643008842407</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.4602695238633</v>
+        <v>7.326149322338583</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.6285943171424</v>
+        <v>38.07001248704559</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.682963025502</v>
+        <v>47.59167344692918</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.51296297103136</v>
+        <v>12.09199938506653</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.59570741142528</v>
+        <v>29.46043030284038</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.64709578331215</v>
+        <v>40.46599671249054</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.46586689720519</v>
+        <v>4.742474424275706</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.57238148024515</v>
+        <v>25.05011960189444</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.62999308555185</v>
+        <v>37.62410232600102</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.48232041495411</v>
+        <v>7.138473900553638</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.65175646541091</v>
+        <v>39.26374048633437</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.73027864179825</v>
+        <v>58.37598071701447</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.70186196018994</v>
+        <v>42.27237641715029</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.75250662827244</v>
+        <v>56.0215840157829</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.82740137498412</v>
+        <v>68.62059646748033</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.47873265988186</v>
+        <v>9.222677637542525</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.7150773366765</v>
+        <v>49.87814668893559</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.79654377866491</v>
+        <v>62.81888619208821</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.54203595160596</v>
+        <v>10.76272771720405</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.56106699134057</v>
+        <v>15.73313738691487</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.57800629490547</v>
+        <v>26.10289475384679</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.50868075465225</v>
+        <v>-0.9931219202400463</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.55360768665464</v>
+        <v>13.9242561621641</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.5566191466425</v>
+        <v>16.30977010502738</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.52284414067493</v>
+        <v>1.850993460241078</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.59343836134799</v>
+        <v>31.18934826700093</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.59876231927457</v>
+        <v>36.44834497777621</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.56953624539182</v>
+        <v>19.60953858200432</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.59283602215571</v>
+        <v>25.17697674901653</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.59342916512015</v>
+        <v>25.34335814274948</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.52102782574999</v>
+        <v>7.188046898290303</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.54946112100026</v>
+        <v>18.6877657966294</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.57759111038878</v>
+        <v>29.8546393526274</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.5304701749452</v>
+        <v>9.595001093592497</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.57049620544226</v>
+        <v>23.07083225307393</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.58509973014635</v>
+        <v>29.1896488957208</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.48450632697563</v>
+        <v>0.1656376595568183</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.52046329011639</v>
+        <v>10.87689512450076</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.53227303586121</v>
+        <v>13.42103486463544</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.48524642536422</v>
+        <v>0.5382351533258962</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.56834446828024</v>
+        <v>23.45727248520443</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.54751971037188</v>
+        <v>17.54103294182484</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.58885696551146</v>
+        <v>32.97086340131033</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.59676437187771</v>
+        <v>33.98453971870094</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.51352518429326</v>
+        <v>4.291343093755092</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.60171219996875</v>
+        <v>34.47942304291146</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.60200929026434</v>
+        <v>34.48866784117303</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.52940048593449</v>
+        <v>7.462618996699177</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.64373454199226</v>
+        <v>49.91069697001761</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.64405829037111</v>
+        <v>49.44154749857354</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.66327300191432</v>
+        <v>50.50363428208472</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.68266111481479</v>
+        <v>56.32318771435698</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.67865529403183</v>
+        <v>55.70015514570017</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.54738375226032</v>
+        <v>18.64149533737621</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.63973194178535</v>
+        <v>52.84871129790261</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.65264023246878</v>
+        <v>56.40791653786204</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.53923398050164</v>
+        <v>15.90956144569118</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.61509766866706</v>
+        <v>35.10520590992267</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.62308834866268</v>
+        <v>36.04445710326159</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.49330301136145</v>
+        <v>4.527236409623725</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.59472535039504</v>
+        <v>31.80216477882332</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.61209587193853</v>
+        <v>35.4540401173189</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.5060933536381</v>
+        <v>5.712286658484231</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.6603051594434</v>
+        <v>53.38972122461838</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.53474556754583</v>
+        <v>5.926414357506516</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.57535813050274</v>
+        <v>24.32207933695133</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.58959712845796</v>
+        <v>29.9271500336598</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.5121187308379</v>
+        <v>2.35809539669787</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.59618371499348</v>
+        <v>31.34314099370193</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.60475088642942</v>
+        <v>33.83654553574169</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.52766567592511</v>
+        <v>7.052129853119538</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.64045456158733</v>
+        <v>48.79468897509553</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.64975545904994</v>
+        <v>52.17999192033697</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.66421978752744</v>
+        <v>55.27704472525537</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.67856215946381</v>
+        <v>60.67278957572982</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.68501072261122</v>
+        <v>60.27004239989383</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.52628113948438</v>
+        <v>2.830801537045843</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.62499974435844</v>
+        <v>40.52066197293107</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.64496663801118</v>
+        <v>45.14673700359414</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.51939041185113</v>
+        <v>10.48862577036319</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.59342506849186</v>
+        <v>31.55276789011622</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.61229016874398</v>
+        <v>34.30761621562925</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.48333557694168</v>
+        <v>2.938375758089769</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.57960938629103</v>
+        <v>25.75281815982828</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.61111056166603</v>
+        <v>34.46254869421287</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.49748024682595</v>
+        <v>4.717104141978947</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.64994694435276</v>
+        <v>46.15727850325602</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.53130445510721</v>
+        <v>4.06908386181448</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.56244827080994</v>
+        <v>17.41344270014233</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.5840977555199</v>
+        <v>28.47461247090009</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.52001656314238</v>
+        <v>2.323284150115779</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.58319315845516</v>
+        <v>28.16053927881613</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.60037796311727</v>
+        <v>35.42035753209115</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.52843198308508</v>
+        <v>1.839424012676297</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.61711972412764</v>
+        <v>40.46452017491799</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.63376388270568</v>
+        <v>50.05351947794456</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.62190429715384</v>
+        <v>44.46120656763013</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.63233695511706</v>
+        <v>50.22347276284094</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.65069615836003</v>
+        <v>54.79497204144238</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.52358550874405</v>
+        <v>1.967465801943028</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.59688943643323</v>
+        <v>30.17248883681659</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.63079241538067</v>
+        <v>41.99897535438271</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.51520988778481</v>
+        <v>7.340711657393722</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.57333481382917</v>
+        <v>25.98950308429077</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.59982159684048</v>
+        <v>34.04161655185747</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.49530966739225</v>
+        <v>3.799944716033767</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.56289525139864</v>
+        <v>22.41376100682215</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.59910417497213</v>
+        <v>35.02593800516397</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.49722610793966</v>
+        <v>3.921495465964608</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.61141829404239</v>
+        <v>37.28150261741526</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.59470252375396</v>
+        <v>28.26203399611095</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.55829233446944</v>
+        <v>24.97591415288391</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.6179227412347</v>
+        <v>37.55990779265727</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.62208442222866</v>
+        <v>38.73150287552279</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.48331997661103</v>
+        <v>4.43198126270482</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.56038250225157</v>
+        <v>20.10317869274144</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.58339716254634</v>
+        <v>27.51956713650295</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.52459730510724</v>
+        <v>10.8682259541244</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.56786119095691</v>
+        <v>23.51956593858904</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.60340159818049</v>
+        <v>33.97925082434151</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.45387616987737</v>
+        <v>-3.521859571031129</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.50856029638176</v>
+        <v>9.521852568799741</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.5315973640245</v>
+        <v>14.9704523064948</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.45986199004741</v>
+        <v>-1.518469866517389</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.57448552616239</v>
+        <v>22.10400855581702</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.62542848545336</v>
+        <v>39.11835749823991</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.58501718021741</v>
+        <v>25.23236454199767</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.65206457691654</v>
+        <v>44.06628007803879</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.68218535674326</v>
+        <v>49.621492411581</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.44999277023943</v>
+        <v>1.900528165210819</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.5622480258491</v>
+        <v>19.63625380004816</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.61676876790155</v>
+        <v>34.32424474543563</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.68919554401664</v>
+        <v>57.96096296034261</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.69402937001108</v>
+        <v>54.66776663079091</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.73734317840167</v>
+        <v>61.91691673362847</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.73908261536829</v>
+        <v>62.26061984880069</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.53705419653076</v>
+        <v>15.24621780252455</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.71614774943492</v>
+        <v>58.29622166155799</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.72744802771163</v>
+        <v>60.23780187489447</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.55097055194959</v>
+        <v>19.64608065547262</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.64014939734593</v>
+        <v>40.31933936537278</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.65859879464173</v>
+        <v>45.55526384850607</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.48938671160605</v>
+        <v>5.736456566730265</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.63297416603605</v>
+        <v>41.64363901979924</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.64752102229528</v>
+        <v>45.04444045620772</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.50785683652748</v>
+        <v>7.737704621717096</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.71353381101485</v>
+        <v>64.41769355074763</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.74922530068461</v>
+        <v>71.27544550009365</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.80677828378883</v>
+        <v>74.5563996827797</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.84190203589072</v>
+        <v>80.11473065907398</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.86486705313069</v>
+        <v>85.5329619205452</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.55433927519729</v>
+        <v>20.63301580875136</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.79994667229806</v>
+        <v>72.70542119724314</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.82573708576431</v>
+        <v>78.93325615986596</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.6934173809863</v>
+        <v>60.30382897217179</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.67271553679986</v>
+        <v>47.13929154936852</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.70778061536768</v>
+        <v>53.42396011743725</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.72845308501624</v>
+        <v>62.06460711343169</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.50377207451245</v>
+        <v>8.371799545638773</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.69387727254995</v>
+        <v>52.55649561942326</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.71656285668881</v>
+        <v>57.79009983811058</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.52831106555025</v>
+        <v>11.77285135705876</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.61912568580487</v>
+        <v>34.93208432423656</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.64703087780766</v>
+        <v>42.96919554604014</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.47916462347863</v>
+        <v>3.208287387064022</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.62204102563288</v>
+        <v>38.82484482723286</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.64911679336338</v>
+        <v>45.1572869692915</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.49982123853886</v>
+        <v>4.960937124322182</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.70752936934677</v>
+        <v>60.48045639241298</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.75506753778802</v>
+        <v>72.89855967716232</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.79971608434803</v>
+        <v>70.65773264326783</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.82604028008098</v>
+        <v>76.76100867634077</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.86637962620962</v>
+        <v>87.67691511368049</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.51994516962174</v>
+        <v>9.530611216115059</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.78443087012984</v>
+        <v>66.02778508697651</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.82268837393059</v>
+        <v>76.01429791945323</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.65805168844764</v>
+        <v>55.8239068062223</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.59725089514069</v>
+        <v>29.71149889495249</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.63171833660836</v>
+        <v>37.27424539444289</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.66521977921624</v>
+        <v>46.58408745944952</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.49555617147451</v>
+        <v>7.185885664232224</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.64487945292223</v>
+        <v>45.42851347107562</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.68009531653395</v>
+        <v>54.02006761054439</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.52467641312617</v>
+        <v>8.56241833026618</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.60017727228752</v>
+        <v>31.00246213178598</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.6405978431201</v>
+        <v>44.07612170502993</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.49083880444435</v>
+        <v>1.327074916098553</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.59608223351254</v>
+        <v>30.08222059898421</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.6368898558661</v>
+        <v>43.60674017967683</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.49717310412976</v>
+        <v>0.30879918646718</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.65973295772954</v>
+        <v>46.04538034530596</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.71856032546318</v>
+        <v>69.05234249772641</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.70445924053367</v>
+        <v>52.24614447783955</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.74434710241142</v>
+        <v>67.46333801348949</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.80009924106508</v>
+        <v>82.48077243885635</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.50122598484993</v>
+        <v>4.331649355307967</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.70986723630932</v>
+        <v>56.91640485403086</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.77144951514076</v>
+        <v>73.47375335809066</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.55222464311142</v>
+        <v>16.67543751837547</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.55915876449026</v>
+        <v>16.934154675386</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.57769199376272</v>
+        <v>27.02087566047412</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.52523662794723</v>
+        <v>6.468269740174001</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.56746715177332</v>
+        <v>20.64380050497288</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.56823043200502</v>
+        <v>22.85805066832005</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.53554194831352</v>
+        <v>10.55927840750251</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.59651629047216</v>
+        <v>34.83304248952423</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.60303510729551</v>
+        <v>37.55253049049388</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.56770887195765</v>
+        <v>18.07455211253279</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.59112128686801</v>
+        <v>22.20264272495538</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.59315252100049</v>
+        <v>22.25282106206108</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.5495535996094</v>
+        <v>22.20132004259744</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.55380752715484</v>
+        <v>19.67736318789451</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.58695420352461</v>
+        <v>33.59609727014998</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.53827871762117</v>
+        <v>12.76041815730839</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.5644037404011</v>
+        <v>22.1381779386242</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.58233820045079</v>
+        <v>29.33476038094541</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.50354273495247</v>
+        <v>8.077436077715355</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.531689986387</v>
+        <v>15.42705052130277</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.54319671461615</v>
+        <v>17.68324184709909</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.4904036093813</v>
+        <v>5.021127099652819</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.55967742009321</v>
+        <v>20.76654739567942</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.55575669573193</v>
+        <v>21.43063684484352</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.58314036428926</v>
+        <v>28.70395082880824</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.59376779669977</v>
+        <v>31.40851779320824</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.52650003738153</v>
+        <v>8.584882912673972</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.61076911140176</v>
+        <v>34.36150618761688</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.61049472486773</v>
+        <v>34.19662658916924</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.53865001848586</v>
+        <v>12.63646404956991</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.64200368907659</v>
+        <v>44.11662765707465</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.64518671032201</v>
+        <v>44.43925978304297</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.6586848914976</v>
+        <v>45.07820405175071</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.67948214921084</v>
+        <v>50.57724505609401</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.67842649947157</v>
+        <v>50.84731970985796</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.57837685994175</v>
+        <v>32.75486789004843</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.64278089196631</v>
+        <v>47.42132882024542</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.66283921490275</v>
+        <v>50.38939713526037</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.54689316197487</v>
+        <v>18.88590441647801</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.60661287942683</v>
+        <v>31.32539763397559</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.61967849723525</v>
+        <v>34.32406721179976</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.5116046831155</v>
+        <v>11.43237873685151</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.60344514652705</v>
+        <v>31.1296645327491</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.6232524013907</v>
+        <v>36.22254777010759</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.51017989151903</v>
+        <v>9.627299955468857</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.6488523666252</v>
+        <v>44.92882648514428</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.54160060965635</v>
+        <v>10.67079391275595</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.56917359384788</v>
+        <v>22.4692451350192</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.58597398335071</v>
+        <v>28.64819495789889</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.52350025522868</v>
+        <v>6.354245073669521</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.60416339034152</v>
+        <v>32.65714865877406</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.61217711327197</v>
+        <v>34.2243285834551</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.53528126609789</v>
+        <v>11.61688969759733</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.63806096992769</v>
+        <v>45.53743019035051</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.6502102038992</v>
+        <v>48.59995950359541</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.65826438804416</v>
+        <v>48.88888322957776</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.67407482648556</v>
+        <v>53.73464080728603</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.68370066705319</v>
+        <v>55.1762107061835</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.55470736040788</v>
+        <v>14.54198118844007</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.62677353683082</v>
+        <v>37.8957602202594</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.65414112848634</v>
+        <v>43.71724442563257</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.52582804346656</v>
+        <v>14.38637968295995</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.58470479497884</v>
+        <v>29.22989095583443</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.60857734021525</v>
+        <v>33.24786099896911</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.50012594673518</v>
+        <v>9.194109992574603</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.58747969784452</v>
+        <v>25.60308201433669</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.62161341747611</v>
+        <v>34.88960153403018</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.50026054218232</v>
+        <v>7.833671028623336</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.6383737700426</v>
+        <v>38.19005270454812</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.53709683049195</v>
+        <v>8.472911049155222</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.55861861521701</v>
+        <v>16.63627905882043</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.58151105851751</v>
+        <v>27.11959419034895</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.53151553714027</v>
+        <v>6.524047057323997</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.5932942952632</v>
+        <v>30.87834572192923</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.60864008740957</v>
+        <v>35.61757528481012</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.53624958725831</v>
+        <v>7.071506707587911</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.61797690666465</v>
+        <v>40.65779390984747</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.63580240327011</v>
+        <v>46.99297525323404</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.61790404920478</v>
+        <v>41.17493878125853</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.62801799240844</v>
+        <v>44.99328108657779</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.6483240275663</v>
+        <v>49.37254027183273</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.54505945839541</v>
+        <v>11.67447406498903</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.5981595583537</v>
+        <v>28.37017684211873</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.63763928897399</v>
+        <v>42.36056147308373</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.52256528831044</v>
+        <v>10.72975562434472</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.56969110082584</v>
+        <v>25.23434356017238</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.59930199379387</v>
+        <v>33.2853066415656</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.51366873682613</v>
+        <v>10.47941851577442</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.57549938485391</v>
+        <v>24.91688241473189</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.61237277456297</v>
+        <v>36.28407389251215</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.50308911463473</v>
+        <v>6.954408832479466</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.6071099654452</v>
+        <v>33.84673758314542</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.59075429272392</v>
+        <v>24.61537396056962</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.54139291873623</v>
+        <v>21.9832291340662</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.60162822851347</v>
+        <v>32.60794248161454</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.61402738498667</v>
+        <v>35.08144405899378</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.49748534499577</v>
+        <v>9.608762700363322</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.54708635835138</v>
+        <v>18.04587397958636</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.57638522117083</v>
+        <v>25.33566920132553</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.54166636359969</v>
+        <v>15.12854821503899</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.56840340331918</v>
+        <v>24.01435428868902</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.60381868187626</v>
+        <v>32.69623781772188</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.484933208984</v>
+        <v>6.326588362234816</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.53010541676478</v>
+        <v>16.02245644253302</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.54889987666468</v>
+        <v>20.13856656687741</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.47872156556422</v>
+        <v>5.788385860900902</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.57854043753023</v>
+        <v>24.99683782117017</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.63055400518305</v>
+        <v>36.56623273540148</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.58687520678656</v>
+        <v>25.15198103102501</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.65072108033813</v>
+        <v>39.1500816813777</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.68116715687354</v>
+        <v>43.41675597652642</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.48663771287531</v>
+        <v>10.41991677171387</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.56379722762581</v>
+        <v>21.90880240576827</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.62146474237858</v>
+        <v>31.36691362093052</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.68527653813845</v>
+        <v>50.85088948219955</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.6762161747385</v>
+        <v>46.61805504966934</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.72176892133913</v>
+        <v>54.13665050697131</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.73408408206506</v>
+        <v>56.58881983618448</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.55798605723516</v>
+        <v>21.52370284727656</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.70492705011853</v>
+        <v>52.41301611818318</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.72543516321356</v>
+        <v>54.75055684820867</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.57019929627488</v>
+        <v>24.73838025599682</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.64005425763256</v>
+        <v>37.75204835056174</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.6600661653112</v>
+        <v>43.00626482681072</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.52162221248777</v>
+        <v>13.76400913978579</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.65335314965824</v>
+        <v>39.55591517801598</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.66635032478041</v>
+        <v>43.52063427111881</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.52783221864713</v>
+        <v>13.92609387886585</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.71665623688722</v>
+        <v>59.11241921521876</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.7560573289653</v>
+        <v>64.09170831975979</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.81179641314251</v>
+        <v>68.11487249764107</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.84456615057337</v>
+        <v>72.09286405969635</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.87002700771899</v>
+        <v>76.61377618666157</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.60235926270828</v>
+        <v>32.37104961549671</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.80692887432249</v>
+        <v>68.496479430259</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.8391350321519</v>
+        <v>72.32826581290122</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.68949282315307</v>
+        <v>53.23919640347218</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.65383851060161</v>
+        <v>38.17612061062307</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.69103143976189</v>
+        <v>45.30303920875838</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.72252951914244</v>
+        <v>55.53792364327483</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.52271496793472</v>
+        <v>14.8814910374882</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.68209226574677</v>
+        <v>46.97733537101931</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.71440263404245</v>
+        <v>52.88489593893274</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.54724102438685</v>
+        <v>18.11104318194383</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.61998916104908</v>
+        <v>34.14316157227796</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.64938339705004</v>
+        <v>41.39275221080027</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.51098277120775</v>
+        <v>11.63578695540897</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.6429310337541</v>
+        <v>39.07387949957995</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.66858846693205</v>
+        <v>44.08398745990099</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.51944182517285</v>
+        <v>11.2233918615576</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.7117618600018</v>
+        <v>56.61085334973933</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.76308347308079</v>
+        <v>66.23223469012532</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.80506850832016</v>
+        <v>63.53080748264581</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.82904725235708</v>
+        <v>68.63206474384211</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.87229300405261</v>
+        <v>78.44853681743596</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.5669082522617</v>
+        <v>21.65862874430887</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.79216897540234</v>
+        <v>62.18334820853956</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.83738489107878</v>
+        <v>70.00531723757533</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.65863247365246</v>
+        <v>50.05005118005502</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.58541851068536</v>
+        <v>25.49154369272894</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.6193399321495</v>
+        <v>31.4614353039366</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.66133207828032</v>
+        <v>41.9971313347211</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.5101270785018</v>
+        <v>11.69492311831511</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.63676510788174</v>
+        <v>40.22190455121024</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.67940433933694</v>
+        <v>48.97497194230392</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.54279097925703</v>
+        <v>14.8910341018057</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.6054351593169</v>
+        <v>32.74012636073491</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.64570031414601</v>
+        <v>42.97316082986097</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.52251515136006</v>
+        <v>11.42539080207507</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.62106524628474</v>
+        <v>35.32621988172426</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.6586192613402</v>
+        <v>44.56432614227349</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.51778124783551</v>
+        <v>8.082744334583435</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.66990025017625</v>
+        <v>48.37568742416978</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.73008248885876</v>
+        <v>64.41936573267989</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.71349912813268</v>
+        <v>52.12851490495918</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.74953124610301</v>
+        <v>60.52276760003921</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.80665754308334</v>
+        <v>75.07762977789909</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.53898465143979</v>
+        <v>14.28592520604623</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.71871221239712</v>
+        <v>54.4442009479411</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.7849239857841</v>
+        <v>67.81714275164316</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.812939139651451</v>
+        <v>7.812939139651462</v>
       </c>
     </row>
     <row r="3">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.2082344598693</v>
+        <v>19.20823445986937</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.155456326625117</v>
+        <v>-1.155456326625185</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.37962159187681</v>
+        <v>11.3796215918769</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.71838322465097</v>
+        <v>13.71838322465086</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.870073235402504</v>
+        <v>2.870073235402554</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.46937775737794</v>
+        <v>23.46937775737797</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.30241346433568</v>
+        <v>28.3024134643357</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.24249097799498</v>
+        <v>11.24249097799503</v>
       </c>
     </row>
     <row r="12">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.50477301380401</v>
+        <v>17.50477301380398</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.24346150168399</v>
+        <v>13.24346150168392</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.78256201008746</v>
+        <v>13.78256201008747</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.56453900303342</v>
+        <v>30.56453900303355</v>
       </c>
     </row>
     <row r="17">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.37629061744461</v>
+        <v>22.37629061744472</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.04618811897852</v>
+        <v>28.04618811897862</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.333468468276717</v>
+        <v>-1.333468468276667</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.764204855760067</v>
+        <v>9.764204855760092</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.66345203454754</v>
+        <v>14.66345203454752</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.8791003632221539</v>
+        <v>-0.8791003632221397</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.52979101363754</v>
+        <v>23.52979101363762</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.3656848501637</v>
+        <v>10.36568485016364</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.81044833032208</v>
+        <v>18.81044833032207</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.27509756886402</v>
+        <v>22.27509756886404</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.2183975747922524</v>
+        <v>-0.2183975747922702</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.33299148505195</v>
+        <v>24.33299148505187</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.57084134557508</v>
+        <v>24.57084134557522</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.443548616999138</v>
+        <v>5.443548616999209</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.70128206280437</v>
+        <v>33.70128206280449</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.37014419779449</v>
+        <v>35.37014419779444</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.09682641897426</v>
+        <v>33.09682641897432</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.06151778253057</v>
+        <v>37.06151778253053</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.41801654479544</v>
+        <v>40.41801654479539</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.55465187526872</v>
+        <v>18.55465187526882</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.31360133336168</v>
+        <v>40.31360133336166</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.94908778192627</v>
+        <v>45.94908778192629</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.41932283944582</v>
+        <v>14.41932283944578</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.67945804443146</v>
+        <v>33.67945804443149</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.10604532124453</v>
+        <v>36.10604532124455</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.353417922551294</v>
+        <v>3.353417922551351</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.48207395749782</v>
+        <v>29.4820739574978</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.14813280022865</v>
+        <v>35.14813280022855</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.160365461018465</v>
+        <v>5.16036546101849</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.46454176106597</v>
+        <v>51.46454176106592</v>
       </c>
     </row>
     <row r="48">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>11.02488152666628</v>
+        <v>11.02488152666637</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19.81160631636455</v>
+        <v>19.8116063163646</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.086354686280963</v>
+        <v>-2.086354686280892</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.20872265426533</v>
+        <v>21.20872265426543</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.84078429368196</v>
+        <v>23.84078429368212</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.523606173708199</v>
+        <v>5.523606173708203</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.78243402655039</v>
+        <v>32.78243402655047</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.35305840967055</v>
+        <v>38.35305840967047</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.47555472256563</v>
+        <v>37.47555472256562</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.02292106639285</v>
+        <v>42.02292106639275</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.62603863231047</v>
+        <v>45.6260386323104</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.370294081603713</v>
+        <v>1.370294081603685</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.91156856794815</v>
+        <v>27.911568567948</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.56405442610239</v>
+        <v>35.56405442610237</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9.349396401286118</v>
+        <v>9.349396401286153</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.99670409267647</v>
+        <v>29.99670409267653</v>
       </c>
     </row>
     <row r="65">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.239243894614589</v>
+        <v>2.239243894614606</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.47910924509074</v>
+        <v>24.47910924509073</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.24034168351887</v>
+        <v>34.24034168351882</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.763091730049094</v>
+        <v>4.763091730049133</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.60456023634932</v>
+        <v>45.60456023634929</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.6286114989277358</v>
+        <v>-0.6286114989278175</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7.11343891827191</v>
+        <v>7.113438918271989</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.36240405330348</v>
+        <v>20.36240405330358</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1.822582678366761</v>
+        <v>-1.822582678366718</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.13428197536998</v>
+        <v>20.13428197537004</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.14291690020789</v>
+        <v>27.14291690020799</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1.060303078829058</v>
+        <v>-1.060303078829115</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.91830549167485</v>
+        <v>27.91830549167494</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.91836637971694</v>
+        <v>37.91836637971702</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.89001198472765</v>
+        <v>29.89001198472758</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.42229152523532</v>
+        <v>33.42229152523525</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.02657066253713</v>
+        <v>42.02657066253707</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.176375061090582</v>
+        <v>-1.176375061090383</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21.68381062040106</v>
+        <v>21.68381062040119</v>
       </c>
     </row>
     <row r="85">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.87194444270957</v>
+        <v>24.87194444270954</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.22749160878894</v>
+        <v>33.22749160878898</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.218019275665295</v>
+        <v>2.218019275665352</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.06017955345679</v>
+        <v>21.06017955345683</v>
       </c>
     </row>
     <row r="91">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.921005558817807</v>
+        <v>2.92100555881785</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.6732044688013</v>
+        <v>36.67320446880127</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.97518725088881</v>
+        <v>28.97518725088888</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.42073153198459</v>
+        <v>24.42073153198465</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.74548682729909</v>
+        <v>36.74548682729903</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.67094159543741</v>
+        <v>38.67094159543737</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.86882298789271</v>
+        <v>6.868822987892724</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.06537687143661</v>
+        <v>21.06537687143658</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.16629744928371</v>
+        <v>29.16629744928369</v>
       </c>
     </row>
     <row r="101">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.52079965150079</v>
+        <v>24.52079965150084</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.57254377507265</v>
+        <v>36.57254377507269</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.968366960764982</v>
+        <v>-4.968366960765081</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.12823016609905</v>
+        <v>10.12823016609904</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.30150926791003</v>
+        <v>18.30150926790999</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.561660319480815</v>
+        <v>-1.561660319480797</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.27558545000438</v>
+        <v>27.27558545000451</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.20084403183975</v>
+        <v>45.20084403183982</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.48075192890666</v>
+        <v>29.48075192890663</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.40929546326261</v>
+        <v>47.40929546326262</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.22344816712364</v>
+        <v>51.22344816712367</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.480538709937107</v>
+        <v>5.4805387099371</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.54424599919922</v>
+        <v>24.54424599919935</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.69465359789545</v>
+        <v>38.69465359789552</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.92682106249774</v>
+        <v>57.92682106249777</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.25328795930386</v>
+        <v>50.25328795930395</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.14945035102367</v>
+        <v>58.1494503510237</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.00396115807191</v>
+        <v>60.00396115807186</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.95797969539129</v>
+        <v>16.95797969539125</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.33697318855577</v>
+        <v>55.33697318855575</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>58.18089499663509</v>
+        <v>58.18089499663492</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.62679999196479</v>
+        <v>19.62679999196482</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.93061285324115</v>
+        <v>39.93061285324113</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.82841997381298</v>
+        <v>46.82841997381303</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.5605162726769</v>
+        <v>4.560516272676935</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.32362884799184</v>
+        <v>42.32362884799185</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.06889627598731</v>
+        <v>47.06889627598733</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7.835313554396418</v>
+        <v>7.835313554396439</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.79676703657728</v>
+        <v>67.79676703657735</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>73.81069227710444</v>
+        <v>73.81069227710435</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.38554901042214</v>
+        <v>75.38554901042221</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.21492323309647</v>
+        <v>81.21492323309658</v>
       </c>
     </row>
     <row r="134">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.27273559575094</v>
+        <v>26.2727355957509</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.86405640336415</v>
+        <v>75.864056403364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.14884849145471</v>
+        <v>80.14884849145464</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.79185169418425</v>
+        <v>59.79185169418417</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.75433720112517</v>
+        <v>44.7543372011252</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.22581714996227</v>
+        <v>51.22581714996237</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.77007865096733</v>
+        <v>59.77007865096746</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.410463945752735</v>
+        <v>9.410463945752724</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.6085566682839</v>
+        <v>50.60855666828396</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.99184412348488</v>
+        <v>55.99184412348497</v>
       </c>
     </row>
     <row r="145">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.41975232995506</v>
+        <v>36.41975232995513</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.11172413572366</v>
+        <v>45.11172413572359</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.160410382742931</v>
+        <v>3.160410382743059</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.37587475676212</v>
+        <v>41.37587475676219</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.6943960063925</v>
+        <v>47.6943960063926</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.707484013772916</v>
+        <v>6.707484013772891</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.12089230465155</v>
+        <v>67.12089230465153</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.09796044005574</v>
+        <v>76.09796044005583</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.17877336725638</v>
+        <v>74.17877336725644</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.36717301297233</v>
+        <v>80.36717301297237</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.51180608565494</v>
+        <v>89.51180608565483</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.95401922136984</v>
+        <v>14.95401922136988</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.38039334679621</v>
+        <v>73.38039334679624</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.14918523006192</v>
+        <v>79.14918523006186</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.61972426099054</v>
+        <v>54.61972426099058</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.8047955670195</v>
+        <v>29.80479556701949</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.27927418995522</v>
+        <v>37.2792741899552</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.72075966881771</v>
+        <v>44.72075966881761</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.496765088383995</v>
+        <v>7.496765088384024</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.07397254194741</v>
+        <v>45.07397254194755</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.14441534968347</v>
+        <v>53.14441534968339</v>
       </c>
     </row>
     <row r="167">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.17792382102555</v>
+        <v>35.17792382102553</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.14406371568439</v>
+        <v>47.14406371568443</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.33394588080823</v>
+        <v>2.333945880808233</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.55977000589982</v>
+        <v>35.55977000589988</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.90605166811268</v>
+        <v>46.90605166811265</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.967041781954908</v>
+        <v>2.967041781954929</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.08940868061914</v>
+        <v>58.08940868061925</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.63138252098027</v>
+        <v>74.63138252098022</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.06234064418405</v>
+        <v>64.06234064418419</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.17893256673969</v>
+        <v>77.17893256673958</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.4441453222866</v>
+        <v>85.44414532228666</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.852725486329643</v>
+        <v>9.852725486329653</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.86490283270254</v>
+        <v>70.86490283270244</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.12203736877157</v>
+        <v>79.12203736877163</v>
       </c>
     </row>
     <row r="182">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.17786435238088</v>
+        <v>14.1778643523809</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.22187861572723</v>
+        <v>21.2218786157273</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.579633670632457</v>
+        <v>4.579633670632511</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>11.51507087975339</v>
+        <v>11.5150708797535</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.52465698491738</v>
+        <v>12.52465698491747</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.961953633937991</v>
+        <v>8.961953633937775</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.41178733850206</v>
+        <v>20.41178733850197</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.24411818438711</v>
+        <v>23.24411818438719</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>12.92545175118997</v>
+        <v>12.92545175118998</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.68983273468234</v>
+        <v>17.68983273468238</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.13758800680069</v>
+        <v>19.13758800680053</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.59503216973521</v>
+        <v>17.595032169735</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>14.73443488983156</v>
+        <v>14.7344348898314</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.17657613397999</v>
+        <v>21.17657613397988</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.544274693454298</v>
+        <v>9.54427469345427</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.2570715549825</v>
+        <v>20.25707155498248</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.83096507075526</v>
+        <v>26.83096507075532</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.401767588307859</v>
+        <v>1.401767588307877</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.198996645625851</v>
+        <v>8.198996645625829</v>
       </c>
     </row>
     <row r="202">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.712740032145167</v>
+        <v>3.712740032145085</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.69961103609718</v>
+        <v>17.6996110360972</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.5403382388942</v>
+        <v>17.54033823889424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.8581441578559</v>
+        <v>21.85814415785585</v>
       </c>
     </row>
     <row r="207">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.552724612521679</v>
+        <v>5.552724612521587</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.48316262457809</v>
+        <v>21.48316262457794</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.70344216560754</v>
+        <v>21.70344216560755</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.93992433169445</v>
+        <v>10.93992433169446</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.84213420385647</v>
+        <v>29.84213420385654</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.71076575110278</v>
+        <v>30.71076575110274</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.00344191897312</v>
+        <v>32.00344191897317</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.92748414743063</v>
+        <v>38.92748414743053</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.19185164325485</v>
+        <v>40.19185164325494</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.52523044645272</v>
+        <v>22.52523044645276</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.62745981529779</v>
+        <v>36.62745981529791</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.98217991593651</v>
+        <v>34.98217991593641</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.52683527689443</v>
+        <v>15.5268352768944</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.46389223001318</v>
+        <v>29.46389223001314</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.5437573479726</v>
+        <v>34.54375734797261</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.547758051184758</v>
+        <v>6.547758051184751</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.05608248046124</v>
+        <v>25.05608248046127</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.06338671059835</v>
+        <v>34.06338671059834</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.17016091867844</v>
+        <v>10.17016091867839</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.024008036788</v>
+        <v>42.02400803678793</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.083319342479399</v>
+        <v>9.08331934247952</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.26005993851972</v>
+        <v>16.26005993851983</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.76239340146203</v>
+        <v>21.76239340146218</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.533752014197351</v>
+        <v>4.533752014197393</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.1977577923689</v>
+        <v>20.19775779236891</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.21536133538435</v>
+        <v>22.21536133538428</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.66493589796972</v>
+        <v>10.66493589796977</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.52075215930612</v>
+        <v>30.52075215930621</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.46398034858874</v>
+        <v>33.46398034858876</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.50475554146151</v>
+        <v>40.50475554146161</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.47874794277229</v>
+        <v>42.47874794277212</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.80134576580299</v>
+        <v>13.801345765803</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.70096734962016</v>
+        <v>31.70096734962008</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.45970876167335</v>
+        <v>32.45970876167338</v>
       </c>
     </row>
     <row r="243">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.7579331279339</v>
+        <v>23.75793312793391</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.50719992097645</v>
+        <v>31.50719992097646</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.4943848616827</v>
+        <v>2.494384861682704</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.81207674073689</v>
+        <v>16.81207674073694</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.90521041248649</v>
+        <v>30.90521041248648</v>
       </c>
     </row>
     <row r="249">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.33226076884364</v>
+        <v>29.33226076884359</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.006608769629928</v>
+        <v>8.006608769629899</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.0834353825081</v>
+        <v>12.08343538250813</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.67487945411386</v>
+        <v>20.6748794541139</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.942222306391944</v>
+        <v>3.942222306391947</v>
       </c>
     </row>
     <row r="255">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.92604853140865</v>
+        <v>22.92604853140858</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.496008886310417</v>
+        <v>6.496008886310509</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.43593612626087</v>
+        <v>25.43593612626101</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.40424139299374</v>
+        <v>32.40424139299387</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.02883199449932</v>
+        <v>25.02883199449927</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.30571520879301</v>
+        <v>30.30571520879293</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.03820609518709</v>
+        <v>33.03820609518701</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.98227499157621</v>
+        <v>10.98227499157626</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.86230319311274</v>
+        <v>23.86230319311287</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.76127794575704</v>
+        <v>29.76127794575701</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.173930907301404</v>
+        <v>8.173930907301425</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.29091504939203</v>
+        <v>21.29091504939209</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.6979616046963</v>
+        <v>31.69796160469628</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4.385963465782172</v>
+        <v>4.385963465782048</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.21316017051231</v>
+        <v>16.21316017051224</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.3605543078467</v>
+        <v>30.36055430784678</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.537636475789146</v>
+        <v>6.537636475789064</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.18742818919785</v>
+        <v>26.18742818919787</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.30915362878222</v>
+        <v>23.30915362878236</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.85664271521779</v>
+        <v>19.85664271521781</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.59731371347504</v>
+        <v>29.59731371347494</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.56127484840351</v>
+        <v>35.56127484840344</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.650987605892269</v>
+        <v>6.65098760589229</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.79895601139793</v>
+        <v>16.79895601139797</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.60970398254733</v>
+        <v>23.6097039825474</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.23817426293535</v>
+        <v>14.23817426293534</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.97304348713375</v>
+        <v>22.97304348713379</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.46066412343083</v>
+        <v>30.46066412343076</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.4918343018803171</v>
+        <v>-0.4918343018803029</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.099038023066523</v>
+        <v>8.099038023066587</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.81492180026118</v>
+        <v>12.81492180026129</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4.414422645043647</v>
+        <v>4.414422645043658</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.8824819648993</v>
+        <v>21.88248196489937</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.75715043875653</v>
+        <v>29.75715043875647</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.34416038462509</v>
+        <v>22.34416038462501</v>
       </c>
     </row>
     <row r="291">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.52410839982215</v>
+        <v>37.5241083998222</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.51814967215734</v>
+        <v>10.51814967215731</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.87944689130967</v>
+        <v>19.8794468913097</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.76714163717622</v>
+        <v>26.76714163717626</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.32797313403913</v>
+        <v>51.32797313403911</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.07903007281669</v>
+        <v>42.07903007281664</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.1870031155424</v>
+        <v>51.18700311554247</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.71545080306046</v>
+        <v>57.71545080306052</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.41192515231172</v>
+        <v>17.41192515231175</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.51007483464546</v>
+        <v>50.51007483464545</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.35165961393129</v>
+        <v>54.35165961393138</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.34481490054129</v>
+        <v>23.34481490054132</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.78158850629578</v>
+        <v>36.78158850629575</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.74956969737329</v>
+        <v>42.74956969737321</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.270707203776233</v>
+        <v>9.270707203776247</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.37040785656033</v>
+        <v>33.37040785656034</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.05256820129256</v>
+        <v>40.05256820129257</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.74699898837096</v>
+        <v>16.746998988371</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.67160706737795</v>
+        <v>57.67160706737798</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.40369064076798</v>
+        <v>61.40369064076796</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.03190830156137</v>
+        <v>64.03190830156142</v>
       </c>
     </row>
     <row r="313">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.89497576484004</v>
+        <v>73.89497576483996</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.8000617179305</v>
+        <v>32.80006171793043</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.75062975010027</v>
+        <v>66.75062975010016</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>71.25967954854855</v>
+        <v>71.2596795485486</v>
       </c>
     </row>
     <row r="318">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.52648926241699</v>
+        <v>30.52648926241696</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.88655385658263</v>
+        <v>40.88655385658266</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.74777883043213</v>
+        <v>54.74777883043222</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.2174336372793</v>
+        <v>10.21743363727926</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.71051188154726</v>
+        <v>43.71051188154722</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.73022556911214</v>
+        <v>51.7302255691121</v>
       </c>
     </row>
     <row r="325">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.1427578194081</v>
+        <v>32.14275781940805</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.64405694395133</v>
+        <v>40.64405694395135</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.549115664350516</v>
+        <v>6.549115664350499</v>
       </c>
     </row>
     <row r="329">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.11429380903049</v>
+        <v>40.11429380903053</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.89467119379317</v>
+        <v>12.89467119379321</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>52.56615070020666</v>
+        <v>52.56615070020663</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>62.31396882974489</v>
+        <v>62.31396882974492</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>57.57398780734621</v>
+        <v>57.57398780734619</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>64.86930584432986</v>
+        <v>64.8693058443298</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>75.16731018020624</v>
+        <v>75.1673101802063</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.05164299571177</v>
+        <v>22.05164299571176</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>61.61082419135496</v>
+        <v>61.61082419135492</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>69.66170631351756</v>
+        <v>69.66170631351764</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.77311154401263</v>
+        <v>47.77311154401259</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.13530767328704</v>
+        <v>20.13530767328712</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.3869585571688</v>
+        <v>28.38695855716885</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.55654935790373</v>
+        <v>41.55654935790372</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.573667688625491</v>
+        <v>8.573667688625484</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.49766970900151</v>
+        <v>36.49766970900153</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.58821184098622</v>
+        <v>46.58821184098628</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.81966529161942</v>
+        <v>14.81966529161939</v>
       </c>
     </row>
     <row r="348">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.98173332154737</v>
+        <v>41.98173332154735</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.097773015213228</v>
+        <v>6.097773015213242</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.40245017074635</v>
+        <v>27.40245017074639</v>
       </c>
     </row>
     <row r="352">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.13075609669315</v>
+        <v>10.13075609669309</v>
       </c>
     </row>
     <row r="354">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>60.66012149141673</v>
+        <v>60.66012149141659</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.31202000053168</v>
+        <v>44.31202000053175</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.04467990944013</v>
+        <v>56.04467990944008</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.39172385934216</v>
+        <v>69.39172385934219</v>
       </c>
     </row>
     <row r="359">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>52.68343635866925</v>
+        <v>52.68343635866916</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>64.17393751575872</v>
+        <v>64.17393751575881</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.53442516693404</v>
+        <v>15.53442516693406</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.88510243847757</v>
+        <v>19.88510243847753</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.6380057319807</v>
+        <v>24.63800573198068</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.715528680111099</v>
+        <v>4.715528680111085</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.84441194268672</v>
+        <v>12.84441194268676</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.63117939571271</v>
+        <v>13.63117939571274</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.278035468149305</v>
+        <v>8.278035468149291</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.80561257899457</v>
+        <v>23.80561257899452</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.70795528914926</v>
+        <v>27.70795528914919</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.00281935071767</v>
+        <v>20.00281935071777</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.95466300090573</v>
+        <v>25.95466300090576</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.20961297218988</v>
+        <v>28.20961297218978</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.54134219656029</v>
+        <v>8.541342196560311</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.15495954210213</v>
+        <v>18.15495954210226</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.3065731922545</v>
+        <v>20.30657319225443</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.83644182349342</v>
+        <v>10.83644182349338</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.08173078070155</v>
+        <v>22.08173078070156</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.59865572029227</v>
+        <v>27.59865572029226</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.417190170264135</v>
+        <v>2.417190170264092</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.138293515695775</v>
+        <v>9.138293515695825</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.00042080761949</v>
+        <v>13.00042080761947</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.257380501979007</v>
+        <v>4.257380501979029</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.00653217140022</v>
+        <v>20.00653217140016</v>
       </c>
     </row>
     <row r="385">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.94255509515336</v>
+        <v>27.94255509515334</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>6.661278308637325</v>
+        <v>6.661278308637311</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.87621555869475</v>
+        <v>24.87621555869471</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.75024227815295</v>
+        <v>24.75024227815286</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.68494526492645</v>
+        <v>10.68494526492644</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.43466726222258</v>
+        <v>35.4346672622226</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.17473566519153</v>
+        <v>36.17473566519143</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.9896768532298</v>
+        <v>38.98967685322987</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.09959227967757</v>
+        <v>45.09959227967748</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.45295730343059</v>
+        <v>44.45295730343045</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.77235499863998</v>
+        <v>12.77235499863986</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.47447216546112</v>
+        <v>42.47447216546099</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.4607161746095</v>
+        <v>40.46071617460936</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.48953932138621</v>
+        <v>14.48953932138626</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.90684739260248</v>
+        <v>30.90684739260245</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.58215315813392</v>
+        <v>34.58215315813391</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.125131642088615</v>
+        <v>7.125131642088583</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.22492427303249</v>
+        <v>26.22492427303242</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.14065548212613</v>
+        <v>34.14065548212598</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.699514786426544</v>
+        <v>9.699514786426526</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>44.251138906768</v>
+        <v>44.25113890676793</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.69521436011102</v>
+        <v>9.695214360111009</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.52388478939769</v>
+        <v>22.52388478939766</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.57440215988985</v>
+        <v>25.57440215988998</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.499232773040365</v>
+        <v>6.499232773040422</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.21088913074838</v>
+        <v>23.21088913074845</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.03170074684477</v>
+        <v>25.03170074684465</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.5341876089667</v>
+        <v>11.53418760896678</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.23124015189769</v>
+        <v>35.23124015189768</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.95455755168364</v>
+        <v>38.95455755168358</v>
       </c>
     </row>
     <row r="417">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>46.83210077634902</v>
+        <v>46.83210077634895</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.4083241698502</v>
+        <v>45.40832416985022</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.455840933355056</v>
+        <v>9.455840933355152</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.84601047470781</v>
+        <v>36.84601047470758</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.98316807419477</v>
+        <v>35.98316807419481</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.585560587151019</v>
+        <v>8.585560587151015</v>
       </c>
     </row>
     <row r="424">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.41727676299772</v>
+        <v>31.41727676299775</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.807190056216228</v>
+        <v>3.807190056216253</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.38200182414186</v>
+        <v>18.38200182414187</v>
       </c>
     </row>
     <row r="428">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.687290255088818</v>
+        <v>5.68729025508885</v>
       </c>
     </row>
     <row r="430">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.291512904730485</v>
+        <v>9.29151290473046</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.3617934294507</v>
+        <v>18.36179342945061</v>
       </c>
     </row>
     <row r="433">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.563340991127109</v>
+        <v>5.563340991127149</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.96315687877171</v>
+        <v>20.9631568787717</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.77152141708545</v>
+        <v>25.77152141708548</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.812753348915052</v>
+        <v>6.812753348915056</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.98644241292613</v>
+        <v>28.98644241292607</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.91022070233277</v>
+        <v>36.91022070233281</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.74025362603345</v>
+        <v>31.74025362603351</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.81058610939429</v>
+        <v>36.81058610939439</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.08668799098022</v>
+        <v>39.08668799098025</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.576270746486259</v>
+        <v>9.57627074648628</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.99907002867068</v>
+        <v>30.99907002867058</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.07737646083228</v>
+        <v>33.07737646083222</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>8.745466289759761</v>
+        <v>8.745466289759786</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.32280023711553</v>
+        <v>22.32280023711557</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.07783788781529</v>
+        <v>32.07783788781528</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.489915921410553</v>
+        <v>5.48991592141055</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.77614901980374</v>
+        <v>16.77614901980372</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.93728903149457</v>
+        <v>30.93728903149459</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.124146221757968</v>
+        <v>7.124146221757929</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.14695019948349</v>
+        <v>27.14695019948344</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.65427577475072</v>
+        <v>25.65427577475076</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.27549220738549</v>
+        <v>22.27549220738553</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.34252934508119</v>
+        <v>32.34252934508117</v>
       </c>
     </row>
     <row r="457">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.056721605767795</v>
+        <v>4.056721605767802</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.47032472985346</v>
+        <v>18.47032472985342</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.38095795679166</v>
+        <v>24.38095795679161</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.56357236074</v>
+        <v>13.56357236073994</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.07064277069487</v>
+        <v>24.07064277069486</v>
       </c>
     </row>
     <row r="463">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.1589031012217568</v>
+        <v>-0.1589031012216857</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.935962949510227</v>
+        <v>8.935962949510209</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.70531709595353</v>
+        <v>13.70531709595356</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.504347723404269</v>
+        <v>3.504347723404305</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.63370297730543</v>
+        <v>20.63370297730546</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.52945295403079</v>
+        <v>31.52945295403083</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.81219811591051</v>
+        <v>22.81219811591056</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.51531852800582</v>
+        <v>36.51531852800586</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.70466481582584</v>
+        <v>40.70466481582585</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.818126081187184</v>
+        <v>5.818126081187255</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.58664244654869</v>
+        <v>19.58664244654871</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.2799534289754</v>
+        <v>28.27995342897545</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>52.60642766312213</v>
+        <v>52.60642766312202</v>
       </c>
     </row>
     <row r="477">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.92850220879641</v>
+        <v>52.92850220879654</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.40022179164785</v>
+        <v>56.40022179164787</v>
       </c>
     </row>
     <row r="480">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.45736867420043</v>
+        <v>50.4573686742005</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>54.35725333549787</v>
+        <v>54.357253335498</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.27770534075172</v>
+        <v>20.27770534075168</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.67598539100566</v>
+        <v>37.67598539100565</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.2245841485228</v>
+        <v>42.22458414852285</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.799242902502147</v>
+        <v>8.79924290250214</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.88540378202731</v>
+        <v>34.88540378202724</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.22341951924929</v>
+        <v>40.22341951924935</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.99913081686646</v>
+        <v>13.99913081686644</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.14003833269897</v>
+        <v>56.14003833269901</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.74799034090152</v>
+        <v>60.74799034090159</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.42856683075448</v>
+        <v>64.42856683075453</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>68.59957414209399</v>
+        <v>68.5995741420941</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.67238185458123</v>
+        <v>73.67238185458135</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.55531537776142</v>
+        <v>22.55531537776136</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.71320088110109</v>
+        <v>63.71320088110112</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>69.26133235858023</v>
+        <v>69.26133235858022</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>51.15821974173287</v>
+        <v>51.15821974173279</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.28269323498261</v>
+        <v>35.28269323498255</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.79344780122371</v>
+        <v>43.79344780122375</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>54.53184369871508</v>
+        <v>54.53184369871521</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.667276163089696</v>
+        <v>6.667276163089745</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>44.29140532936115</v>
+        <v>44.29140532936117</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>51.83689809726425</v>
+        <v>51.83689809726424</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.23655534703003</v>
+        <v>13.23655534703005</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.16163625371055</v>
+        <v>32.16163625371057</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.37918041016184</v>
+        <v>39.37918041016189</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.828340581671949</v>
+        <v>5.828340581671885</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.59827518307423</v>
+        <v>31.59827518307416</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.59606607862526</v>
+        <v>39.59606607862531</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.32813738650569</v>
+        <v>10.32813738650568</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.62238231651742</v>
+        <v>50.62238231651746</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.90163971256996</v>
+        <v>60.90163971257009</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.25650920681311</v>
+        <v>58.25650920681302</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.7242815652712</v>
+        <v>64.72428156527114</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>74.46651744159662</v>
+        <v>74.46651744159661</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.43044115796302</v>
+        <v>13.43044115796305</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.68063424300728</v>
+        <v>58.68063424300738</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>67.12055943940166</v>
+        <v>67.12055943940163</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.75615726403335</v>
+        <v>48.75615726403338</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.18472830009372</v>
+        <v>23.1847283000937</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.2162600661494</v>
+        <v>31.21626006614936</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.57643008842407</v>
+        <v>42.57643008842409</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.326149322338583</v>
+        <v>7.326149322338566</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.07001248704559</v>
+        <v>38.07001248704557</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.59167344692918</v>
+        <v>47.59167344692926</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.09199938506653</v>
+        <v>12.09199938506652</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.46043030284038</v>
+        <v>29.46043030284044</v>
       </c>
     </row>
     <row r="529">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.742474424275706</v>
+        <v>4.742474424275738</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.05011960189444</v>
+        <v>25.05011960189438</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.62410232600102</v>
+        <v>37.624102326001</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.138473900553638</v>
+        <v>7.138473900553645</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.26374048633437</v>
+        <v>39.26374048633436</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.37598071701447</v>
+        <v>58.37598071701449</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.27237641715029</v>
+        <v>42.2723764171503</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.0215840157829</v>
+        <v>56.02158401578291</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.62059646748033</v>
+        <v>68.62059646748031</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.222677637542525</v>
+        <v>9.222677637542496</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.87814668893559</v>
+        <v>49.87814668893549</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>62.81888619208821</v>
+        <v>62.81888619208822</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.76272771720405</v>
+        <v>10.76272771720401</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.73313738691487</v>
+        <v>15.73313738691485</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.10289475384679</v>
+        <v>26.10289475384684</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.9931219202400463</v>
+        <v>-0.9931219202399753</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.9242561621641</v>
+        <v>13.92425616216403</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.30977010502738</v>
+        <v>16.30977010502727</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.850993460241078</v>
+        <v>1.850993460241021</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.18934826700093</v>
+        <v>31.18934826700094</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.44834497777621</v>
+        <v>36.44834497777622</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.60953858200432</v>
+        <v>19.60953858200428</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.17697674901653</v>
+        <v>25.17697674901661</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.34335814274948</v>
+        <v>25.34335814274949</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.188046898290303</v>
+        <v>7.18804689829032</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.6877657966294</v>
+        <v>18.68776579662959</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.8546393526274</v>
+        <v>29.85463935262767</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.595001093592497</v>
+        <v>9.595001093592522</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.07083225307393</v>
+        <v>23.07083225307394</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.1896488957208</v>
+        <v>29.18964889572077</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.1656376595568183</v>
+        <v>0.1656376595568254</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.87689512450076</v>
+        <v>10.87689512450077</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.42103486463544</v>
+        <v>13.42103486463546</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.5382351533258962</v>
+        <v>0.5382351533258571</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.45727248520443</v>
+        <v>23.45727248520452</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.54103294182484</v>
+        <v>17.54103294182492</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.97086340131033</v>
+        <v>32.97086340131044</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.98453971870094</v>
+        <v>33.98453971870092</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.291343093755092</v>
+        <v>4.29134309375511</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.47942304291146</v>
+        <v>34.47942304291172</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.48866784117303</v>
+        <v>34.48866784117312</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.462618996699177</v>
+        <v>7.462618996698954</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.91069697001761</v>
+        <v>49.9106969700176</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>49.44154749857354</v>
+        <v>49.44154749857333</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.50363428208472</v>
+        <v>50.50363428208473</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.32318771435698</v>
+        <v>56.32318771435705</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.70015514570017</v>
+        <v>55.70015514570009</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.64149533737621</v>
+        <v>18.64149533737631</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>52.84871129790261</v>
+        <v>52.84871129790267</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>56.40791653786204</v>
+        <v>56.40791653786187</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.90956144569118</v>
+        <v>15.90956144569122</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.10520590992267</v>
+        <v>35.10520590992275</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.04445710326159</v>
+        <v>36.04445710326158</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.527236409623725</v>
+        <v>4.527236409623768</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.80216477882332</v>
+        <v>31.8021647788234</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.4540401173189</v>
+        <v>35.45404011731898</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.712286658484231</v>
+        <v>5.712286658484253</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>53.38972122461838</v>
+        <v>53.38972122461846</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.926414357506516</v>
+        <v>5.926414357506463</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.32207933695133</v>
+        <v>24.32207933695121</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.9271500336598</v>
+        <v>29.92715003365976</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.35809539669787</v>
+        <v>2.358095396697784</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.34314099370193</v>
+        <v>31.34314099370207</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.83654553574169</v>
+        <v>33.8365455357417</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.052129853119538</v>
+        <v>7.052129853119606</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.79468897509553</v>
+        <v>48.79468897509548</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.17999192033697</v>
+        <v>52.17999192033703</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.27704472525537</v>
+        <v>55.27704472525519</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>60.67278957572982</v>
+        <v>60.67278957572967</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.27004239989383</v>
+        <v>60.2700423998939</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.830801537045843</v>
+        <v>2.83080153704606</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.52066197293107</v>
+        <v>40.52066197293121</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>45.14673700359414</v>
+        <v>45.14673700359424</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.48862577036319</v>
+        <v>10.48862577036317</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.55276789011622</v>
+        <v>31.55276789011624</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.30761621562925</v>
+        <v>34.3076162156293</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.938375758089769</v>
+        <v>2.938375758089776</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.75281815982828</v>
+        <v>25.75281815982833</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.46254869421287</v>
+        <v>34.46254869421288</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.717104141978947</v>
+        <v>4.717104141978968</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>46.15727850325602</v>
+        <v>46.15727850325587</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.06908386181448</v>
+        <v>4.069083861814416</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.41344270014233</v>
+        <v>17.41344270014237</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.47461247090009</v>
+        <v>28.47461247090004</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.323284150115779</v>
+        <v>2.323284150115771</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.16053927881613</v>
+        <v>28.16053927881615</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.42035753209115</v>
+        <v>35.4203575320911</v>
       </c>
     </row>
     <row r="617">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.46452017491799</v>
+        <v>40.46452017491809</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.05351947794456</v>
+        <v>50.05351947794465</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.46120656763013</v>
+        <v>44.46120656763007</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.22347276284094</v>
+        <v>50.2234727628409</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.79497204144238</v>
+        <v>54.79497204144224</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.967465801943028</v>
+        <v>1.967465801943035</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.17248883681659</v>
+        <v>30.17248883681652</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.99897535438271</v>
+        <v>41.99897535438269</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.340711657393722</v>
+        <v>7.34071165739374</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.98950308429077</v>
+        <v>25.98950308429071</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.04161655185747</v>
+        <v>34.04161655185742</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.799944716033767</v>
+        <v>3.799944716033721</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.41376100682215</v>
+        <v>22.41376100682221</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.02593800516397</v>
+        <v>35.02593800516395</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.921495465964608</v>
+        <v>3.921495465964625</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.28150261741526</v>
+        <v>37.28150261741531</v>
       </c>
     </row>
     <row r="634">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.97591415288391</v>
+        <v>24.97591415288398</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.55990779265727</v>
+        <v>37.55990779265731</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.73150287552279</v>
+        <v>38.73150287552282</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.43198126270482</v>
+        <v>4.431981262704877</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.10317869274144</v>
+        <v>20.10317869274149</v>
       </c>
     </row>
     <row r="640">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.8682259541244</v>
+        <v>10.86822595412444</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.51956593858904</v>
+        <v>23.51956593858911</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.97925082434151</v>
+        <v>33.97925082434158</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.521859571031129</v>
+        <v>-3.521859571031076</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.521852568799741</v>
+        <v>9.521852568799776</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.9704523064948</v>
+        <v>14.97045230649489</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.518469866517389</v>
+        <v>-1.51846986651729</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.10400855581702</v>
+        <v>22.10400855581705</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.11835749823991</v>
+        <v>39.11835749823993</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.23236454199767</v>
+        <v>25.23236454199778</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.06628007803879</v>
+        <v>44.06628007803867</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>49.621492411581</v>
+        <v>49.62149241158093</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.900528165210819</v>
+        <v>1.900528165210826</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.63625380004816</v>
+        <v>19.63625380004823</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.32424474543563</v>
+        <v>34.32424474543566</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.96096296034261</v>
+        <v>57.96096296034275</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.66776663079091</v>
+        <v>54.66776663079092</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.91691673362847</v>
+        <v>61.91691673362843</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.26061984880069</v>
+        <v>62.2606198488007</v>
       </c>
     </row>
     <row r="660">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>58.29622166155799</v>
+        <v>58.29622166155813</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>60.23780187489447</v>
+        <v>60.23780187489455</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.64608065547262</v>
+        <v>19.64608065547258</v>
       </c>
     </row>
     <row r="664">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.55526384850607</v>
+        <v>45.55526384850612</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.736456566730265</v>
+        <v>5.736456566730219</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.64363901979924</v>
+        <v>41.64363901979929</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.04444045620772</v>
+        <v>45.04444045620771</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.737704621717096</v>
+        <v>7.737704621717072</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>71.27544550009365</v>
+        <v>71.27544550009375</v>
       </c>
     </row>
     <row r="672">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>80.11473065907398</v>
+        <v>80.11473065907401</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>85.5329619205452</v>
+        <v>85.53296192054523</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.63301580875136</v>
+        <v>20.63301580875146</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.70542119724314</v>
+        <v>72.70542119724331</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>78.93325615986596</v>
+        <v>78.93325615986608</v>
       </c>
     </row>
     <row r="678">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>53.42396011743725</v>
+        <v>53.42396011743735</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.06460711343169</v>
+        <v>62.06460711343161</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.371799545638773</v>
+        <v>8.37179954563879</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.55649561942326</v>
+        <v>52.55649561942329</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.79009983811058</v>
+        <v>57.79009983811062</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.77285135705876</v>
+        <v>11.77285135705877</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.93208432423656</v>
+        <v>34.93208432423658</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.96919554604014</v>
+        <v>42.96919554604016</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.208287387064022</v>
+        <v>3.20828738706415</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.82484482723286</v>
+        <v>38.82484482723294</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.1572869692915</v>
+        <v>45.15728696929147</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.960937124322182</v>
+        <v>4.960937124322111</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>60.48045639241298</v>
+        <v>60.48045639241293</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.89855967716232</v>
+        <v>72.89855967716238</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>70.65773264326783</v>
+        <v>70.65773264326791</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>76.76100867634077</v>
+        <v>76.76100867634089</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>87.67691511368049</v>
+        <v>87.67691511368042</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.530611216115059</v>
+        <v>9.530611216115023</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.02778508697651</v>
+        <v>66.02778508697654</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>76.01429791945323</v>
+        <v>76.01429791945324</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.8239068062223</v>
+        <v>55.82390680622224</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.71149889495249</v>
+        <v>29.71149889495254</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.27424539444289</v>
+        <v>37.27424539444294</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.58408745944952</v>
+        <v>46.58408745944955</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.185885664232224</v>
+        <v>7.185885664232238</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.42851347107562</v>
+        <v>45.42851347107572</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.02006761054439</v>
+        <v>54.02006761054451</v>
       </c>
     </row>
     <row r="707">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.00246213178598</v>
+        <v>31.00246213178599</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.07612170502993</v>
+        <v>44.07612170503006</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.327074916098553</v>
+        <v>1.327074916098578</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.08222059898421</v>
+        <v>30.08222059898419</v>
       </c>
     </row>
     <row r="712">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.30879918646718</v>
+        <v>0.3087991864671906</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.04538034530596</v>
+        <v>46.04538034530592</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.05234249772641</v>
+        <v>69.05234249772644</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.24614447783955</v>
+        <v>52.24614447783969</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.46333801348949</v>
+        <v>67.46333801348952</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.48077243885635</v>
+        <v>82.48077243885623</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.331649355307967</v>
+        <v>4.331649355307935</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.91640485403086</v>
+        <v>56.91640485403103</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.47375335809066</v>
+        <v>73.47375335809059</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.67543751837547</v>
+        <v>16.67543751837543</v>
       </c>
     </row>
     <row r="723">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.02087566047412</v>
+        <v>27.02087566047403</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6.468269740174001</v>
+        <v>6.468269740173959</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.64380050497288</v>
+        <v>20.64380050497285</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.85805066832005</v>
+        <v>22.85805066831997</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.55927840750251</v>
+        <v>10.55927840750257</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.83304248952423</v>
+        <v>34.8330424895242</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.55253049049388</v>
+        <v>37.55253049049382</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.07455211253279</v>
+        <v>18.07455211253275</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.20264272495538</v>
+        <v>22.2026427249554</v>
       </c>
     </row>
     <row r="733">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.20132004259744</v>
+        <v>22.20132004259768</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.67736318789451</v>
+        <v>19.6773631878945</v>
       </c>
     </row>
     <row r="736">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.76041815730839</v>
+        <v>12.76041815730835</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.1381779386242</v>
+        <v>22.13817793862418</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.33476038094541</v>
+        <v>29.33476038094537</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.077436077715355</v>
+        <v>8.077436077715269</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.42705052130277</v>
+        <v>15.42705052130272</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.68324184709909</v>
+        <v>17.68324184709907</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.021127099652819</v>
+        <v>5.021127099652777</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.76654739567942</v>
+        <v>20.76654739567935</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.43063684484352</v>
+        <v>21.43063684484354</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.70395082880824</v>
+        <v>28.70395082880817</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.40851779320824</v>
+        <v>31.40851779320829</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.584882912673972</v>
+        <v>8.584882912674075</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.36150618761688</v>
+        <v>34.36150618761678</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.19662658916924</v>
+        <v>34.19662658916931</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.63646404956991</v>
+        <v>12.63646404956978</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.11662765707465</v>
+        <v>44.11662765707486</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.43925978304297</v>
+        <v>44.4392597830428</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.07820405175071</v>
+        <v>45.07820405175062</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.57724505609401</v>
+        <v>50.5772450560938</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.84731970985796</v>
+        <v>50.84731970985786</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.75486789004843</v>
+        <v>32.75486789004862</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.42132882024542</v>
+        <v>47.42132882024548</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.38939713526037</v>
+        <v>50.38939713526065</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.88590441647801</v>
+        <v>18.88590441647789</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.32539763397559</v>
+        <v>31.32539763397563</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.32406721179976</v>
+        <v>34.32406721179972</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.43237873685151</v>
+        <v>11.43237873685154</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.1296645327491</v>
+        <v>31.12966453274915</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.22254777010759</v>
+        <v>36.22254777010758</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.627299955468857</v>
+        <v>9.627299955468814</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.92882648514428</v>
+        <v>44.92882648514441</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>10.67079391275595</v>
+        <v>10.67079391275594</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.4692451350192</v>
+        <v>22.4692451350193</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.64819495789889</v>
+        <v>28.64819495789888</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.354245073669521</v>
+        <v>6.354245073669482</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.65714865877406</v>
+        <v>32.65714865877394</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.2243285834551</v>
+        <v>34.22432858345508</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.61688969759733</v>
+        <v>11.61688969759735</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.53743019035051</v>
+        <v>45.53743019035056</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.59995950359541</v>
+        <v>48.59995950359544</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.88888322957776</v>
+        <v>48.8888832295776</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>53.73464080728603</v>
+        <v>53.73464080728611</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>55.1762107061835</v>
+        <v>55.17621070618359</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.54198118844007</v>
+        <v>14.54198118844008</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>37.8957602202594</v>
+        <v>37.8957602202596</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>43.71724442563257</v>
+        <v>43.71724442563254</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.38637968295995</v>
+        <v>14.38637968295999</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.22989095583443</v>
+        <v>29.22989095583452</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.24786099896911</v>
+        <v>33.24786099896912</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.194109992574603</v>
+        <v>9.194109992574599</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.60308201433669</v>
+        <v>25.60308201433674</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.88960153403018</v>
+        <v>34.88960153403022</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.833671028623336</v>
+        <v>7.833671028623343</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.19005270454812</v>
+        <v>38.19005270454815</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>8.472911049155222</v>
+        <v>8.472911049155258</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.63627905882043</v>
+        <v>16.63627905882039</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.11959419034895</v>
+        <v>27.11959419034891</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.524047057323997</v>
+        <v>6.524047057323941</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.87834572192923</v>
+        <v>30.87834572192927</v>
       </c>
     </row>
     <row r="796">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.071506707587911</v>
+        <v>7.071506707588078</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.65779390984747</v>
+        <v>40.65779390984766</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.99297525323404</v>
+        <v>46.99297525323412</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.17493878125853</v>
+        <v>41.17493878125861</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.99328108657779</v>
+        <v>44.99328108657794</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.37254027183273</v>
+        <v>49.37254027183268</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.67447406498903</v>
+        <v>11.67447406498902</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.37017684211873</v>
+        <v>28.37017684211862</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.36056147308373</v>
+        <v>42.36056147308356</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.72975562434472</v>
+        <v>10.72975562434471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.23434356017238</v>
+        <v>25.23434356017244</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.2853066415656</v>
+        <v>33.28530664156564</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.47941851577442</v>
+        <v>10.47941851577447</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.91688241473189</v>
+        <v>24.91688241473197</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.28407389251215</v>
+        <v>36.28407389251219</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.954408832479466</v>
+        <v>6.954408832479423</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.84673758314542</v>
+        <v>33.8467375831454</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.61537396056962</v>
+        <v>24.61537396056971</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.9832291340662</v>
+        <v>21.98322913406624</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.60794248161454</v>
+        <v>32.60794248161464</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.08144405899378</v>
+        <v>35.08144405899391</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.608762700363322</v>
+        <v>9.608762700363343</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.04587397958636</v>
+        <v>18.04587397958637</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.33566920132553</v>
+        <v>25.33566920132556</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.12854821503899</v>
+        <v>15.12854821503898</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.01435428868902</v>
+        <v>24.01435428868901</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.69623781772188</v>
+        <v>32.69623781772187</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>6.326588362234816</v>
+        <v>6.326588362234755</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.02245644253302</v>
+        <v>16.02245644253301</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.13856656687741</v>
+        <v>20.13856656687742</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.788385860900902</v>
+        <v>5.788385860900931</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.99683782117017</v>
+        <v>24.99683782117011</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.56623273540148</v>
+        <v>36.56623273540154</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.15198103102501</v>
+        <v>25.1519810310251</v>
       </c>
     </row>
     <row r="831">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.41991677171387</v>
+        <v>10.41991677171386</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.90880240576827</v>
+        <v>21.9088024057683</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.36691362093052</v>
+        <v>31.36691362093058</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.85088948219955</v>
+        <v>50.85088948219965</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.61805504966934</v>
+        <v>46.61805504966925</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.13665050697131</v>
+        <v>54.13665050697112</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.58881983618448</v>
+        <v>56.58881983618444</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.52370284727656</v>
+        <v>21.52370284727659</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>52.41301611818318</v>
+        <v>52.41301611818319</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>54.75055684820867</v>
+        <v>54.75055684820876</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.73838025599682</v>
+        <v>24.73838025599685</v>
       </c>
     </row>
     <row r="844">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.00626482681072</v>
+        <v>43.00626482681071</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>13.76400913978579</v>
+        <v>13.76400913978578</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.55591517801598</v>
+        <v>39.55591517801591</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.52063427111881</v>
+        <v>43.52063427111874</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.92609387886585</v>
+        <v>13.92609387886589</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>59.11241921521876</v>
+        <v>59.11241921521886</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>64.09170831975979</v>
+        <v>64.09170831975985</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>68.11487249764107</v>
+        <v>68.11487249764104</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>72.09286405969635</v>
+        <v>72.09286405969623</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.61377618666157</v>
+        <v>76.61377618666161</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.37104961549671</v>
+        <v>32.3710496154966</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>68.496479430259</v>
+        <v>68.49647943025911</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>72.32826581290122</v>
+        <v>72.32826581290128</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.23919640347218</v>
+        <v>53.23919640347219</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.17612061062307</v>
+        <v>38.17612061062309</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.30303920875838</v>
+        <v>45.30303920875848</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.53792364327483</v>
+        <v>55.53792364327488</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.8814910374882</v>
+        <v>14.88149103748812</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.97733537101931</v>
+        <v>46.97733537101927</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.88489593893274</v>
+        <v>52.8848959389327</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.11104318194383</v>
+        <v>18.1110431819438</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.14316157227796</v>
+        <v>34.143161572278</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.39275221080027</v>
+        <v>41.3927522108003</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.63578695540897</v>
+        <v>11.63578695540896</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.07387949957995</v>
+        <v>39.07387949958</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.08398745990099</v>
+        <v>44.08398745990088</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.2233918615576</v>
+        <v>11.22339186155761</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>56.61085334973933</v>
+        <v>56.61085334973926</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>66.23223469012532</v>
+        <v>66.23223469012549</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>63.53080748264581</v>
+        <v>63.53080748264587</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>68.63206474384211</v>
+        <v>68.63206474384219</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>78.44853681743596</v>
+        <v>78.44853681743587</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.65862874430887</v>
+        <v>21.65862874430893</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>62.18334820853956</v>
+        <v>62.1833482085396</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>70.00531723757533</v>
+        <v>70.00531723757537</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.05005118005502</v>
+        <v>50.05005118005503</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.49154369272894</v>
+        <v>25.49154369272888</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.4614353039366</v>
+        <v>31.4614353039367</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.9971313347211</v>
+        <v>41.99713133472107</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.69492311831511</v>
+        <v>11.69492311831512</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.22190455121024</v>
+        <v>40.22190455121033</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.97497194230392</v>
+        <v>48.97497194230401</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.8910341018057</v>
+        <v>14.89103410180569</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.74012636073491</v>
+        <v>32.740126360735</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.97316082986097</v>
+        <v>42.97316082986102</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>11.42539080207507</v>
+        <v>11.42539080207515</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.32621988172426</v>
+        <v>35.32621988172436</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.56432614227349</v>
+        <v>44.56432614227356</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.082744334583435</v>
+        <v>8.082744334583406</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.37568742416978</v>
+        <v>48.37568742416973</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.41936573267989</v>
+        <v>64.41936573267991</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>52.12851490495918</v>
+        <v>52.12851490495919</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.52276760003921</v>
+        <v>60.5227676000392</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>75.07762977789909</v>
+        <v>75.07762977789892</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.28592520604623</v>
+        <v>14.28592520604628</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.4442009479411</v>
+        <v>54.44420094794102</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.81714275164316</v>
+        <v>67.81714275164327</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.549</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.167</v>
+        <v>17.749</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.766</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.945</v>
+        <v>14.724</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.965</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.812939139651462</v>
+        <v>9.486267721996057</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8.736269201793856</v>
+        <v>14.19628614147117</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.20823445986937</v>
+        <v>21.50071337117703</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.155456326625185</v>
+        <v>3.247906601743704</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.3796215918769</v>
+        <v>15.01344622910708</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.71838322465086</v>
+        <v>16.6612407359395</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.870073235402554</v>
+        <v>6.195122440816103</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.46937775737797</v>
+        <v>27.85550364795213</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.3024134643357</v>
+        <v>29.97787736674762</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.24249097799503</v>
+        <v>15.65126118659957</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.88652355139566</v>
+        <v>19.07334632502937</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.50477301380398</v>
+        <v>20.34532954711302</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.24346150168392</v>
+        <v>13.86351904103183</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.78256201008747</v>
+        <v>14.64802280845861</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.56453900303355</v>
+        <v>28.27170582066833</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.821177272324626</v>
+        <v>10.36594989845482</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.37629061744472</v>
+        <v>25.18390986746004</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.04618811897862</v>
+        <v>29.31887824660635</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.333468468276667</v>
+        <v>1.772846774044179</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.764204855760092</v>
+        <v>10.45422025671012</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.66345203454752</v>
+        <v>16.78067233161286</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.8791003632221397</v>
+        <v>3.537858140929089</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.52979101363762</v>
+        <v>25.91916252828531</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.36568485016364</v>
+        <v>11.67481994082772</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.81044833032207</v>
+        <v>21.17324435543225</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.27509756886404</v>
+        <v>23.02174093108419</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.2183975747922702</v>
+        <v>2.8592266944055</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.33299148505187</v>
+        <v>24.77935147829336</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.57084134557522</v>
+        <v>26.17323322195326</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.443548616999209</v>
+        <v>5.701682691239704</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.70128206280449</v>
+        <v>36.57477415159879</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.37014419779444</v>
+        <v>36.87984066507919</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.09682641897432</v>
+        <v>35.89177186704241</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.06151778253053</v>
+        <v>41.44617633892676</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.41801654479539</v>
+        <v>41.14733222347319</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.55465187526882</v>
+        <v>17.15667829612268</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.31360133336166</v>
+        <v>38.45620287352248</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.94908778192629</v>
+        <v>41.40396058558923</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.41932283944578</v>
+        <v>17.08267063111404</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.67945804443149</v>
+        <v>31.62468345214079</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.10604532124455</v>
+        <v>34.17969494111848</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.353417922551351</v>
+        <v>2.799118174776176</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.4820739574978</v>
+        <v>30.23125498106978</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.14813280022855</v>
+        <v>34.07261622384374</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.16036546101849</v>
+        <v>4.297885494412824</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.46454176106592</v>
+        <v>48.80212836011268</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.4570161297986424</v>
+        <v>5.448426116664535</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>11.02488152666637</v>
+        <v>15.14459212642515</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19.8116063163646</v>
+        <v>23.59592769220779</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2.086354686280892</v>
+        <v>2.622499711775163</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.20872265426543</v>
+        <v>23.60977487404978</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>23.84078429368212</v>
+        <v>25.63204512862246</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5.523606173708203</v>
+        <v>7.695501856621586</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.78243402655047</v>
+        <v>36.76177603342963</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.35305840967047</v>
+        <v>41.07495618154685</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.47555472256562</v>
+        <v>39.55726400403377</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>42.02292106639275</v>
+        <v>43.48725037500296</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.6260386323104</v>
+        <v>49.02608186775815</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.370294081603685</v>
+        <v>5.81498894103381</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.911568567948</v>
+        <v>27.02019677465727</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.56405442610237</v>
+        <v>32.48345053559159</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9.349396401286153</v>
+        <v>10.74455278709775</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.99670409267653</v>
+        <v>30.08727120806167</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.274876453567</v>
+        <v>33.62706985932935</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.239243894614606</v>
+        <v>2.426031066105693</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.47910924509073</v>
+        <v>26.10546823776424</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.24034168351882</v>
+        <v>33.57776915988215</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.763091730049133</v>
+        <v>5.851756078916477</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.60456023634929</v>
+        <v>45.80776055345591</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.6286114989278175</v>
+        <v>3.99947808972416</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7.113438918271989</v>
+        <v>12.38371254446387</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.36240405330358</v>
+        <v>22.68483796663226</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1.822582678366718</v>
+        <v>2.067712065254863</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.13428197537004</v>
+        <v>21.74295252385305</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.14291690020799</v>
+        <v>28.43894701601236</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1.060303078829115</v>
+        <v>2.69944383655011</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.91830549167494</v>
+        <v>31.37885455958151</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.91836637971702</v>
+        <v>39.61838472493687</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.89001198472758</v>
+        <v>32.65447128165322</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.42229152523525</v>
+        <v>36.31424847713543</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.02657066253707</v>
+        <v>43.59606368076729</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.176375061090383</v>
+        <v>4.401351797289131</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21.68381062040119</v>
+        <v>23.59048201188923</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.6231941391361</v>
+        <v>37.38767204206816</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5.590855565062366</v>
+        <v>8.022894991697584</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.87194444270954</v>
+        <v>26.31055824837495</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.22749160878898</v>
+        <v>31.98121736794153</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.218019275665352</v>
+        <v>2.618086597559795</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.06017955345683</v>
+        <v>23.08716540718746</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.76198985954564</v>
+        <v>31.94561709513337</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.92100555881785</v>
+        <v>3.14915133722938</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.67320446880127</v>
+        <v>36.14699010263473</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.97518725088888</v>
+        <v>29.53282240535597</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.42073153198465</v>
+        <v>22.85839226528649</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.74548682729903</v>
+        <v>38.68110310499269</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.67094159543737</v>
+        <v>38.74773666234424</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.868822987892724</v>
+        <v>9.154724844285088</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.06537687143658</v>
+        <v>21.30260782118611</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.16629744928369</v>
+        <v>28.70656693653444</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.32456658922304</v>
+        <v>14.06628631864281</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.52079965150084</v>
+        <v>27.53080394677541</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.57254377507269</v>
+        <v>37.61294202254704</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.968366960765081</v>
+        <v>1.487702391708122</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.12823016609904</v>
+        <v>9.515323327823076</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.30150926790999</v>
+        <v>17.58254202685775</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.561660319480797</v>
+        <v>3.414348514316924</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.27558545000451</v>
+        <v>25.45139345858237</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.20084403183982</v>
+        <v>46.31087499201292</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.48075192890663</v>
+        <v>26.90075990215581</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.40929546326262</v>
+        <v>45.71388638024255</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.22344816712367</v>
+        <v>50.77220204069729</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.4805387099371</v>
+        <v>7.940994462059571</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.54424599919935</v>
+        <v>23.24765680401414</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.69465359789552</v>
+        <v>35.68430416059811</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.92682106249777</v>
+        <v>54.92774121929959</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.25328795930395</v>
+        <v>50.19051866037075</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.1494503510237</v>
+        <v>56.77559822927903</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.00396115807186</v>
+        <v>57.42095329620537</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.95797969539125</v>
+        <v>18.00419919614023</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.33697318855575</v>
+        <v>53.68363989883101</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>58.18089499663492</v>
+        <v>56.79247564284436</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.62679999196482</v>
+        <v>22.37208068147477</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.93061285324113</v>
+        <v>37.74744876293042</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.82841997381303</v>
+        <v>44.52773081676006</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.560516272676935</v>
+        <v>3.690636252598381</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.32362884799185</v>
+        <v>42.88932105225555</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.06889627598733</v>
+        <v>46.01971910793496</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>7.835313554396439</v>
+        <v>6.934110817291437</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.79676703657735</v>
+        <v>64.40706358065414</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>73.81069227710435</v>
+        <v>68.48353015315607</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.38554901042221</v>
+        <v>71.57149410231244</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.21492323309658</v>
+        <v>76.75721884425289</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>86.09144718786386</v>
+        <v>79.96064600601824</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.2727355957509</v>
+        <v>27.45872998313261</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.864056403364</v>
+        <v>72.82794648737669</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.14884849145464</v>
+        <v>74.91587429145906</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.79185169418417</v>
+        <v>57.03049630900811</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.7543372011252</v>
+        <v>45.65811328629935</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.22581714996237</v>
+        <v>50.98468953480609</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.77007865096746</v>
+        <v>57.85253419876013</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.410463945752724</v>
+        <v>11.67171463311425</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.60855666828396</v>
+        <v>49.57914809702877</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.99184412348497</v>
+        <v>54.51141777585328</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.21371786863319</v>
+        <v>14.4200866904744</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.41975232995513</v>
+        <v>34.85172668674784</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>45.11172413572359</v>
+        <v>43.29345719910037</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.160410382743059</v>
+        <v>3.008085090646826</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.37587475676219</v>
+        <v>39.71711095362762</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.6943960063926</v>
+        <v>43.32783930715499</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.707484013772891</v>
+        <v>8.008110774508825</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.12089230465153</v>
+        <v>63.19686514216902</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.09796044005583</v>
+        <v>70.46728335254576</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.17877336725644</v>
+        <v>70.27795705760552</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.36717301297237</v>
+        <v>76.3721533000768</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.51180608565483</v>
+        <v>82.83457884506814</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14.95401922136988</v>
+        <v>13.65270737650451</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.38039334679624</v>
+        <v>70.80801545504742</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.14918523006186</v>
+        <v>75.78081479031299</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.61972426099058</v>
+        <v>51.7898998536666</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.80479556701949</v>
+        <v>29.77906751152905</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.2792741899552</v>
+        <v>36.40769086128329</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.72075966881761</v>
+        <v>43.44011367709915</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.496765088384024</v>
+        <v>9.160788616514118</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.07397254194755</v>
+        <v>44.19311030790331</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.14441534968339</v>
+        <v>50.11958658769262</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.65272634954991</v>
+        <v>11.04660745029298</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.17792382102553</v>
+        <v>32.91573855052937</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>47.14406371568443</v>
+        <v>44.33477148952622</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.333945880808233</v>
+        <v>2.959754011677258</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.55977000589988</v>
+        <v>35.38655824166446</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.90605166811265</v>
+        <v>44.57681986306775</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.967041781954929</v>
+        <v>3.638126216382783</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.08940868061925</v>
+        <v>56.01977827745532</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>74.63138252098022</v>
+        <v>69.14145184243068</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.06234064418419</v>
+        <v>61.13583663613577</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.17893256673958</v>
+        <v>73.5454022835146</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>85.44414532228666</v>
+        <v>81.49610437955187</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.852725486329653</v>
+        <v>9.402875741338075</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.86490283270244</v>
+        <v>66.92027791831585</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>79.12203736877163</v>
+        <v>74.77668877272792</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.77854579631007</v>
+        <v>20.29088812988326</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.1778643523809</v>
+        <v>22.27068472745448</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.2218786157273</v>
+        <v>26.39208156533252</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.579633670632511</v>
+        <v>14.26776280220757</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>11.5150708797535</v>
+        <v>21.06840632262902</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.52465698491747</v>
+        <v>21.46647556513566</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.961953633937775</v>
+        <v>17.62391554694535</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.41178733850197</v>
+        <v>28.65832091628141</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.24411818438719</v>
+        <v>29.84193512050786</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>12.92545175118998</v>
+        <v>21.80536554624934</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.68983273468238</v>
+        <v>24.81825733854754</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.13758800680053</v>
+        <v>25.36039696813243</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.595032169735</v>
+        <v>23.93106054720042</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>14.7344348898314</v>
+        <v>22.48624482373846</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.17657613397988</v>
+        <v>29.12466742066871</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.54427469345427</v>
+        <v>17.11283977308915</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.25707155498248</v>
+        <v>26.29161752189183</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.83096507075532</v>
+        <v>29.33711674207946</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.401767588307877</v>
+        <v>12.4624473323949</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.198996645625829</v>
+        <v>16.18330841849192</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11.75276206966717</v>
+        <v>18.3460137838332</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.712740032145085</v>
+        <v>13.81003948692778</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.6996110360972</v>
+        <v>23.40995343202609</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.54033823889424</v>
+        <v>21.80048499777731</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.85814415785585</v>
+        <v>26.28627461172575</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.98187239709019</v>
+        <v>27.52161132456136</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.552724612521587</v>
+        <v>14.41694540906129</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.48316262457794</v>
+        <v>27.41653113351524</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.70344216560755</v>
+        <v>28.55480224573176</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.93992433169446</v>
+        <v>17.27110634224579</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.84213420385654</v>
+        <v>36.28072380092153</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.71076575110274</v>
+        <v>36.12270463758997</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.00344191897317</v>
+        <v>36.53733397917038</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.92748414743053</v>
+        <v>41.26385507146507</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.19185164325494</v>
+        <v>40.93947961159391</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.52523044645276</v>
+        <v>27.3196075736327</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.62745981529791</v>
+        <v>37.99001545382286</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.98217991593641</v>
+        <v>38.36649370506634</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.5268352768944</v>
+        <v>20.82990407381358</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.46389223001314</v>
+        <v>30.39110204742493</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.54375734797261</v>
+        <v>33.30891972651956</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.547758051184751</v>
+        <v>13.21889705206048</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.05608248046127</v>
+        <v>28.18777341268746</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.06338671059834</v>
+        <v>32.40623804518306</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.17016091867839</v>
+        <v>14.89967665930229</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.02400803678793</v>
+        <v>40.02401908124499</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.08331934247952</v>
+        <v>17.98462301370157</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.26005993851983</v>
+        <v>22.82582912670683</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.76239340146218</v>
+        <v>26.55473603068689</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.533752014197393</v>
+        <v>13.83333042912229</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.19775779236891</v>
+        <v>26.95894517207364</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.21536133538428</v>
+        <v>27.89183111526683</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.66493589796977</v>
+        <v>16.89461146656205</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.52075215930621</v>
+        <v>35.53381928829933</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.30535021766524</v>
+        <v>38.21468644593882</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.46398034858876</v>
+        <v>37.1084378756992</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.50475554146161</v>
+        <v>40.56638363281697</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.47874794277212</v>
+        <v>42.49414547232713</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.801345765803</v>
+        <v>19.99008986955473</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.70096734962008</v>
+        <v>32.32842655046403</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>32.45970876167338</v>
+        <v>34.86270451969731</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.509790873881762</v>
+        <v>16.9544085556789</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.75793312793391</v>
+        <v>27.76439061675537</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.50719992097646</v>
+        <v>32.83313386982459</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>2.494384861682704</v>
+        <v>12.70286789664569</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.81207674073694</v>
+        <v>23.75898828394495</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.90521041248648</v>
+        <v>32.07558082836928</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5.213434233608233</v>
+        <v>14.67845814387159</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.33226076884359</v>
+        <v>33.40847086432225</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.006608769629899</v>
+        <v>16.49358421683102</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.08343538250813</v>
+        <v>19.97518909523027</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.6748794541139</v>
+        <v>24.85845472171998</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.942222306391947</v>
+        <v>13.56047986550619</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.68388342645842</v>
+        <v>25.51889020582734</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.92604853140858</v>
+        <v>28.6412911024649</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6.496008886310509</v>
+        <v>14.68906241018941</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.43593612626101</v>
+        <v>31.96112868222401</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.40424139299387</v>
+        <v>36.4308051431837</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.02883199449927</v>
+        <v>31.7495873356356</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.30571520879293</v>
+        <v>34.82347383402339</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.03820609518701</v>
+        <v>37.36584585877278</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.98227499157626</v>
+        <v>18.1794479083264</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.86230319311287</v>
+        <v>28.18922537416849</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.76127794575701</v>
+        <v>34.53493391986933</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.173930907301425</v>
+        <v>15.33790686951503</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.29091504939209</v>
+        <v>25.14191350846084</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.69796160469628</v>
+        <v>31.203413024618</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4.385963465782048</v>
+        <v>13.07773563208904</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.21316017051224</v>
+        <v>22.38768741996828</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.36055430784678</v>
+        <v>31.24127599644805</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.537636475789064</v>
+        <v>13.87161064509712</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.18742818919787</v>
+        <v>29.60167422103695</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>23.30915362878236</v>
+        <v>25.47958082966861</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.85664271521781</v>
+        <v>23.53233886694657</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.59731371347494</v>
+        <v>32.3236159656509</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.56127484840344</v>
+        <v>34.64897869622661</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.65098760589229</v>
+        <v>16.01267919398935</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.79895601139797</v>
+        <v>21.20366319718338</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.6097039825474</v>
+        <v>25.33213300355115</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.23817426293534</v>
+        <v>20.47580800517388</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.97304348713379</v>
+        <v>27.90103359104514</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>30.46066412343076</v>
+        <v>32.4482044357495</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.4918343018803029</v>
+        <v>12.31629275197271</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.099038023066587</v>
+        <v>16.10687858282819</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.81492180026129</v>
+        <v>19.44164396857739</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4.414422645043658</v>
+        <v>14.29800160604148</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.88248196489937</v>
+        <v>24.87712059343681</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.75715043875647</v>
+        <v>33.42158609067938</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.34416038462501</v>
+        <v>26.00204752339834</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>34.55927649284175</v>
+        <v>35.16995865752985</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.5241083998222</v>
+        <v>37.20524956628631</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.51814967215731</v>
+        <v>16.86987615625725</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.8794468913097</v>
+        <v>23.60197622265492</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.76714163717626</v>
+        <v>28.60337885059963</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.32797313403911</v>
+        <v>45.04560624562856</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.07903007281664</v>
+        <v>40.86737868333861</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>51.18700311554247</v>
+        <v>47.24051876456562</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.71545080306052</v>
+        <v>47.8811802182461</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.41192515231175</v>
+        <v>21.69312612579818</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.51007483464545</v>
+        <v>45.47107360667738</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.35165961393138</v>
+        <v>47.47836275741223</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.34481490054132</v>
+        <v>26.08803992458016</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.78158850629575</v>
+        <v>35.15034715910845</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.74956969737321</v>
+        <v>39.21913697905294</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>9.270707203776247</v>
+        <v>14.32417952736397</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.37040785656034</v>
+        <v>34.37306295913769</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.05256820129257</v>
+        <v>38.29902396220598</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.746998988371</v>
+        <v>18.76908567114724</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.67160706737798</v>
+        <v>50.45950620858466</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.40369064076796</v>
+        <v>52.82159373143648</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.03190830156142</v>
+        <v>54.69778178562385</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>68.87021217204418</v>
+        <v>58.06445039968241</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>73.89497576483996</v>
+        <v>60.48282136990331</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.80006171793043</v>
+        <v>31.80559323034803</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.75062975010016</v>
+        <v>56.40248383957194</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>71.2596795485486</v>
+        <v>58.50400835725397</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>49.84696724901873</v>
+        <v>46.03763037941806</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.52648926241696</v>
+        <v>33.65422134175142</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.88655385658266</v>
+        <v>39.54241825326524</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.74777883043222</v>
+        <v>47.88353522417722</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.21743363727926</v>
+        <v>17.2336769014448</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.71051188154722</v>
+        <v>40.38566795949086</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.7302255691121</v>
+        <v>45.86364476498886</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.643316242274</v>
+        <v>20.86620190679972</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.14275781940805</v>
+        <v>32.63025998488865</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.64405694395135</v>
+        <v>38.06391520999065</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.549115664350499</v>
+        <v>13.34598522635163</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.49440905012652</v>
+        <v>32.88080182711961</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>40.11429380903053</v>
+        <v>37.75112413208993</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.89467119379321</v>
+        <v>16.9545482777764</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>52.56615070020663</v>
+        <v>46.27723995386131</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>62.31396882974492</v>
+        <v>53.7798334873175</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>57.57398780734619</v>
+        <v>50.99157868734902</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>64.8693058443298</v>
+        <v>55.88654066581969</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>75.1673101802063</v>
+        <v>61.85343519227052</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.05164299571176</v>
+        <v>22.40312917219109</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>61.61082419135492</v>
+        <v>52.75547215480279</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>69.66170631351764</v>
+        <v>58.53828589789079</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.77311154401259</v>
+        <v>43.37885584774988</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.13530767328712</v>
+        <v>25.28291685850174</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.38695855716885</v>
+        <v>30.51052888352757</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.55654935790372</v>
+        <v>38.68415799347612</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.573667688625484</v>
+        <v>15.92483366874744</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.49766970900153</v>
+        <v>35.80290863851506</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.58821184098628</v>
+        <v>42.88746423684024</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.81966529161939</v>
+        <v>18.58109227686196</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.10720928025176</v>
+        <v>31.25839187936906</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.98173332154735</v>
+        <v>38.55398325020455</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.097773015213242</v>
+        <v>13.38290034398294</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.40245017074639</v>
+        <v>30.76622083681177</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.73296752669816</v>
+        <v>38.12986781707369</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.13075609669309</v>
+        <v>14.59032364692044</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>44.47688295405544</v>
+        <v>42.12022545870862</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>60.66012149141659</v>
+        <v>53.22829873655084</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.31202000053175</v>
+        <v>43.48242139659939</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.04467990944008</v>
+        <v>50.47820220633049</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.39172385934219</v>
+        <v>59.57260042900218</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.32896611838403</v>
+        <v>17.65832004567833</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>52.68343635866916</v>
+        <v>46.3904688567586</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>64.17393751575881</v>
+        <v>56.42539966316837</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.53442516693406</v>
+        <v>19.24766523101471</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.88510243847753</v>
+        <v>24.1849023815785</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.63800573198068</v>
+        <v>27.67950956469977</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.715528680111085</v>
+        <v>13.22441418243756</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.84441194268676</v>
+        <v>19.19943160198403</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.63117939571274</v>
+        <v>20.29103359574686</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.278035468149291</v>
+        <v>15.73031025204803</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.80561257899452</v>
+        <v>28.80595190713968</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.70795528914919</v>
+        <v>31.30624060250902</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.00281935071777</v>
+        <v>24.46391489546702</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.95466300090576</v>
+        <v>28.30347316474553</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.20961297218978</v>
+        <v>29.52604704624784</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.541342196560311</v>
+        <v>18.54416583654487</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.15495954210226</v>
+        <v>22.34914128094399</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.30657319225443</v>
+        <v>26.86389197633279</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.83644182349338</v>
+        <v>17.67488434600989</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.08173078070156</v>
+        <v>26.26884528533523</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.59865572029226</v>
+        <v>29.04456622424879</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.417190170264092</v>
+        <v>11.72722571668772</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.138293515695825</v>
+        <v>15.77335721419757</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.00042080761947</v>
+        <v>18.7214404680892</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.257380501979029</v>
+        <v>12.9477791502805</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.00653217140016</v>
+        <v>24.09481686018019</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.85627358909812</v>
+        <v>20.30288965232542</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.6568707460556</v>
+        <v>29.086544611423</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.94255509515334</v>
+        <v>28.81540637351803</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>6.661278308637311</v>
+        <v>13.60878559646076</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.87621555869471</v>
+        <v>28.65422413447223</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.75024227815286</v>
+        <v>29.19804307833649</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.68494526492644</v>
+        <v>15.55197319274432</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.4346672622226</v>
+        <v>37.72658661343618</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.17473566519143</v>
+        <v>38.18926496784509</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.98967685322987</v>
+        <v>39.56941128618992</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.09959227967748</v>
+        <v>42.91782607449004</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.45295730343045</v>
+        <v>42.95129194195558</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.77235499863986</v>
+        <v>21.03009882000432</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.47447216546099</v>
+        <v>41.11766873432305</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.46071617460936</v>
+        <v>41.78574222322858</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.48953932138626</v>
+        <v>19.46035855953119</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.90684739260245</v>
+        <v>30.88783784575327</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>34.58215315813391</v>
+        <v>33.39986291755528</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.125131642088583</v>
+        <v>12.38102569852816</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.22492427303242</v>
+        <v>28.63169129289397</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.14065548212598</v>
+        <v>31.52553563728651</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.699514786426526</v>
+        <v>13.64510298917602</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>44.25113890676793</v>
+        <v>40.81370254024989</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.695214360111009</v>
+        <v>16.1854071024473</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.52388478939766</v>
+        <v>24.08442596774292</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.57440215988998</v>
+        <v>27.24052297207378</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.499232773040422</v>
+        <v>13.12217708565856</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.21088913074845</v>
+        <v>27.35703329702206</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.03170074684465</v>
+        <v>28.64797545009488</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.53418760896678</v>
+        <v>16.47317179801556</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.23124015189768</v>
+        <v>36.75723146185076</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.95455755168358</v>
+        <v>39.97436769655015</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.50661382843815</v>
+        <v>40.08959874575238</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>46.83210077634895</v>
+        <v>43.17586472310504</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.40832416985022</v>
+        <v>43.64688780539269</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.455840933355152</v>
+        <v>17.12515052468305</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.84601047470758</v>
+        <v>33.79932340160588</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.98316807419481</v>
+        <v>34.76692948569769</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>8.585560587151015</v>
+        <v>14.87758761652326</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.87691097422534</v>
+        <v>28.81897313833429</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.41727676299775</v>
+        <v>32.84368150541519</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.807190056216253</v>
+        <v>11.9894214472204</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.38200182414187</v>
+        <v>23.8530298544228</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.39755919654618</v>
+        <v>32.20659239409351</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.68729025508885</v>
+        <v>13.76763660033368</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>32.16165134303353</v>
+        <v>34.66553800676834</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.29151290473046</v>
+        <v>15.58955695254386</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.36179342945061</v>
+        <v>22.14464424096306</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.00633831576944</v>
+        <v>26.51448418496969</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.563340991127149</v>
+        <v>12.87637324441579</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.9631568787717</v>
+        <v>25.83791502061013</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.77152141708548</v>
+        <v>30.32890570750939</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.812753348915056</v>
+        <v>13.78475271457459</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.98644241292607</v>
+        <v>33.6623263874904</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.91022070233281</v>
+        <v>38.96946429881856</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.74025362603351</v>
+        <v>34.14673052061816</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.81058610939439</v>
+        <v>37.49077056616845</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.08668799098025</v>
+        <v>39.89948849895465</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.57627074648628</v>
+        <v>16.82755180765371</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.99907002867058</v>
+        <v>31.80043320684518</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.07737646083222</v>
+        <v>35.45398672682374</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>8.745466289759786</v>
+        <v>14.16083292240091</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.32280023711557</v>
+        <v>25.1877374656863</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.07783788781528</v>
+        <v>31.35925873395347</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.48991592141055</v>
+        <v>12.32100193157041</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.77614901980372</v>
+        <v>21.77801402492011</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.93728903149459</v>
+        <v>31.35302130895463</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.124146221757929</v>
+        <v>13.07875429372459</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.14695019948344</v>
+        <v>29.11612537814952</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.65427577475076</v>
+        <v>26.32919759361513</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.27549220738553</v>
+        <v>24.11245473858049</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.34252934508117</v>
+        <v>33.35674685808851</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.21787604915775</v>
+        <v>34.50217112137658</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.056721605767802</v>
+        <v>14.56799024778308</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.47032472985342</v>
+        <v>21.41294214076412</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.38095795679161</v>
+        <v>25.94301649839763</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.56357236073994</v>
+        <v>18.91415452928848</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.07064277069486</v>
+        <v>27.84823361987606</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.35550830996433</v>
+        <v>32.65998557368145</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.1589031012216857</v>
+        <v>11.55469192790292</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.935962949510209</v>
+        <v>15.39012050448267</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.70531709595356</v>
+        <v>19.17602241264212</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.504347723404305</v>
+        <v>13.14244506940337</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.63370297730546</v>
+        <v>23.92083430640983</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.52945295403083</v>
+        <v>34.15298604494181</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.81219811591056</v>
+        <v>25.69166202351131</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.51531852800586</v>
+        <v>36.24644124179945</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.70466481582585</v>
+        <v>39.75114101872605</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.818126081187255</v>
+        <v>14.87444931679974</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.58664244654871</v>
+        <v>23.03243656700153</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.27995342897545</v>
+        <v>29.64213201487513</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>52.60642766312202</v>
+        <v>45.83494232093044</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.91892236311112</v>
+        <v>42.55929040717748</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>52.92850220879654</v>
+        <v>48.23060368227567</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.40022179164787</v>
+        <v>47.36686638429843</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>12.35682382443567</v>
+        <v>18.22918367758315</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.4573686742005</v>
+        <v>45.3581141719697</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>54.357253335498</v>
+        <v>48.18793157006147</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.27770534075168</v>
+        <v>23.78471454543496</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.67598539100565</v>
+        <v>35.84772804733124</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.22458414852285</v>
+        <v>38.81434725875735</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.79924290250214</v>
+        <v>13.29376616537539</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.88540378202724</v>
+        <v>35.65942666826575</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.22341951924935</v>
+        <v>37.78089382993932</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.99913081686644</v>
+        <v>16.64594721837127</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.14003833269901</v>
+        <v>51.13622912899799</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.74799034090159</v>
+        <v>52.87215246521578</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.42856683075453</v>
+        <v>57.07096757138189</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>68.5995741420941</v>
+        <v>59.32918762766452</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>73.67238185458135</v>
+        <v>61.68143701288055</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.55531537776136</v>
+        <v>26.1245413210825</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.71320088110112</v>
+        <v>56.78075110228812</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>69.26133235858022</v>
+        <v>58.77070715723861</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>51.15821974173279</v>
+        <v>46.52096820944389</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.28269323498255</v>
+        <v>35.93369935828036</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>43.79344780122375</v>
+        <v>41.21564225915953</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>54.53184369871521</v>
+        <v>48.61668406447229</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.667276163089745</v>
+        <v>14.21552897134901</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>44.29140532936117</v>
+        <v>40.99440631756576</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>51.83689809726424</v>
+        <v>46.2330211555106</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.23655534703005</v>
+        <v>18.35617287884257</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.16163625371057</v>
+        <v>32.92947701467581</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.37918041016189</v>
+        <v>37.541748673029</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.828340581671885</v>
+        <v>12.44583553969574</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.59827518307416</v>
+        <v>31.82488566159788</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.59606607862531</v>
+        <v>37.6383873152071</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.32813738650568</v>
+        <v>15.6395749870268</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.62238231651746</v>
+        <v>45.67727357518815</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>60.90163971257009</v>
+        <v>53.71809789801627</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.25650920681302</v>
+        <v>52.23830296141436</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.72428156527114</v>
+        <v>57.03539813032006</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>74.46651744159661</v>
+        <v>62.95777570862889</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.43044115796305</v>
+        <v>18.45212222434553</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.68063424300738</v>
+        <v>52.39063218940251</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>67.12055943940163</v>
+        <v>58.26267616944456</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.75615726403338</v>
+        <v>44.30851420892328</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.1847283000937</v>
+        <v>25.66820568605743</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.21626006614936</v>
+        <v>31.43751547110801</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.57643008842409</v>
+        <v>39.32685125110735</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.326149322338566</v>
+        <v>13.96509001172666</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.07001248704557</v>
+        <v>37.17022073729058</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.59167344692926</v>
+        <v>43.92072527345636</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.09199938506652</v>
+        <v>16.658630964934</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.46043030284044</v>
+        <v>30.36715876047425</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.46599671249054</v>
+        <v>38.14567696712514</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.742474424275738</v>
+        <v>12.50765051531117</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.05011960189438</v>
+        <v>28.4146170252233</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>37.624102326001</v>
+        <v>38.2790631650591</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.138473900553645</v>
+        <v>13.60115551366536</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.26374048633436</v>
+        <v>39.02331597860643</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.37598071701449</v>
+        <v>53.35135222331757</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.2723764171503</v>
+        <v>41.4186396953457</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>56.02158401578291</v>
+        <v>50.75625422315063</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.62059646748031</v>
+        <v>61.21866078185069</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.222677637542496</v>
+        <v>15.47826000168886</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.87814668893549</v>
+        <v>45.24998919018569</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>62.81888619208822</v>
+        <v>56.35862801593389</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.76272771720401</v>
+        <v>11.83540395969949</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.73313738691485</v>
+        <v>18.07303624993989</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.10289475384684</v>
+        <v>27.80666494859116</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-0.9931219202399753</v>
+        <v>3.599128433029048</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.92425616216403</v>
+        <v>14.35491898937867</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.30977010502727</v>
+        <v>16.67002240137112</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.850993460241021</v>
+        <v>6.10091847283482</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.18934826700094</v>
+        <v>30.46930064440829</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.44834497777622</v>
+        <v>34.91489590981271</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.60953858200428</v>
+        <v>20.62835360827371</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.17697674901661</v>
+        <v>26.08901008215068</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.34335814274949</v>
+        <v>26.36479942639505</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.18804689829032</v>
+        <v>11.86958752540669</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>18.68776579662959</v>
+        <v>17.67547750292189</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.85463935262767</v>
+        <v>28.30012658497539</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.595001093592522</v>
+        <v>12.25047445165404</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.07083225307394</v>
+        <v>25.45103451605273</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.18964889572077</v>
+        <v>28.62111793445549</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.1656376595568254</v>
+        <v>3.110415139559933</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.87689512450077</v>
+        <v>10.73405863252685</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.42103486463546</v>
+        <v>15.83853372390849</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>0.5382351533258571</v>
+        <v>4.457883065214343</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.45727248520452</v>
+        <v>23.87714820128927</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>17.54103294182492</v>
+        <v>16.9110850257611</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.97086340131044</v>
+        <v>31.21267570149696</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.98453971870092</v>
+        <v>31.60564000654705</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.29134309375511</v>
+        <v>4.401689357019997</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.47942304291172</v>
+        <v>33.84235547033111</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.48866784117312</v>
+        <v>33.35473945287488</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.462618996698954</v>
+        <v>6.756061844971381</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>49.9106969700176</v>
+        <v>48.44510037667794</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>49.44154749857333</v>
+        <v>48.32996831758253</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>50.50363428208473</v>
+        <v>48.361691595584</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>56.32318771435705</v>
+        <v>54.24281803010786</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>55.70015514570009</v>
+        <v>53.40737270029233</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.64149533737631</v>
+        <v>17.69000769511498</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>52.84871129790267</v>
+        <v>49.17182524333668</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>56.40791653786187</v>
+        <v>52.67118002217207</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.90956144569122</v>
+        <v>17.34093287756686</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.10520590992275</v>
+        <v>33.76415472165133</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.04445710326158</v>
+        <v>35.04419233394287</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.527236409623768</v>
+        <v>3.802320408450488</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.8021647788234</v>
+        <v>31.76215067753782</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.45404011731898</v>
+        <v>33.18708889531175</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.712286658484253</v>
+        <v>5.081702827691082</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>53.38972122461846</v>
+        <v>49.65533997684319</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.926414357506463</v>
+        <v>7.179992074968002</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.32207933695121</v>
+        <v>22.43972225169494</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.92715003365976</v>
+        <v>28.54381303524282</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.358095396697784</v>
+        <v>3.796564255116298</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.34314099370207</v>
+        <v>31.07861862203816</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.8365455357417</v>
+        <v>32.97361212745343</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.052129853119606</v>
+        <v>8.415597564783287</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.79468897509548</v>
+        <v>47.41722358173234</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>52.17999192033703</v>
+        <v>51.30027891148058</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>55.27704472525519</v>
+        <v>53.05635268611146</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>60.67278957572967</v>
+        <v>57.68875323237128</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.2700423998939</v>
+        <v>57.99905862222016</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.83080153704606</v>
+        <v>8.233315831986065</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>40.52066197293121</v>
+        <v>37.05383472004185</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>45.14673700359424</v>
+        <v>40.32265027228635</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.48862577036317</v>
+        <v>10.34017278332931</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.55276789011624</v>
+        <v>32.26641048974777</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.3076162156293</v>
+        <v>34.86790046673021</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.938375758089776</v>
+        <v>3.812729977676899</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.75281815982833</v>
+        <v>27.35267539174479</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.46254869421288</v>
+        <v>35.23563798344046</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.717104141978968</v>
+        <v>6.597748513782843</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>46.15727850325587</v>
+        <v>46.21896816797209</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.069083861814416</v>
+        <v>5.943401854465264</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.41344270014237</v>
+        <v>18.03371091666578</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.47461247090004</v>
+        <v>26.43139532681412</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.323284150115771</v>
+        <v>3.626294335900944</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.16053927881615</v>
+        <v>26.90799035812223</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.4203575320911</v>
+        <v>35.71639719218669</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.839424012676297</v>
+        <v>4.263663655886102</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.46452017491809</v>
+        <v>41.01060142113516</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>50.05351947794465</v>
+        <v>49.29090695972209</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.46120656763007</v>
+        <v>42.99404157585693</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.2234727628409</v>
+        <v>48.96752359136602</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.79497204144224</v>
+        <v>52.86394296651999</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.967465801943035</v>
+        <v>7.271017648188455</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.17248883681652</v>
+        <v>31.13436435886114</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.99897535438269</v>
+        <v>40.46452188955441</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.34071165739374</v>
+        <v>7.771955032914356</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.98950308429071</v>
+        <v>26.31313737609775</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.04161655185742</v>
+        <v>32.52779687377807</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.799944716033721</v>
+        <v>3.923367960734108</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.41376100682221</v>
+        <v>22.44889405760341</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.02593800516395</v>
+        <v>33.63785949889636</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>3.921495465964625</v>
+        <v>4.182061154555001</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.28150261741531</v>
+        <v>35.24167057496076</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.26203399611095</v>
+        <v>29.05840752483105</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.97591415288398</v>
+        <v>22.57335800666058</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.55990779265731</v>
+        <v>37.12609641747355</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.73150287552282</v>
+        <v>38.45555667942959</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.431981262704877</v>
+        <v>8.076412076731422</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.10317869274149</v>
+        <v>20.95071644379481</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.51956713650295</v>
+        <v>28.00193538004964</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.86822595412444</v>
+        <v>13.04087357588957</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.51956593858911</v>
+        <v>26.19830982112325</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.97925082434158</v>
+        <v>35.23211990765887</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.521859571031076</v>
+        <v>2.715656658661175</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.521852568799776</v>
+        <v>9.18117136420452</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.97045230649489</v>
+        <v>14.37346277780793</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1.51846986651729</v>
+        <v>3.969516127513021</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.10400855581705</v>
+        <v>21.60834397166329</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.11835749823993</v>
+        <v>38.68634780342766</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.23236454199778</v>
+        <v>24.86396773567854</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.06628007803867</v>
+        <v>43.45196460188379</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>49.62149241158093</v>
+        <v>48.87637044616409</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1.900528165210826</v>
+        <v>7.095516435191058</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.63625380004823</v>
+        <v>20.25308770531182</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.32424474543566</v>
+        <v>32.2814724593448</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>57.96096296034275</v>
+        <v>54.46455162747078</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.66776663079092</v>
+        <v>53.74113047963452</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.91691673362843</v>
+        <v>59.32885401735325</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>62.2606198488007</v>
+        <v>58.1304905993033</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.24621780252455</v>
+        <v>15.89450963835665</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>58.29622166155813</v>
+        <v>55.36695327732474</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>60.23780187489455</v>
+        <v>57.90573928930529</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>19.64608065547258</v>
+        <v>20.43025856071543</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.31933936537278</v>
+        <v>38.47680773495763</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.55526384850612</v>
+        <v>43.512890643938</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>5.736456566730219</v>
+        <v>4.788535439288044</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.64363901979929</v>
+        <v>42.33945090000715</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>45.04444045620771</v>
+        <v>42.95271995340413</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.737704621717072</v>
+        <v>7.089403964166422</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.41769355074763</v>
+        <v>62.98008541541665</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>71.27544550009375</v>
+        <v>66.28933054081341</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>74.5563996827797</v>
+        <v>71.94015013812584</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>80.11473065907401</v>
+        <v>75.81454975985969</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>85.53296192054523</v>
+        <v>78.82901438788707</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.63301580875146</v>
+        <v>22.26265848230721</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>72.70542119724331</v>
+        <v>71.19176252054322</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>78.93325615986608</v>
+        <v>74.04322452442793</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>60.30382897217179</v>
+        <v>57.64347379595164</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>47.13929154936852</v>
+        <v>46.94275915739343</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>53.42396011743735</v>
+        <v>52.69467857999659</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>62.06460711343161</v>
+        <v>59.72484980265617</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>8.37179954563879</v>
+        <v>9.842819200359802</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>52.55649561942329</v>
+        <v>51.1308497425411</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.79009983811062</v>
+        <v>55.88570809405137</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>11.77285135705877</v>
+        <v>12.63895954977598</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.93208432423658</v>
+        <v>35.07836876242615</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.96919554604016</v>
+        <v>42.23093474934616</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3.20828738706415</v>
+        <v>4.04876798043794</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.82484482723294</v>
+        <v>35.96806770061733</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.15728696929147</v>
+        <v>42.56508673916182</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>4.960937124322111</v>
+        <v>8.041808940856129</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>60.48045639241293</v>
+        <v>57.5878348449748</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>72.89855967716238</v>
+        <v>68.67759287641063</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>70.65773264326791</v>
+        <v>68.50047260794145</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>76.76100867634089</v>
+        <v>73.96524799740941</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>87.67691511368042</v>
+        <v>81.57428211002912</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.530611216115023</v>
+        <v>11.73842500702925</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.02778508697654</v>
+        <v>65.2542882687338</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>76.01429791945324</v>
+        <v>74.20379662919196</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.82390680622224</v>
+        <v>53.06554362326927</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.71149889495254</v>
+        <v>27.99366232056807</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.27424539444294</v>
+        <v>36.23533657570434</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.58408745944955</v>
+        <v>45.92580521136637</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.185885664232238</v>
+        <v>8.03109036689802</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.42851347107572</v>
+        <v>45.97209367158236</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.02006761054451</v>
+        <v>52.2677026372367</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.56241833026618</v>
+        <v>9.861807932787219</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.00246213178599</v>
+        <v>30.53632578758325</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.07612170503006</v>
+        <v>42.74478352582129</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.327074916098578</v>
+        <v>3.804293105059784</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.08222059898419</v>
+        <v>29.4484786070305</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.60674017967683</v>
+        <v>44.21730741206679</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.3087991864671906</v>
+        <v>3.913411399501289</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>46.04538034530592</v>
+        <v>44.96997833596809</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.05234249772644</v>
+        <v>66.92478450742412</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.24614447783969</v>
+        <v>49.68974354874305</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.46333801348952</v>
+        <v>63.58042721181177</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>82.48077243885623</v>
+        <v>79.97279528006179</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.331649355307935</v>
+        <v>7.992810273787462</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.91640485403103</v>
+        <v>54.09720028347762</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>73.47375335809059</v>
+        <v>70.56691210391678</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.67543751837543</v>
+        <v>19.28630644536419</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.934154675386</v>
+        <v>20.89852794936866</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.02087566047403</v>
+        <v>28.20192014928045</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6.468269740173959</v>
+        <v>12.11645273120053</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.64380050497285</v>
+        <v>22.42449528113775</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.85805066831997</v>
+        <v>23.99515791180896</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.55927840750257</v>
+        <v>15.34467143546674</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.8330424895242</v>
+        <v>33.60078055348942</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.55253049049382</v>
+        <v>35.28378377857808</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>18.07455211253275</v>
+        <v>21.27403384058894</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.2026427249554</v>
+        <v>24.38792253601823</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.25282106206108</v>
+        <v>24.60896601727401</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.20132004259768</v>
+        <v>23.82882258778517</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.6773631878945</v>
+        <v>22.1925147350821</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.59609727014998</v>
+        <v>32.48117675879423</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.76041815730835</v>
+        <v>16.76726478114098</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.13817793862418</v>
+        <v>26.26197675187545</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.33476038094537</v>
+        <v>30.40884797244504</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.077436077715269</v>
+        <v>12.65564669428252</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.42705052130272</v>
+        <v>17.46984112812485</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>17.68324184709907</v>
+        <v>19.89112115831339</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>5.021127099652777</v>
+        <v>11.60929409776682</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.76654739567935</v>
+        <v>23.31327638702377</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.43063684484354</v>
+        <v>22.81037145836217</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.70395082880817</v>
+        <v>28.61812939760926</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.40851779320829</v>
+        <v>30.02789188369458</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.584882912674075</v>
+        <v>12.22550111201252</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.36150618761678</v>
+        <v>32.03792402034063</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.19662658916931</v>
+        <v>32.58076133952076</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.63646404956978</v>
+        <v>15.08612598268573</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>44.11662765707486</v>
+        <v>41.77095930818464</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.4392597830428</v>
+        <v>41.18578292588747</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.07820405175062</v>
+        <v>41.19025373139887</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.5772450560938</v>
+        <v>45.89205153677333</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.84731970985786</v>
+        <v>45.73510275828065</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.75486789004862</v>
+        <v>28.91038149219228</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.42132882024548</v>
+        <v>40.75546194221157</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.38939713526065</v>
+        <v>43.28233265421661</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.88590441647789</v>
+        <v>21.7789715053455</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.32539763397563</v>
+        <v>31.52858265356798</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.32406721179972</v>
+        <v>33.84844381618181</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.43237873685154</v>
+        <v>13.3187145206174</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.12966453274915</v>
+        <v>30.69488710388764</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.22254777010758</v>
+        <v>34.03351679186741</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.627299955468814</v>
+        <v>12.72688700751193</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.92882648514441</v>
+        <v>42.51090801136944</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>10.67079391275594</v>
+        <v>16.02807773408246</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.4692451350193</v>
+        <v>24.17642789960623</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.64819495789888</v>
+        <v>28.77088554564445</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>6.354245073669482</v>
+        <v>11.47501652625919</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.65714865877394</v>
+        <v>30.94009505313907</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.22432858345508</v>
+        <v>32.47463699163124</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>11.61688969759735</v>
+        <v>15.02909771946694</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.53743019035056</v>
+        <v>41.65818645282538</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.59995950359544</v>
+        <v>44.60826420032366</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.8888832295776</v>
+        <v>44.43103667118351</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>53.73464080728611</v>
+        <v>47.81539769800023</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>55.17621070618359</v>
+        <v>49.65992969999697</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.54198118844008</v>
+        <v>19.01188355593909</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>37.8957602202596</v>
+        <v>34.95589143167688</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>43.71724442563254</v>
+        <v>39.09630840275008</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.38637968295999</v>
+        <v>17.24432663190155</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.22989095583452</v>
+        <v>29.69818432263159</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.24786099896912</v>
+        <v>33.4212850800002</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>9.194109992574599</v>
+        <v>13.03022666558333</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.60308201433674</v>
+        <v>26.86120843468205</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.88960153403022</v>
+        <v>34.36854728290844</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>7.833671028623343</v>
+        <v>13.10112183554021</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.19005270454815</v>
+        <v>38.39464218254334</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>8.472911049155258</v>
+        <v>13.91480093582825</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.63627905882039</v>
+        <v>20.04629182049481</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.11959419034891</v>
+        <v>26.52251769091104</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.524047057323941</v>
+        <v>11.39525049943736</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.87834572192927</v>
+        <v>29.62938601512322</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.61757528481012</v>
+        <v>33.61932271043118</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>7.071506707588078</v>
+        <v>12.07979496363419</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.65779390984766</v>
+        <v>38.13187296969754</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.99297525323412</v>
+        <v>42.63355522343696</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.17493878125861</v>
+        <v>38.38693493378462</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.99328108657794</v>
+        <v>41.52909580867384</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.37254027183268</v>
+        <v>44.92525609755864</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>11.67447406498902</v>
+        <v>16.63912323210591</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.37017684211862</v>
+        <v>29.14894990088133</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.36056147308356</v>
+        <v>39.4501812882309</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.72975562434471</v>
+        <v>14.67305287066886</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.23434356017244</v>
+        <v>26.45298971155667</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>33.28530664156564</v>
+        <v>31.99216214451592</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.47941851577447</v>
+        <v>13.32654712872492</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.91688241473197</v>
+        <v>25.53927511512147</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.28407389251219</v>
+        <v>34.05148940507086</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.954408832479423</v>
+        <v>11.42848084261194</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.8467375831454</v>
+        <v>33.63001242124185</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.61537396056971</v>
+        <v>25.77378708698076</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.98322913406624</v>
+        <v>23.1958089630443</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.60794248161464</v>
+        <v>33.35699714209566</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.08144405899391</v>
+        <v>35.67006269843419</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.608762700363343</v>
+        <v>14.62080718122335</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.04587397958637</v>
+        <v>20.94495528145335</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.33566920132556</v>
+        <v>25.63758984464091</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.12854821503898</v>
+        <v>18.79863464505207</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.01435428868901</v>
+        <v>26.66244867297104</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.69623781772187</v>
+        <v>32.97067269945229</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>6.326588362234755</v>
+        <v>12.51159346318963</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.02245644253301</v>
+        <v>16.98896783104431</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.13856656687742</v>
+        <v>20.72609916111062</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.788385860900931</v>
+        <v>12.01992393725085</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.99683782117011</v>
+        <v>24.47599400812557</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.56623273540154</v>
+        <v>36.03060722882263</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.1519810310251</v>
+        <v>25.54981119433826</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.1500816813777</v>
+        <v>37.93149870737285</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>43.41675597652642</v>
+        <v>40.98850614231107</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.41991677171386</v>
+        <v>14.65894606670323</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.9088024057683</v>
+        <v>23.07240853997048</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.36691362093058</v>
+        <v>30.33118206423826</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.85088948219965</v>
+        <v>47.30144243373989</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.61805504966925</v>
+        <v>44.26096489971082</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>54.13665050697112</v>
+        <v>50.54664137002303</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.58881983618444</v>
+        <v>50.86892262150511</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.52370284727659</v>
+        <v>23.0068511236491</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>52.41301611818319</v>
+        <v>47.81092380567041</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>54.75055684820876</v>
+        <v>49.95465303732664</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.73838025599685</v>
+        <v>26.27916858480405</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>37.75204835056174</v>
+        <v>35.70279661948996</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.00626482681071</v>
+        <v>40.02539234486213</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>13.76400913978578</v>
+        <v>14.35182378016007</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.55591517801591</v>
+        <v>37.65879641725419</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.52063427111874</v>
+        <v>40.16731621266462</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.92609387886589</v>
+        <v>15.60608235708528</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>59.11241921521886</v>
+        <v>53.07508652779933</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>64.09170831975985</v>
+        <v>56.24155375998546</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>68.11487249764104</v>
+        <v>59.34559035993317</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>72.09286405969623</v>
+        <v>63.10013385736123</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.61377618666161</v>
+        <v>65.71754083973711</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>32.3710496154966</v>
+        <v>31.58722240782744</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>68.49647943025911</v>
+        <v>60.02562777519555</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>72.32826581290128</v>
+        <v>62.21450263705735</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.23919640347219</v>
+        <v>49.44414860201934</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.17612061062309</v>
+        <v>38.19058715893492</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.30303920875848</v>
+        <v>43.36596633909087</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>55.53792364327488</v>
+        <v>50.7774754742002</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.88149103748812</v>
+        <v>18.03432739279106</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.97733537101927</v>
+        <v>43.94969423691293</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.8848959389327</v>
+        <v>48.47716805597884</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.1110431819438</v>
+        <v>20.41438854244318</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.143161572278</v>
+        <v>33.43896888695435</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.3927522108003</v>
+        <v>39.13127886152994</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.63578695540896</v>
+        <v>13.5517302426469</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.07387949958</v>
+        <v>35.42028765739596</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.08398745990088</v>
+        <v>39.97811532363679</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>11.22339186155761</v>
+        <v>15.3016554210653</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>56.61085334973926</v>
+        <v>50.35335990263879</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>66.23223469012549</v>
+        <v>58.26738388629786</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>63.53080748264587</v>
+        <v>56.80786732038679</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>68.63206474384219</v>
+        <v>61.12205077301994</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>78.44853681743587</v>
+        <v>67.59596610403054</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.65862874430893</v>
+        <v>21.99811614517057</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>62.1833482085396</v>
+        <v>55.92219251482351</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>70.00531723757537</v>
+        <v>62.35161112655297</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.05005118005503</v>
+        <v>46.13265562391171</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.49154369272888</v>
+        <v>26.67147628251731</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.4614353039367</v>
+        <v>31.95519734963788</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.99713133472107</v>
+        <v>40.02201033724027</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.69492311831512</v>
+        <v>15.45883487216037</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.22190455121033</v>
+        <v>39.78467271048162</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>48.97497194230401</v>
+        <v>45.95837962130608</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>14.89103410180569</v>
+        <v>17.61731553835897</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.740126360735</v>
+        <v>31.80708383790669</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>42.97316082986102</v>
+        <v>39.97508276320777</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>11.42539080207515</v>
+        <v>13.72329846050098</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.32621988172436</v>
+        <v>33.12439761598976</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.56432614227356</v>
+        <v>41.44241574238869</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>8.082744334583406</v>
+        <v>11.84629445994259</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.37568742416973</v>
+        <v>44.89825635328509</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.41936573267991</v>
+        <v>57.33937352777563</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>52.12851490495919</v>
+        <v>47.43398244070646</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>60.5227676000392</v>
+        <v>54.64104706292341</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>75.07762977789892</v>
+        <v>65.7408397985098</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>14.28592520604628</v>
+        <v>16.87304299116873</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.44420094794102</v>
+        <v>49.13302611877899</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>67.81714275164327</v>
+        <v>60.81056576420598</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.526</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.749</v>
+        <v>19.749</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.698</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.724</v>
+        <v>18.497</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.39</v>
+        <v>1.021</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.486267721996057</v>
+        <v>14.98685001734185</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.19628614147117</v>
+        <v>19.24479660011476</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.50071337117703</v>
+        <v>24.3343946468455</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.247906601743704</v>
+        <v>10.12950107564681</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.01344622910708</v>
+        <v>19.66083535184981</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.6612407359395</v>
+        <v>21.08877251801215</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.195122440816103</v>
+        <v>12.4895137155055</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.85550364795213</v>
+        <v>29.32781829663733</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.97787736674762</v>
+        <v>31.17638392165286</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.65126118659957</v>
+        <v>20.55311611024211</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.07334632502937</v>
+        <v>23.19521015095256</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.34532954711302</v>
+        <v>24.17540561386035</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.86351904103183</v>
+        <v>17.82398132423365</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.64802280845861</v>
+        <v>19.7249878025675</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.27170582066833</v>
+        <v>28.70128193705499</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.36594989845482</v>
+        <v>16.3171228802756</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.18390986746004</v>
+        <v>26.99604200759421</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.31887824660635</v>
+        <v>30.14032227808868</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.772846774044179</v>
+        <v>9.949328768223605</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.45422025671012</v>
+        <v>16.16464092903982</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.78067233161286</v>
+        <v>20.6101221360257</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.537858140929089</v>
+        <v>10.8534159918173</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.91916252828531</v>
+        <v>27.9523205074745</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.67481994082772</v>
+        <v>16.64945817056421</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.17324435543225</v>
+        <v>24.65187152104083</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.02174093108419</v>
+        <v>25.4249610823102</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.8592266944055</v>
+        <v>10.37448764111907</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.77935147829336</v>
+        <v>26.64961370993835</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.17323322195326</v>
+        <v>27.77706207727801</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.701682691239704</v>
+        <v>12.33446017116289</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.57477415159879</v>
+        <v>35.91726223718856</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.87984066507919</v>
+        <v>35.70800669723121</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.89177186704241</v>
+        <v>35.08863799802161</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.44617633892676</v>
+        <v>39.14169032636559</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.14733222347319</v>
+        <v>39.14147552995452</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.15667829612268</v>
+        <v>20.39569872593239</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.45620287352248</v>
+        <v>36.14777809264135</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.40396058558923</v>
+        <v>37.99426047938171</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.08267063111404</v>
+        <v>20.55187518497255</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.62468345214079</v>
+        <v>31.79917363775888</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.17969494111848</v>
+        <v>33.4845105513393</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.799118174776176</v>
+        <v>10.05590313529867</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.23125498106978</v>
+        <v>30.59953979445693</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.07261622384374</v>
+        <v>33.67365038641071</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.297885494412824</v>
+        <v>10.99615650352161</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48.80212836011268</v>
+        <v>44.60776495945318</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.448426116664535</v>
+        <v>12.31572850630092</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15.14459212642515</v>
+        <v>19.94373672105407</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.59592769220779</v>
+        <v>25.44223243825951</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.622499711775163</v>
+        <v>9.903229820616996</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.60977487404978</v>
+        <v>25.74384437028667</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.63204512862246</v>
+        <v>27.4491103147487</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.695501856621586</v>
+        <v>13.62768164681525</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.76177603342963</v>
+        <v>36.05269190871443</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.07495618154685</v>
+        <v>38.96795977468575</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.55726400403377</v>
+        <v>38.15602846737725</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.48725037500296</v>
+        <v>41.2938604735146</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.02608186775815</v>
+        <v>45.03148029093939</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5.81498894103381</v>
+        <v>12.74124632157254</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.02019677465727</v>
+        <v>28.30775835833648</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>32.48345053559159</v>
+        <v>31.74706215336863</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.74455278709775</v>
+        <v>16.01037407532811</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.08727120806167</v>
+        <v>30.24947700056844</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.62706985932935</v>
+        <v>32.85868773200468</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.426031066105693</v>
+        <v>9.927074834238397</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.10546823776424</v>
+        <v>27.4183741813509</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.57776915988215</v>
+        <v>33.20702087254241</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.851756078916477</v>
+        <v>12.34575390818954</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.80776055345591</v>
+        <v>42.34950022312243</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.99947808972416</v>
+        <v>11.4923466739695</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.38371254446387</v>
+        <v>17.92661680256941</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.68483796663226</v>
+        <v>25.1475315620668</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.067712065254863</v>
+        <v>9.910606379775281</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.74295252385305</v>
+        <v>24.66499444810346</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.43894701601236</v>
+        <v>29.52207406301307</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.69944383655011</v>
+        <v>10.2852154064668</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.37885455958151</v>
+        <v>32.32080947501201</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.61838472493687</v>
+        <v>38.719912602185</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.65447128165322</v>
+        <v>33.03344322617298</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.31424847713543</v>
+        <v>35.8297218697669</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.59606368076729</v>
+        <v>41.10186862691471</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.401351797289131</v>
+        <v>12.17618772867175</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.59048201188923</v>
+        <v>25.7777814491977</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.38767204206816</v>
+        <v>35.31200393426726</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.022894991697584</v>
+        <v>14.10724625666747</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.31055824837495</v>
+        <v>27.68660764514468</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.98121736794153</v>
+        <v>31.6932882405167</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.618086597559795</v>
+        <v>9.916961806949825</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.08716540718746</v>
+        <v>25.16850847337146</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.94561709513337</v>
+        <v>32.12173149043633</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.14915133722938</v>
+        <v>10.21955497989144</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.14699010263473</v>
+        <v>35.16566006841814</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.53282240535597</v>
+        <v>30.10874019846311</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.85839226528649</v>
+        <v>25.1795026429229</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.68110310499269</v>
+        <v>37.26762677567673</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>38.74773666234424</v>
+        <v>37.44452666977399</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.154724844285088</v>
+        <v>14.97030287864148</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.30260782118611</v>
+        <v>23.89489085937716</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.70656693653444</v>
+        <v>29.75360481805121</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.06628631864281</v>
+        <v>18.45629761793312</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.53080394677541</v>
+        <v>28.9682548581881</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.61294202254704</v>
+        <v>36.11792885295714</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.487702391708122</v>
+        <v>9.790973395453147</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.515323327823076</v>
+        <v>15.16151600371447</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.58254202685775</v>
+        <v>21.34190655044495</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.414348514316924</v>
+        <v>10.54143762181935</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.45139345858237</v>
+        <v>27.15845591136684</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.31087499201292</v>
+        <v>42.7753178229288</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.90075990215581</v>
+        <v>28.22729998000992</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.71388638024255</v>
+        <v>42.47528649827726</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.77220204069729</v>
+        <v>46.32173233357929</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.940994462059571</v>
+        <v>13.983193862627</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.24765680401414</v>
+        <v>25.6254827767916</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.68430416059811</v>
+        <v>34.96603052269873</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.92774121929959</v>
+        <v>49.59661594822956</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.19051866037075</v>
+        <v>45.79250854672283</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.77559822927903</v>
+        <v>51.0046152487904</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>57.42095329620537</v>
+        <v>51.63959116628831</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.00419919614023</v>
+        <v>21.00789169527947</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.68363989883101</v>
+        <v>48.76554226558473</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>56.79247564284436</v>
+        <v>50.61591314288897</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.37208068147477</v>
+        <v>24.47555279410837</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.74744876293042</v>
+        <v>36.43127007860423</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.52773081676006</v>
+        <v>41.24776892333333</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3.690636252598381</v>
+        <v>10.56927989721392</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.88932105225555</v>
+        <v>39.7559253716752</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46.01971910793496</v>
+        <v>42.20469220423583</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.934110817291437</v>
+        <v>12.90973595773944</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.40706358065414</v>
+        <v>56.55691032412805</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.48353015315607</v>
+        <v>58.94480957219264</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>71.57149410231244</v>
+        <v>62.00783382417019</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.75721884425289</v>
+        <v>65.34298920841539</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>79.96064600601824</v>
+        <v>68.21355605899865</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.45872998313261</v>
+        <v>28.03236978503871</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.82794648737669</v>
+        <v>62.9072297770709</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>74.91587429145906</v>
+        <v>64.2128149757728</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>57.03049630900811</v>
+        <v>50.83338035331478</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.65811328629935</v>
+        <v>42.25323193674134</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.98468953480609</v>
+        <v>46.56734202701919</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57.85253419876013</v>
+        <v>51.69628600146991</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.67171463311425</v>
+        <v>16.58663696342815</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>49.57914809702877</v>
+        <v>45.42827730548176</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>54.51141777585328</v>
+        <v>49.1314768811406</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.4200866904744</v>
+        <v>18.64480516144621</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.85172668674784</v>
+        <v>34.31484339570551</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.29345719910037</v>
+        <v>40.29961927233661</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3.008085090646826</v>
+        <v>10.09278307141954</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.71711095362762</v>
+        <v>37.38035147287786</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.32783930715499</v>
+        <v>39.99807407979339</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.008110774508825</v>
+        <v>13.89949639679568</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.19686514216902</v>
+        <v>55.2416444524461</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>70.46728335254576</v>
+        <v>60.93261460664843</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>70.27795705760552</v>
+        <v>60.68608193292559</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>76.3721533000768</v>
+        <v>65.54878896875043</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>82.83457884506814</v>
+        <v>70.07069589251337</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13.65270737650451</v>
+        <v>18.08051815526781</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>70.80801545504742</v>
+        <v>61.18829811201172</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>75.78081479031299</v>
+        <v>64.70316620295408</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>51.7898998536666</v>
+        <v>46.89412249618195</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.77906751152905</v>
+        <v>30.23727786532376</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.40769086128329</v>
+        <v>35.00091885432067</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.44011367709915</v>
+        <v>41.13124359118937</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.160788616514118</v>
+        <v>14.89148170272264</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.19311030790331</v>
+        <v>41.66230099629134</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50.11958658769262</v>
+        <v>45.65610526267388</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.04660745029298</v>
+        <v>16.07009620956233</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.91573855052937</v>
+        <v>32.51727183020462</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.33477148952622</v>
+        <v>41.07780283944117</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.959754011677258</v>
+        <v>10.10546586363128</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.38655824166446</v>
+        <v>34.38941994237334</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.57681986306775</v>
+        <v>41.3071083577396</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.638126216382783</v>
+        <v>10.73004519428822</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.01977827745532</v>
+        <v>49.89925367159397</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.14145184243068</v>
+        <v>59.79266379787844</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.13583663613577</v>
+        <v>53.69222450850437</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>73.5454022835146</v>
+        <v>63.22683670832923</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>81.49610437955187</v>
+        <v>69.51251999988484</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.402875741338075</v>
+        <v>15.05924278152738</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>66.92027791831585</v>
+        <v>58.18178725418412</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>74.77668877272792</v>
+        <v>64.24139164914203</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.29088812988326</v>
+        <v>26.10940876328863</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.27068472745448</v>
+        <v>27.24641478581155</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.39208156533252</v>
+        <v>29.6066951253147</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>14.26776280220757</v>
+        <v>23.18777435716217</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.06840632262902</v>
+        <v>27.06877705593009</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.46647556513566</v>
+        <v>27.33992513868124</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.62391554694535</v>
+        <v>24.77245123674152</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.65832091628141</v>
+        <v>31.07538653295137</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.84193512050786</v>
+        <v>31.71995615414846</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.80536554624934</v>
+        <v>27.27533788494777</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.81825733854754</v>
+        <v>28.66257967661749</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.36039696813243</v>
+        <v>28.98610715313445</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.93106054720042</v>
+        <v>27.88043525926325</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.48624482373846</v>
+        <v>27.63649880051262</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.12466742066871</v>
+        <v>31.275721819752</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.11283977308915</v>
+        <v>24.9195099493706</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.29161752189183</v>
+        <v>29.28923323249444</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.33711674207946</v>
+        <v>30.69606143934796</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.4624473323949</v>
+        <v>22.85035121916427</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.18330841849192</v>
+        <v>24.62351825776891</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>18.3460137838332</v>
+        <v>25.53530125613405</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.81003948692778</v>
+        <v>23.18929092567539</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.40995343202609</v>
+        <v>28.14018086047665</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21.80048499777731</v>
+        <v>26.99510498234405</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.28627461172575</v>
+        <v>29.47753633148488</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.52161132456136</v>
+        <v>30.09137241613126</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>14.41694540906129</v>
+        <v>23.2955411358636</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.41653113351524</v>
+        <v>30.18419233201836</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.55480224573176</v>
+        <v>30.62756558630324</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>17.27110634224579</v>
+        <v>24.56329763335744</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.28072380092153</v>
+        <v>34.62001811055318</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.12270463758997</v>
+        <v>34.38544156467577</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.53733397917038</v>
+        <v>34.30952244231579</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.26385507146507</v>
+        <v>36.63329328831681</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>40.93947961159391</v>
+        <v>36.55881463323031</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.3196075736327</v>
+        <v>29.49089966568829</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.99001545382286</v>
+        <v>34.83197249234779</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.36649370506634</v>
+        <v>35.34373533866489</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.82990407381358</v>
+        <v>26.7105929178603</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.39110204742493</v>
+        <v>31.34239724640464</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.30891972651956</v>
+        <v>32.40146819060394</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.21889705206048</v>
+        <v>22.90308930941352</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.18777341268746</v>
+        <v>30.35539110170949</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.40623804518306</v>
+        <v>32.08662907007584</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.89967665930229</v>
+        <v>23.53835088352011</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.02401908124499</v>
+        <v>36.22874933529139</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.98462301370157</v>
+        <v>24.93344597873261</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.82582912670683</v>
+        <v>27.69904484265166</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.55473603068689</v>
+        <v>29.47682431419801</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.83333042912229</v>
+        <v>22.95389823921674</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.95894517207364</v>
+        <v>29.93383173892749</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.89183111526683</v>
+        <v>30.48464054742646</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.89461146656205</v>
+        <v>24.46998830880552</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.53381928829933</v>
+        <v>34.38748530188057</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.21468644593882</v>
+        <v>35.52472656582287</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.1084378756992</v>
+        <v>35.25508262369559</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.56638363281697</v>
+        <v>36.77743830001153</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.49414547232713</v>
+        <v>37.65579139231791</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.99008986955473</v>
+        <v>25.91847129737734</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.32842655046403</v>
+        <v>32.20545954547003</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.86270451969731</v>
+        <v>33.70401669452823</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.9544085556789</v>
+        <v>24.82998251445036</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.76439061675537</v>
+        <v>30.10270622125923</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.83313386982459</v>
+        <v>32.16919471792783</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>12.70286789664569</v>
+        <v>22.77965999579467</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.75898828394495</v>
+        <v>28.35079703386421</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.07558082836928</v>
+        <v>32.00044583772205</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>14.67845814387159</v>
+        <v>23.54101713995009</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.40847086432225</v>
+        <v>33.10543083501884</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>16.49358421683102</v>
+        <v>24.32743135765294</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.97518909523027</v>
+        <v>26.39542638998456</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.85845472171998</v>
+        <v>28.71499003313889</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.56047986550619</v>
+        <v>22.98284189255838</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.51889020582734</v>
+        <v>29.28557595107949</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.6412911024649</v>
+        <v>30.79329547382277</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.68906241018941</v>
+        <v>23.37927291409552</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.96112868222401</v>
+        <v>32.61335429447885</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.4308051431837</v>
+        <v>34.77821622598463</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.7495873356356</v>
+        <v>32.66624444199164</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.82347383402339</v>
+        <v>34.11322948931419</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.36584585877278</v>
+        <v>35.3876501650111</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.1794479083264</v>
+        <v>25.13254205780863</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.18922537416849</v>
+        <v>30.32398219094616</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.53493391986933</v>
+        <v>33.68218213922512</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>15.33790686951503</v>
+        <v>24.06498700532543</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.14191350846084</v>
+        <v>28.83454215828136</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.203413024618</v>
+        <v>31.37671588123351</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.07773563208904</v>
+        <v>22.83844837283605</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.38768741996828</v>
+        <v>27.61620812627252</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.24127599644805</v>
+        <v>31.67127041382944</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.87161064509712</v>
+        <v>23.07318618801237</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.60167422103695</v>
+        <v>31.27122169118325</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.47958082966861</v>
+        <v>29.02208900443772</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.53233886694657</v>
+        <v>27.94455435649607</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.3236159656509</v>
+        <v>32.28124268912537</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>34.64897869622661</v>
+        <v>33.3418499106816</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.01267919398935</v>
+        <v>24.37491243466968</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.20366319718338</v>
+        <v>26.85681916574698</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.33213300355115</v>
+        <v>28.97039137647712</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.47580800517388</v>
+        <v>26.2538750426129</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.90103359104514</v>
+        <v>29.93242048728598</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.4482044357495</v>
+        <v>32.22988226619641</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.31629275197271</v>
+        <v>22.80252497209207</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.10687858282819</v>
+        <v>24.50683787322801</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.44164396857739</v>
+        <v>26.15509069660901</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.29800160604148</v>
+        <v>23.30163460609804</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.87712059343681</v>
+        <v>28.62356989992224</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.42158609067938</v>
+        <v>33.03506992582096</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.00204752339834</v>
+        <v>29.19978274065757</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.16995865752985</v>
+        <v>33.94830286781519</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.20524956628631</v>
+        <v>35.00238394595183</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.86987615625725</v>
+        <v>24.59039813586446</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.60197622265492</v>
+        <v>28.12032762153355</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.60337885059963</v>
+        <v>30.75996963102934</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>45.04560624562856</v>
+        <v>38.22043421493117</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.86737868333861</v>
+        <v>36.5068129542709</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.24051876456562</v>
+        <v>39.48432616975485</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>47.8811802182461</v>
+        <v>39.63669922832002</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.69312612579818</v>
+        <v>27.12895776272505</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>45.47107360667738</v>
+        <v>38.62330896914803</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>47.47836275741223</v>
+        <v>39.42339909532471</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.08803992458016</v>
+        <v>28.9586225583468</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.15034715910845</v>
+        <v>33.36300344807736</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.21913697905294</v>
+        <v>35.21266805472185</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.32417952736397</v>
+        <v>23.32206586788671</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.37306295913769</v>
+        <v>33.26841598968282</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.29902396220598</v>
+        <v>34.93998425653496</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>18.76908567114724</v>
+        <v>25.14832974501959</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>50.45950620858466</v>
+        <v>41.00291488343197</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>52.82159373143648</v>
+        <v>42.05991529436518</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.69778178562385</v>
+        <v>43.14433682365272</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>58.06445039968241</v>
+        <v>44.64648659116225</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>60.48282136990331</v>
+        <v>45.87737745539746</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.80559323034803</v>
+        <v>31.5849778166561</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>56.40248383957194</v>
+        <v>43.7832784032164</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>58.50400835725397</v>
+        <v>44.6057462296067</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46.03763037941806</v>
+        <v>38.81902303823712</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.65422134175142</v>
+        <v>33.37357923298278</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>39.54241825326524</v>
+        <v>36.0492165735664</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>47.88353522417722</v>
+        <v>39.7756608903134</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.2336769014448</v>
+        <v>25.11356228982497</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>40.38566795949086</v>
+        <v>36.32899149917982</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.86364476498886</v>
+        <v>38.66253434485404</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.86620190679972</v>
+        <v>26.49839103867345</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.63025998488865</v>
+        <v>32.29483721721637</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.06391520999065</v>
+        <v>34.74370051691475</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.34598522635163</v>
+        <v>22.95646692341137</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.88080182711961</v>
+        <v>32.52745083342457</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.75112413208993</v>
+        <v>34.6325752308034</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.9545482777764</v>
+        <v>24.53299738371254</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>46.27723995386131</v>
+        <v>39.17961524824936</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>53.7798334873175</v>
+        <v>42.67397389664768</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>50.99157868734902</v>
+        <v>41.58577138162775</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>55.88654066581969</v>
+        <v>43.90611676028272</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61.85343519227052</v>
+        <v>46.66723076624327</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.40312917219109</v>
+        <v>27.11801192698045</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.75547215480279</v>
+        <v>42.15903657229235</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.53828589789079</v>
+        <v>44.74158780524476</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.37885584774988</v>
+        <v>37.60232141834047</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.28291685850174</v>
+        <v>29.04689888108529</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.51052888352757</v>
+        <v>31.45376645501796</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.68415799347612</v>
+        <v>35.20546311148642</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.92483366874744</v>
+        <v>24.29361421046634</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.80290863851506</v>
+        <v>34.21339983432539</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>42.88746423684024</v>
+        <v>37.30318718235493</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.58109227686196</v>
+        <v>25.36470814474136</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.25839187936906</v>
+        <v>31.62489292090932</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.55398325020455</v>
+        <v>35.03219447976387</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.38290034398294</v>
+        <v>22.92618113207577</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.76622083681177</v>
+        <v>31.5273755973085</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.12986781707369</v>
+        <v>35.00099458120821</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.59032364692044</v>
+        <v>23.33375518423706</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.12022545870862</v>
+        <v>37.06573670335676</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.22829873655084</v>
+        <v>42.27276592538208</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>43.48242139659939</v>
+        <v>37.8689286004686</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.47820220633049</v>
+        <v>41.35617414479218</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.57260042900218</v>
+        <v>45.64576342678799</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>17.65832004567833</v>
+        <v>24.96922143262404</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>46.3904688567586</v>
+        <v>39.27568127985963</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>56.42539966316837</v>
+        <v>43.99137507245498</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.24766523101471</v>
+        <v>25.10944018005786</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.1849023815785</v>
+        <v>27.73046068192626</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.67950956469977</v>
+        <v>30.01367917921492</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.22441418243756</v>
+        <v>21.89254887651668</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.19943160198403</v>
+        <v>25.83982414813801</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.29103359574686</v>
+        <v>26.57620755512128</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.73031025204803</v>
+        <v>23.16814907810302</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.80595190713968</v>
+        <v>31.23545994674012</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.30624060250902</v>
+        <v>32.56773772672756</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.46391489546702</v>
+        <v>28.21465625988181</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.30347316474553</v>
+        <v>30.16426101961748</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.52604704624784</v>
+        <v>30.80199816237191</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.54416583654487</v>
+        <v>25.14475029963976</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.34914128094399</v>
+        <v>27.19820956235966</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.86389197633279</v>
+        <v>30.23831672522528</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.67488434600989</v>
+        <v>24.59767963768601</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.26884528533523</v>
+        <v>29.05843977541932</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.04456622424879</v>
+        <v>30.45126730250969</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.72722571668772</v>
+        <v>21.64694183006479</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.77335721419757</v>
+        <v>23.83642298842978</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.7214404680892</v>
+        <v>25.26577522124729</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.9477791502805</v>
+        <v>21.96193705032324</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.09481686018019</v>
+        <v>28.23287580040328</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.30288965232542</v>
+        <v>25.89451088304281</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.086544611423</v>
+        <v>30.58946988828047</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.81540637351803</v>
+        <v>30.46519382765731</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.60878559646076</v>
+        <v>22.13621767382246</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.65422413447223</v>
+        <v>30.69146238566501</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.19804307833649</v>
+        <v>30.98666314057951</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.55197319274432</v>
+        <v>23.18088067665748</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.72658661343618</v>
+        <v>35.56827930233005</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.18926496784509</v>
+        <v>35.7373963162144</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.56941128618992</v>
+        <v>36.111890915045</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.91782607449004</v>
+        <v>37.88541868149174</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.95129194195558</v>
+        <v>38.09582851153159</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.03009882000432</v>
+        <v>26.33440266215315</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.11766873432305</v>
+        <v>36.67822751253205</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.78574222322858</v>
+        <v>37.45514769234453</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.46035855953119</v>
+        <v>25.56977261013585</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.88783784575327</v>
+        <v>31.46274293720107</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.39986291755528</v>
+        <v>32.42861561447427</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>12.38102569852816</v>
+        <v>21.6992146658308</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.63169129289397</v>
+        <v>30.42256396307935</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.52553563728651</v>
+        <v>31.75079569977815</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>13.64510298917602</v>
+        <v>22.12812139367117</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>40.81370254024989</v>
+        <v>36.78464977097097</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.1854071024473</v>
+        <v>23.43371461904766</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.08442596774292</v>
+        <v>27.8670489488047</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.24052297207378</v>
+        <v>29.48073707048258</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.12217708565856</v>
+        <v>21.79015607856493</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.35703329702206</v>
+        <v>30.03244770964188</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.64797545009488</v>
+        <v>30.80679479071889</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.47317179801556</v>
+        <v>23.62565225758527</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.75723146185076</v>
+        <v>35.23876890604234</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.97436769655015</v>
+        <v>36.79715120496304</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.08959874575238</v>
+        <v>37.05336935350408</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.17586472310504</v>
+        <v>38.61734617331093</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>43.64688780539269</v>
+        <v>38.8333686730649</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.12515052468305</v>
+        <v>24.01246847139294</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.79932340160588</v>
+        <v>32.9012228677057</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.76692948569769</v>
+        <v>33.80817108349283</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.87758761652326</v>
+        <v>23.22410003690565</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.81897313833429</v>
+        <v>30.45754297120718</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.84368150541519</v>
+        <v>32.11570662218292</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>11.9894214472204</v>
+        <v>21.60955678335964</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.8530298544228</v>
+        <v>28.14257064194135</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.20659239409351</v>
+        <v>32.16888985909522</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.76763660033368</v>
+        <v>22.46532918582547</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.66553800676834</v>
+        <v>33.96379540416866</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.58955695254386</v>
+        <v>23.17794733080545</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.14464424096306</v>
+        <v>26.94389879990043</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.51448418496969</v>
+        <v>29.28696170985107</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.87637324441579</v>
+        <v>21.82628282486711</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.83791502061013</v>
+        <v>29.33054944558013</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.32890570750939</v>
+        <v>31.70373184855097</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.78475271457459</v>
+        <v>22.18414058947246</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.6623263874904</v>
+        <v>33.71435193115639</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.96946429881856</v>
+        <v>36.39749854926448</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.14673052061816</v>
+        <v>34.10757435071636</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>37.49077056616845</v>
+        <v>35.80419784642257</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>39.89948849895465</v>
+        <v>37.10801030837036</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.82755180765371</v>
+        <v>23.86453817710352</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.80043320684518</v>
+        <v>31.77680644505417</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.45398672682374</v>
+        <v>34.26642257553523</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>14.16083292240091</v>
+        <v>22.67356905394323</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.1877374656863</v>
+        <v>28.59748409106005</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.35925873395347</v>
+        <v>31.44996222555586</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.32100193157041</v>
+        <v>21.64565283674292</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.77801402492011</v>
+        <v>26.9643304620099</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.35302130895463</v>
+        <v>31.64975650057208</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.07875429372459</v>
+        <v>21.86569377083625</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.11612537814952</v>
+        <v>30.96140271951398</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.32919759361513</v>
+        <v>29.13048849854324</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.11245473858049</v>
+        <v>27.90069300464397</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.35674685808851</v>
+        <v>32.87145541746064</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.50217112137658</v>
+        <v>33.43203238929433</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.56799024778308</v>
+        <v>23.17238239800886</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.41294214076412</v>
+        <v>26.56574333832807</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.94301649839763</v>
+        <v>29.09331249094328</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.91415452928848</v>
+        <v>24.99497062907228</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.84823361987606</v>
+        <v>29.76677617143726</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.65998557368145</v>
+        <v>32.4031106703636</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.55469192790292</v>
+        <v>21.61907065929461</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>15.39012050448267</v>
+        <v>23.52099889977795</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.17602241264212</v>
+        <v>25.67040145411733</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>13.14244506940337</v>
+        <v>21.98084816364032</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.92083430640983</v>
+        <v>28.03378073433545</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.15298604494181</v>
+        <v>33.85785226206442</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.69166202351131</v>
+        <v>28.88852386997769</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.24644124179945</v>
+        <v>34.73687884623239</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.75114101872605</v>
+        <v>36.64550625049879</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.87444931679974</v>
+        <v>22.97821228263237</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.03243656700153</v>
+        <v>27.60320389546218</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.64213201487513</v>
+        <v>31.40278366356007</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.83494232093044</v>
+        <v>39.34072956167982</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>42.55929040717748</v>
+        <v>37.72666282668736</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>48.23060368227567</v>
+        <v>40.54401152103163</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>47.36686638429843</v>
+        <v>40.18689653091923</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.22918367758315</v>
+        <v>25.07497538848579</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>45.3581141719697</v>
+        <v>39.10014661248078</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>48.18793157006147</v>
+        <v>40.48884797408012</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.78471454543496</v>
+        <v>27.62777967404036</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>35.84772804733124</v>
+        <v>33.75988415311284</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.81434725875735</v>
+        <v>35.3907303883782</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.29376616537539</v>
+        <v>22.03920694978437</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.65942666826575</v>
+        <v>34.06421692899046</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>37.78089382993932</v>
+        <v>34.95401879319189</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.64594721837127</v>
+        <v>23.47350655818827</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>51.13622912899799</v>
+        <v>42.14454001329495</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>52.87215246521578</v>
+        <v>43.1070688602387</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.07096757138189</v>
+        <v>45.26754502371561</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>59.32918762766452</v>
+        <v>46.36889192263857</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>61.68143701288055</v>
+        <v>47.68884482702078</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.1245413210825</v>
+        <v>28.8586376552491</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>56.78075110228812</v>
+        <v>45.12614190763773</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>58.77070715723861</v>
+        <v>45.92904622754538</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.52096820944389</v>
+        <v>39.56749501108611</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>35.93369935828036</v>
+        <v>34.64442542806749</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>41.21564225915953</v>
+        <v>37.22363149837158</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.61668406447229</v>
+        <v>40.79730143529459</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>14.21552897134901</v>
+        <v>23.02155354098378</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.99440631756576</v>
+        <v>36.91982585070269</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>46.2330211555106</v>
+        <v>39.32264177739335</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.35617287884257</v>
+        <v>24.81146638864254</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.92947701467581</v>
+        <v>32.4677223904015</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.541748673029</v>
+        <v>34.77299169513453</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.44583553969574</v>
+        <v>21.74026343670031</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.82488566159788</v>
+        <v>32.1585597396877</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.6383873152071</v>
+        <v>34.85613954376592</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.6395749870268</v>
+        <v>23.31798505694357</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.67727357518815</v>
+        <v>39.57994867358622</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.71809789801627</v>
+        <v>43.68459208745122</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>52.23830296141436</v>
+        <v>43.00377507906732</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>57.03539813032006</v>
+        <v>45.56516843874731</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>62.95777570862889</v>
+        <v>48.5745068162329</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>18.45212222434553</v>
+        <v>24.80131360216896</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>52.39063218940251</v>
+        <v>42.90966833717604</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>58.26267616944456</v>
+        <v>45.75420337973732</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.30851420892328</v>
+        <v>38.43523145162327</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.66820568605743</v>
+        <v>28.98663344847873</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.43751547110801</v>
+        <v>31.80979716467661</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.32685125110735</v>
+        <v>35.74096191353483</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.96509001172666</v>
+        <v>22.64529173384582</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.17022073729058</v>
+        <v>35.05716117094039</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.92072527345636</v>
+        <v>38.17826019694346</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.658630964934</v>
+        <v>23.8110505213494</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.36715876047425</v>
+        <v>31.2312207305125</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.14567696712514</v>
+        <v>35.11848367881743</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.50765051531117</v>
+        <v>21.72625535929441</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.4146170252233</v>
+        <v>30.47885435318089</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>38.2790631650591</v>
+        <v>35.42435375837344</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>13.60115551366536</v>
+        <v>22.1670013267758</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.02331597860643</v>
+        <v>36.20770495623017</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>53.35135222331757</v>
+        <v>43.41757257650947</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.4186396953457</v>
+        <v>37.48338349179808</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.75625422315063</v>
+        <v>42.47353967467926</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.21866078185069</v>
+        <v>47.74093052361281</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.47826000168886</v>
+        <v>23.35114693702412</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>45.24998919018569</v>
+        <v>39.55073276053361</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>56.35862801593389</v>
+        <v>45.03419915019877</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.83540395969949</v>
+        <v>17.0621208583713</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.07303624993989</v>
+        <v>21.79111236572094</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.80666494859116</v>
+        <v>28.8589451516219</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.599128433029048</v>
+        <v>11.13598753670606</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.35491898937867</v>
+        <v>19.38375037741577</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.67002240137112</v>
+        <v>21.08731179541626</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.10091847283482</v>
+        <v>12.94380833373631</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.46930064440829</v>
+        <v>30.97999434890237</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.91489590981271</v>
+        <v>34.28079426770127</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.62835360827371</v>
+        <v>23.85046926093498</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.08901008215068</v>
+        <v>27.78635144558737</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.36479942639505</v>
+        <v>28.46876900424519</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.86958752540669</v>
+        <v>17.78204149000656</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.67547750292189</v>
+        <v>21.85313209467239</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.30012658497539</v>
+        <v>29.51089406466464</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.25047445165404</v>
+        <v>17.82368985946792</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.45103451605273</v>
+        <v>27.47881683995841</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.62111793445549</v>
+        <v>29.54886666677277</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.110415139559933</v>
+        <v>11.45646589746979</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.73405863252685</v>
+        <v>16.60520797383888</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.83853372390849</v>
+        <v>20.21217990881193</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.457883065214343</v>
+        <v>11.96180327925614</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.87714820128927</v>
+        <v>26.21043330050738</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.9110850257611</v>
+        <v>20.69900552316748</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.21267570149696</v>
+        <v>31.29352322610369</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.60564000654705</v>
+        <v>31.06836602931218</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.401689357019997</v>
+        <v>11.81821756441982</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.84235547033111</v>
+        <v>33.23348087863653</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.35473945287488</v>
+        <v>32.97590055033733</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.756061844971381</v>
+        <v>13.51782968952602</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>48.44510037667794</v>
+        <v>43.96760279178228</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>48.32996831758253</v>
+        <v>43.72189122003733</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>48.361691595584</v>
+        <v>43.34294363904326</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>54.24281803010786</v>
+        <v>47.90341098393229</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>53.40737270029233</v>
+        <v>47.62293287223596</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.69000769511498</v>
+        <v>22.04731025246297</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>49.17182524333668</v>
+        <v>44.6778105067533</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>52.67118002217207</v>
+        <v>46.94672687531862</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.34093287756686</v>
+        <v>21.05201111424242</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.76415472165133</v>
+        <v>33.25813949916824</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.04419233394287</v>
+        <v>34.01722988411599</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.802320408450488</v>
+        <v>11.58791092682035</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.76215067753782</v>
+        <v>31.69615001778905</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.18708889531175</v>
+        <v>33.0180537647713</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.081702827691082</v>
+        <v>12.32603042723731</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>49.65533997684319</v>
+        <v>44.54859277773216</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>7.179992074968002</v>
+        <v>13.9064814254276</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.43972225169494</v>
+        <v>24.9790793892853</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.54381303524282</v>
+        <v>28.89703513360859</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>3.796564255116298</v>
+        <v>11.29547269792446</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.07861862203816</v>
+        <v>31.4045154143965</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.97361212745343</v>
+        <v>32.76396572130678</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>8.415597564783287</v>
+        <v>15.04496141315491</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.41722358173234</v>
+        <v>43.50763944667595</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.30027891148058</v>
+        <v>46.08077897730625</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>53.05635268611146</v>
+        <v>47.45216108022834</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>57.68875323237128</v>
+        <v>50.87855551394561</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>57.99905862222016</v>
+        <v>50.56069756837965</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.233315831986065</v>
+        <v>14.89310791727714</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.05383472004185</v>
+        <v>35.76265955776118</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>40.32265027228635</v>
+        <v>38.12648723974571</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.34017278332931</v>
+        <v>16.13803264057529</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.26641048974777</v>
+        <v>31.99570970322316</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>34.86790046673021</v>
+        <v>33.63721298411111</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.812729977676899</v>
+        <v>11.41982340547189</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.35267539174479</v>
+        <v>28.55924759692822</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.23563798344046</v>
+        <v>34.45447940562411</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.597748513782843</v>
+        <v>13.4240388182913</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>46.21896816797209</v>
+        <v>42.28076003142672</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.943401854465264</v>
+        <v>13.09488712872249</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.03371091666578</v>
+        <v>22.15321819852589</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.43139532681412</v>
+        <v>27.79364401176325</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>3.626294335900944</v>
+        <v>11.3205616945559</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.90799035812223</v>
+        <v>28.36732610710012</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>35.71639719218669</v>
+        <v>34.6827729006386</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.263663655886102</v>
+        <v>11.7315689512124</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>41.01060142113516</v>
+        <v>38.79376762361042</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>49.29090695972209</v>
+        <v>44.75605786837043</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.99404157585693</v>
+        <v>40.14029986294503</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.96752359136602</v>
+        <v>44.50942195281955</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>52.86394296651999</v>
+        <v>47.23825198718333</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.271017648188455</v>
+        <v>14.28653242504922</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.13436435886114</v>
+        <v>31.49828780260095</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>40.46452188955441</v>
+        <v>38.07671733485268</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.771955032914356</v>
+        <v>14.22926338513005</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.31313737609775</v>
+        <v>27.9673188117341</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.52779687377807</v>
+        <v>32.17960828426806</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.923367960734108</v>
+        <v>11.4408481835796</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.44889405760341</v>
+        <v>24.88830230383049</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.63785949889636</v>
+        <v>32.75255729029412</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>4.182061154555001</v>
+        <v>11.52044363545685</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.24167057496076</v>
+        <v>34.29025635415363</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.05840752483105</v>
+        <v>29.7913743001736</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.57335800666058</v>
+        <v>25.1339070536965</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.12609641747355</v>
+        <v>35.85377829316529</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.45555667942959</v>
+        <v>36.9711666130157</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.076412076731422</v>
+        <v>15.01481813763242</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.95071644379481</v>
+        <v>23.86352759704643</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.00193538004964</v>
+        <v>29.48022179285858</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.04087357588957</v>
+        <v>18.04288542080588</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.19830982112325</v>
+        <v>27.85818402932812</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.23211990765887</v>
+        <v>34.2421756905353</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.715656658661175</v>
+        <v>11.40120190359031</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.18117136420452</v>
+        <v>15.28584974679048</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.37346277780793</v>
+        <v>19.16592439748462</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>3.969516127513021</v>
+        <v>11.53801135390982</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.60834397166329</v>
+        <v>24.52872928233003</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.68634780342766</v>
+        <v>36.74566470427183</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.86396773567854</v>
+        <v>26.99393022151035</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.45196460188379</v>
+        <v>40.45410534859138</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.87637044616409</v>
+        <v>44.51001764496476</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.095516435191058</v>
+        <v>13.88437168954385</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.25308770531182</v>
+        <v>23.57013858730377</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.2814724593448</v>
+        <v>32.25383981820733</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.46455162747078</v>
+        <v>48.67829567762269</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>53.74113047963452</v>
+        <v>47.86680667087577</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.32885401735325</v>
+        <v>51.71288026883108</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.1304905993033</v>
+        <v>51.27863829794626</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.89450963835665</v>
+        <v>19.98926907409535</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>55.36695327732474</v>
+        <v>49.32229340574106</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>57.90573928930529</v>
+        <v>51.06992150822807</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.43025856071543</v>
+        <v>23.34464337042869</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.47680773495763</v>
+        <v>36.19678742291102</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.512890643938</v>
+        <v>39.99114826456422</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>4.788535439288044</v>
+        <v>12.02131131900657</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.33945090000715</v>
+        <v>39.25500139934468</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.95271995340413</v>
+        <v>39.5401535854526</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>7.089403964166422</v>
+        <v>13.6402984873395</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>62.98008541541665</v>
+        <v>54.72083556635828</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>66.28933054081341</v>
+        <v>57.02541670234475</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.94015013812584</v>
+        <v>61.20292333910089</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.81454975985969</v>
+        <v>63.7268193691181</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>78.82901438788707</v>
+        <v>65.93671066502681</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.26265848230721</v>
+        <v>24.70619637340922</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>71.19176252054322</v>
+        <v>60.70045467657318</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>74.04322452442793</v>
+        <v>62.69039817996077</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>57.64347379595164</v>
+        <v>50.6677549606306</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.94275915739343</v>
+        <v>42.81340836139489</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>52.69467857999659</v>
+        <v>47.19242694295933</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>59.72484980265617</v>
+        <v>52.47184425033009</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.842819200359802</v>
+        <v>15.79250338149333</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>51.1308497425411</v>
+        <v>45.77523282013654</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>55.88570809405137</v>
+        <v>49.00391465619762</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>12.63895954977598</v>
+        <v>17.8027845498503</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.07836876242615</v>
+        <v>34.23984042865933</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.23093474934616</v>
+        <v>39.36733025431147</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>4.04876798043794</v>
+        <v>11.56815473288394</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.96806770061733</v>
+        <v>34.86503132178026</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.56508673916182</v>
+        <v>39.26060795515943</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>8.041808940856129</v>
+        <v>14.54587499494309</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.5878348449748</v>
+        <v>50.51484563034806</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>68.67759287641063</v>
+        <v>58.87448408278289</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>68.50047260794145</v>
+        <v>58.5872143778506</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>73.96524799740941</v>
+        <v>62.73533682330766</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>81.57428211002912</v>
+        <v>68.26258954911592</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>11.73842500702925</v>
+        <v>17.35403012494377</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>65.2542882687338</v>
+        <v>56.05846985187094</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>74.20379662919196</v>
+        <v>62.858512881034</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>53.06554362326927</v>
+        <v>47.08284566357609</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.99366232056807</v>
+        <v>29.02093005386817</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.23533657570434</v>
+        <v>34.93160252388364</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.92580521136637</v>
+        <v>42.34896070164149</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>8.03109036689802</v>
+        <v>14.45560868775968</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.97209367158236</v>
+        <v>42.30768650955669</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.2677026372367</v>
+        <v>46.35871299182163</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>9.861807932787219</v>
+        <v>15.714011212469</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.53632578758325</v>
+        <v>30.92416240583755</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.74478352582129</v>
+        <v>39.36603977708409</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.804293105059784</v>
+        <v>11.60246917311177</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.4484786070305</v>
+        <v>30.1417002622575</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.21730741206679</v>
+        <v>40.88898259382056</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.913411399501289</v>
+        <v>11.91816506181744</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.96997833596809</v>
+        <v>41.60273091661665</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>66.92478450742412</v>
+        <v>57.55800989898093</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.68974354874305</v>
+        <v>44.99431118178028</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>63.58042721181177</v>
+        <v>55.25966182793577</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>79.97279528006179</v>
+        <v>67.12346256567686</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>7.992810273787462</v>
+        <v>14.9135633399107</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.09720028347762</v>
+        <v>48.39664493505813</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>70.56691210391678</v>
+        <v>59.93704128952731</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.28630644536419</v>
+        <v>24.56034797765608</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.89852794936866</v>
+        <v>25.70718792021555</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.20192014928045</v>
+        <v>29.7720996504579</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.11645273120053</v>
+        <v>20.67694443108659</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.42449528113775</v>
+        <v>26.45111516298054</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.99515791180896</v>
+        <v>27.35475365621463</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.34467143546674</v>
+        <v>22.43987737097223</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>33.60078055348942</v>
+        <v>32.74434785363504</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>35.28378377857808</v>
+        <v>33.73075186236188</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.27403384058894</v>
+        <v>26.05525044457161</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.38792253601823</v>
+        <v>27.72123758011124</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.60896601727401</v>
+        <v>28.03867320486992</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.82882258778517</v>
+        <v>27.02118798308242</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.1925147350821</v>
+        <v>26.67570746483254</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.48117675879423</v>
+        <v>32.33862864659008</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.76726478114098</v>
+        <v>23.64122299885713</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.26197675187545</v>
+        <v>28.84313151609208</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.40884797244504</v>
+        <v>31.12630074817623</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.65564669428252</v>
+        <v>21.23548322226434</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.46984112812485</v>
+        <v>23.79611607514178</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.89112115831339</v>
+        <v>25.05255633919459</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.60929409776682</v>
+        <v>20.67517143451025</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.31327638702377</v>
+        <v>27.25332413131577</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.81037145836217</v>
+        <v>26.61364219217664</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.61812939760926</v>
+        <v>30.01793063267218</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.02789188369458</v>
+        <v>30.6854605541694</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.22550111201252</v>
+        <v>20.81247273474888</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.03792402034063</v>
+        <v>31.69558757004937</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.58076133952076</v>
+        <v>32.01959846370777</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.08612598268573</v>
+        <v>22.29955625777801</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.77095930818464</v>
+        <v>37.27738237239622</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.18578292588747</v>
+        <v>36.81791057439431</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.19025373139887</v>
+        <v>36.70069071417407</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.89205153677333</v>
+        <v>39.43170100622173</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.73510275828065</v>
+        <v>39.51116336507844</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.91038149219228</v>
+        <v>30.50919246593494</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>40.75546194221157</v>
+        <v>37.04936269214652</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.28233265421661</v>
+        <v>38.19933142304966</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.7789715053455</v>
+        <v>26.21187889163588</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.52858265356798</v>
+        <v>31.8060904153744</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.84844381618181</v>
+        <v>32.89063754242945</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.3187145206174</v>
+        <v>21.36313672095816</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.69488710388764</v>
+        <v>31.1201348463676</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.03351679186741</v>
+        <v>33.05893054288651</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.72688700751193</v>
+        <v>21.21548479253077</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.51090801136944</v>
+        <v>38.02377583803591</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.02807773408246</v>
+        <v>22.88891367983156</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.17642789960623</v>
+        <v>27.5864208426745</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.77088554564445</v>
+        <v>29.97904797538931</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>11.47501652625919</v>
+        <v>20.37493829757877</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.94009505313907</v>
+        <v>31.19980045661112</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.47463699163124</v>
+        <v>32.13938865115047</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.02909771946694</v>
+        <v>22.48486047604871</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.65818645282538</v>
+        <v>37.50603512054129</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.60826420032366</v>
+        <v>38.8374731990564</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.43103667118351</v>
+        <v>38.85079662176109</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.81539769800023</v>
+        <v>40.67065947352771</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.65992969999697</v>
+        <v>41.68249597999939</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.01188355593909</v>
+        <v>24.42355026800425</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.95589143167688</v>
+        <v>33.56028340492211</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.09630840275008</v>
+        <v>35.85066365015545</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.24432663190155</v>
+        <v>23.6786716575903</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.69818432263159</v>
+        <v>30.71583206168714</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.4212850800002</v>
+        <v>32.62240236157748</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.03022666558333</v>
+        <v>21.2023395171695</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.86120843468205</v>
+        <v>29.01067055773653</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.36854728290844</v>
+        <v>33.17976942678709</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.10112183554021</v>
+        <v>21.34404831645885</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.39464218254334</v>
+        <v>35.60115021359105</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.91480093582825</v>
+        <v>21.89018374809494</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>20.04629182049481</v>
+        <v>25.52705478965187</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.52251769091104</v>
+        <v>28.83857475791616</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.39525049943736</v>
+        <v>20.45052262830312</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.62938601512322</v>
+        <v>30.4212791519458</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.61932271043118</v>
+        <v>32.65226290616121</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.07979496363419</v>
+        <v>20.75714807351806</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.13187296969754</v>
+        <v>35.30716989996694</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.63355522343696</v>
+        <v>37.82010613227299</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.38693493378462</v>
+        <v>35.43419539745756</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>41.52909580867384</v>
+        <v>37.14923703494949</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>44.92525609755864</v>
+        <v>39.14065231572157</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.63912323210591</v>
+        <v>23.42346814134132</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.14894990088133</v>
+        <v>30.53740839130721</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.4501812882309</v>
+        <v>36.02084476453004</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.67305287066886</v>
+        <v>22.34487479168715</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.45298971155667</v>
+        <v>28.95497021741433</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.99216214451592</v>
+        <v>31.83267977114427</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.32654712872492</v>
+        <v>21.28715112555945</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.53927511512147</v>
+        <v>28.22406278408753</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.05148940507086</v>
+        <v>32.97871287264664</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.42848084261194</v>
+        <v>20.40844263848206</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.63001242124185</v>
+        <v>32.97188872779762</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.77378708698076</v>
+        <v>28.59358616850342</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.1958089630443</v>
+        <v>27.09893068484338</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.35699714209566</v>
+        <v>32.93429034599415</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.67006269843419</v>
+        <v>34.21707403575191</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.62080718122335</v>
+        <v>22.33176011896781</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.94495528145335</v>
+        <v>25.84209583458724</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.63758984464091</v>
+        <v>28.51697795878952</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.79863464505207</v>
+        <v>24.55488301082975</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.66244867297104</v>
+        <v>28.97285145308381</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.97067269945229</v>
+        <v>32.51653495521763</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.51159346318963</v>
+        <v>21.20770804266864</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.98896783104431</v>
+        <v>23.35712764380685</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.72609916111062</v>
+        <v>25.44004080774631</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.01992393725085</v>
+        <v>20.75475593360669</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.47599400812557</v>
+        <v>27.61365958077874</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.03060722882263</v>
+        <v>33.91507471343769</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.54981119433826</v>
+        <v>28.35309231015611</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.93149870737285</v>
+        <v>35.45190723335992</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.98850614231107</v>
+        <v>37.22995247195898</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>14.65894606670323</v>
+        <v>22.23646235453268</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.07240853997048</v>
+        <v>27.02928391817307</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.33118206423826</v>
+        <v>30.95935839870732</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.30144243373989</v>
+        <v>40.59481050200318</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.26096489971082</v>
+        <v>38.98337354825232</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>50.54664137002303</v>
+        <v>42.49174042809983</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.86892262150511</v>
+        <v>42.71197261345976</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.0068511236491</v>
+        <v>26.82690814267423</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.81092380567041</v>
+        <v>41.01396853351589</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>49.95465303732664</v>
+        <v>42.1275098677314</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.27916858480405</v>
+        <v>28.59453505462476</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.70279661948996</v>
+        <v>33.97142463615467</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.02539234486213</v>
+        <v>36.2744695271715</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.35182378016007</v>
+        <v>21.81254561995533</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.65879641725419</v>
+        <v>34.77500192557769</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>40.16731621266462</v>
+        <v>36.40745293051924</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>15.60608235708528</v>
+        <v>22.61646198431953</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.07508652779933</v>
+        <v>43.8111525907581</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.24155375998546</v>
+        <v>45.52453188412413</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.34559035993317</v>
+        <v>47.34120131850786</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>63.10013385736123</v>
+        <v>49.45002379169287</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.71754083973711</v>
+        <v>50.97753873532345</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.58722240782744</v>
+        <v>31.41871577754898</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.02562777519555</v>
+        <v>47.6671869015356</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>62.21450263705735</v>
+        <v>48.76754215920373</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.44414860201934</v>
+        <v>41.72246845694244</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.19058715893492</v>
+        <v>35.60116286850995</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.36596633909087</v>
+        <v>38.56899992476847</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.7774754742002</v>
+        <v>42.78558292566312</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>18.03432739279106</v>
+        <v>24.20241016858223</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.94969423691293</v>
+        <v>38.78112885138998</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>48.47716805597884</v>
+        <v>41.16924871982615</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.41438854244318</v>
+        <v>25.34374799455084</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.43896888695435</v>
+        <v>32.77238321661169</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.13127886152994</v>
+        <v>35.87137732517043</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.5517302426469</v>
+        <v>21.41833633520726</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.42028765739596</v>
+        <v>33.6273279481394</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>39.97811532363679</v>
+        <v>36.20669182932322</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.3016554210653</v>
+        <v>22.47835611998388</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>50.35335990263879</v>
+        <v>42.2434882948864</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>58.26738388629786</v>
+        <v>46.68921991836868</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>56.80786732038679</v>
+        <v>45.9077031449855</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.12205077301994</v>
+        <v>48.37606532511464</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.59596610403054</v>
+        <v>51.99307383398065</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.99811614517057</v>
+        <v>26.20881531223274</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.92219251482351</v>
+        <v>45.40173107248026</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>62.35161112655297</v>
+        <v>48.91914597398409</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.13265562391171</v>
+        <v>39.99094253898011</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.67147628251731</v>
+        <v>29.18058329907167</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.95519734963788</v>
+        <v>32.02663835983444</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.02201033724027</v>
+        <v>36.61563802783628</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.45883487216037</v>
+        <v>22.74675777027795</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.78467271048162</v>
+        <v>36.56154362703634</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.95837962130608</v>
+        <v>39.81411229753407</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.61731553835897</v>
+        <v>23.86611445424217</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.80708383790669</v>
+        <v>31.87997887543505</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.97508276320777</v>
+        <v>36.32774422951697</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.72329846050098</v>
+        <v>21.49408687549926</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.12439761598976</v>
+        <v>32.42305517369455</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.44241574238869</v>
+        <v>37.10786245894514</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>11.84629445994259</v>
+        <v>20.72335181524409</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.89825635328509</v>
+        <v>39.12897968373957</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.33937352777563</v>
+        <v>46.19259796679963</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>47.43398244070646</v>
+        <v>40.72456440163607</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.64104706292341</v>
+        <v>44.86730534598343</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.7408397985098</v>
+        <v>50.96738752353508</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.87304299116873</v>
+        <v>23.47871941905102</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>49.13302611877899</v>
+        <v>41.74608833773963</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>60.81056576420598</v>
+        <v>48.10278661204594</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.428</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.749</v>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.523</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.497</v>
+        <v>13.457</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.021</v>
+        <v>2.283</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.98685001734185</v>
+        <v>7.979069210260043</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.24479660011476</v>
+        <v>12.61243849956227</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.3343946468455</v>
+        <v>20.62020267294344</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.12950107564681</v>
+        <v>1.525810031222989</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.66083535184981</v>
+        <v>13.63149797277954</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.08877251801215</v>
+        <v>15.01476364436018</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.4895137155055</v>
+        <v>5.077910383053467</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.32781829663733</v>
+        <v>26.0685339207142</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.17638392165286</v>
+        <v>28.85240170072667</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.55311611024211</v>
+        <v>14.18676680491049</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.19521015095256</v>
+        <v>17.50421048605713</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.17540561386035</v>
+        <v>18.85239092326795</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17.82398132423365</v>
+        <v>12.1524719533728</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.7249878025675</v>
+        <v>13.24878686666293</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.70128193705499</v>
+        <v>28.28083040811412</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.3171228802756</v>
+        <v>8.37221918165714</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.99604200759421</v>
+        <v>24.72632746704286</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.14032227808868</v>
+        <v>28.91548450469881</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.949328768223605</v>
+        <v>-0.348113900216493</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.16464092903982</v>
+        <v>9.046183736505323</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.6101221360257</v>
+        <v>15.01567320152568</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.8534159918173</v>
+        <v>2.056968065083616</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.9523205074745</v>
+        <v>25.58519890081289</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.64945817056421</v>
+        <v>9.923347103429748</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.65187152104083</v>
+        <v>18.4330756338634</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.4249610823102</v>
+        <v>21.5068669511364</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.37448764111907</v>
+        <v>0.9743072192224673</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.64961370993835</v>
+        <v>23.379145586999</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.77706207727801</v>
+        <v>24.9882917632774</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.33446017116289</v>
+        <v>4.110793585953587</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.91726223718856</v>
+        <v>35.38728944073304</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.70800669723121</v>
+        <v>35.73133249430426</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.08863799802161</v>
+        <v>35.11154836040154</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.14169032636559</v>
+        <v>41.49633272199502</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.14147552995452</v>
+        <v>40.80741657247941</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.39569872593239</v>
+        <v>14.74231161502272</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.14777809264135</v>
+        <v>38.25443109694455</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.99426047938171</v>
+        <v>41.57484181048558</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.55187518497255</v>
+        <v>16.27140660228864</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.79917363775888</v>
+        <v>30.51205792817509</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33.4845105513393</v>
+        <v>33.89117372269023</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.05590313529867</v>
+        <v>0.8177613036256837</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.59953979445693</v>
+        <v>30.16783717636977</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.67365038641071</v>
+        <v>34.06643784261212</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.99615650352161</v>
+        <v>2.383313803269949</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.60776495945318</v>
+        <v>49.5193883344016</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.31572850630092</v>
+        <v>3.86390659270559</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.94373672105407</v>
+        <v>13.13206274445668</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.44223243825951</v>
+        <v>22.81190423423794</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.903229820616996</v>
+        <v>0.6995462539489701</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.74384437028667</v>
+        <v>22.33511692344142</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.4491103147487</v>
+        <v>24.71919172105524</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13.62768164681525</v>
+        <v>6.250845003952136</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.05269190871443</v>
+        <v>35.92831220526716</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.96795977468575</v>
+        <v>40.74756421603892</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.15602846737725</v>
+        <v>38.87350970460223</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.2938604735146</v>
+        <v>41.28323153293891</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.03148029093939</v>
+        <v>49.30220039908724</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.74124632157254</v>
+        <v>4.599989342312412</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.30775835833648</v>
+        <v>26.86781839000315</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.74706215336863</v>
+        <v>33.05945574605352</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.01037407532811</v>
+        <v>9.58128004583341</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.24947700056844</v>
+        <v>29.85842075498113</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>32.85868773200468</v>
+        <v>33.5972178946984</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.927074834238397</v>
+        <v>0.6688607139154321</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.4183741813509</v>
+        <v>25.99764635796728</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.20702087254241</v>
+        <v>33.68364917325721</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12.34575390818954</v>
+        <v>4.524760063603289</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.34950022312243</v>
+        <v>46.87848566286617</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11.4923466739695</v>
+        <v>1.928604161648192</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.92661680256941</v>
+        <v>9.597441680429551</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.1475315620668</v>
+        <v>21.61853326662678</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.910606379775281</v>
+        <v>0.0387640250412602</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.66499444810346</v>
+        <v>20.13009336127283</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.52207406301307</v>
+        <v>27.34212823233998</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.2852154064668</v>
+        <v>0.6930052026210269</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.32080947501201</v>
+        <v>29.71053263806117</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.719912602185</v>
+        <v>39.2025963858926</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.03344322617298</v>
+        <v>31.36384702382653</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.8297218697669</v>
+        <v>35.14733804229205</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.10186862691471</v>
+        <v>43.11893786793188</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.17618772867175</v>
+        <v>1.992802460020695</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.7777814491977</v>
+        <v>22.6207686312132</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.31200393426726</v>
+        <v>38.54308825130274</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14.10724625666747</v>
+        <v>6.570833654912168</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.68660764514468</v>
+        <v>25.8351569445643</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.6932882405167</v>
+        <v>31.73197511249302</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.916961806949825</v>
+        <v>0.3544750544196305</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.16850847337146</v>
+        <v>22.54937205659562</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.12173149043633</v>
+        <v>31.54742374927951</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.21955497989144</v>
+        <v>1.249248751800604</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.16566006841814</v>
+        <v>36.55459570153248</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.10874019846311</v>
+        <v>30.28343033554087</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.1795026429229</v>
+        <v>22.20294652824184</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.26762677567673</v>
+        <v>39.05990582047534</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.44452666977399</v>
+        <v>39.07985870641055</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.97030287864148</v>
+        <v>8.134680577915898</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.89489085937716</v>
+        <v>20.2213730059719</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.75360481805121</v>
+        <v>28.46223346424292</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.45629761793312</v>
+        <v>12.82748671356629</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.9682548581881</v>
+        <v>26.95175265734208</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.11792885295714</v>
+        <v>38.0909591406236</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.790973395453147</v>
+        <v>-0.3994702755171353</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>15.16151600371447</v>
+        <v>7.949053884129711</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.34190655044495</v>
+        <v>16.62161643394676</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.54143762181935</v>
+        <v>1.659048201038054</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.15845591136684</v>
+        <v>24.71235112439697</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.7753178229288</v>
+        <v>47.42336060123694</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.22729998000992</v>
+        <v>26.58941962633854</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.47528649827726</v>
+        <v>46.36812810607409</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.32173233357929</v>
+        <v>51.91132631964848</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.983193862627</v>
+        <v>6.577370872135933</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.6254827767916</v>
+        <v>22.53750517286238</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.96603052269873</v>
+        <v>35.83253631997934</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>49.59661594822956</v>
+        <v>55.78726297205199</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>45.79250854672283</v>
+        <v>51.2022546319473</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.0046152487904</v>
+        <v>57.85339311635032</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>51.63959116628831</v>
+        <v>58.17889238973812</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.00789169527947</v>
+        <v>17.77712254164788</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.76554226558473</v>
+        <v>55.10263904158539</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>50.61591314288897</v>
+        <v>57.81540170367263</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.47555279410837</v>
+        <v>21.80853579861557</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.43127007860423</v>
+        <v>37.50010241683666</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.24776892333333</v>
+        <v>45.36002977564705</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.56927989721392</v>
+        <v>1.791890476001175</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.7559253716752</v>
+        <v>43.94873073151921</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.20469220423583</v>
+        <v>47.2870190046308</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>12.90973595773944</v>
+        <v>5.427087779224312</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.55691032412805</v>
+        <v>66.8187585234369</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>58.94480957219264</v>
+        <v>70.66218432565489</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>62.00783382417019</v>
+        <v>75.05404441435533</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>65.34298920841539</v>
+        <v>79.58456381687924</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>68.21355605899865</v>
+        <v>82.92090375246593</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.03236978503871</v>
+        <v>28.13818054847742</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.9072297770709</v>
+        <v>75.21090061542372</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.2128149757728</v>
+        <v>77.79688384404687</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>50.83338035331478</v>
+        <v>58.33023614659814</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.25323193674134</v>
+        <v>46.85263134622842</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>46.56734202701919</v>
+        <v>51.81821437816596</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>51.69628600146991</v>
+        <v>59.08193041834079</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.58663696342815</v>
+        <v>10.92691434966974</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.42827730548176</v>
+        <v>50.70916391651512</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.1314768811406</v>
+        <v>55.538583403079</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.64480516144621</v>
+        <v>13.38874394696256</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.31484339570551</v>
+        <v>34.73327279818938</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.29961927233661</v>
+        <v>44.37216918204782</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>10.09278307141954</v>
+        <v>0.7621028140118717</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.38035147287786</v>
+        <v>40.91239931303586</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.99807407979339</v>
+        <v>44.66709987694384</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13.89949639679568</v>
+        <v>6.380657651669559</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>55.2416444524461</v>
+        <v>65.80020305017521</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>60.93261460664843</v>
+        <v>73.31280720323868</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>60.68608193292559</v>
+        <v>73.34073927854151</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>65.54878896875043</v>
+        <v>79.29800261613194</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>70.07069589251337</v>
+        <v>86.18249456402742</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.08051815526781</v>
+        <v>12.54205697496328</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>61.18829811201172</v>
+        <v>73.5661215963229</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>64.70316620295408</v>
+        <v>79.02932466186273</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.89412249618195</v>
+        <v>52.7351936739656</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.23727786532376</v>
+        <v>29.83102743836948</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.00091885432067</v>
+        <v>36.68435987035398</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.13124359118937</v>
+        <v>43.50118689415174</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.89148170272264</v>
+        <v>7.498418840481612</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.66230099629134</v>
+        <v>45.13968726421186</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>45.65610526267388</v>
+        <v>50.55546376211705</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.07009620956233</v>
+        <v>9.314255393524302</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.51727183020462</v>
+        <v>32.59740169372876</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.07780283944117</v>
+        <v>45.72166499159063</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.10546586363128</v>
+        <v>0.8343895316167149</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.38941994237334</v>
+        <v>36.00536272242091</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>41.3071083577396</v>
+        <v>45.74604828377613</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10.73004519428822</v>
+        <v>1.801234176057392</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.89925367159397</v>
+        <v>58.03815329901649</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>59.79266379787844</v>
+        <v>72.25342184634916</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.69222450850437</v>
+        <v>63.45425696859097</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.22683670832923</v>
+        <v>76.52696204051456</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>69.51251999988484</v>
+        <v>85.03134752375684</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.05924278152738</v>
+        <v>7.952286111857827</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>58.18178725418412</v>
+        <v>69.70723860386738</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.24139164914203</v>
+        <v>77.60534111641425</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.10940876328863</v>
+        <v>17.26165514764603</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.24641478581155</v>
+        <v>19.28476975122415</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.6066951253147</v>
+        <v>24.01277643608172</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.18777435716217</v>
+        <v>9.485305793693211</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.06877705593009</v>
+        <v>16.91680378411889</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.33992513868124</v>
+        <v>16.52932938046371</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.77245123674152</v>
+        <v>14.11246817588743</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.07538653295137</v>
+        <v>26.81160761495736</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.71995615414846</v>
+        <v>27.6163585634276</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.27533788494777</v>
+        <v>18.30784699059846</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.66257967661749</v>
+        <v>22.13222939179663</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.98610715313445</v>
+        <v>22.92202476735538</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.88043525926325</v>
+        <v>21.44900366360994</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.63649880051262</v>
+        <v>19.18485134987051</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.275721819752</v>
+        <v>27.41722249873418</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.9195099493706</v>
+        <v>12.2896062748687</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.28923323249444</v>
+        <v>24.58672503992705</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.69606143934796</v>
+        <v>28.48827951831949</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.85035121916427</v>
+        <v>6.59042298144935</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.62351825776891</v>
+        <v>10.95431049680653</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.53530125613405</v>
+        <v>13.82855209059602</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>23.18929092567539</v>
+        <v>8.882792829280145</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.14018086047665</v>
+        <v>20.54449456283771</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.99510498234405</v>
+        <v>18.7477742625304</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.47753633148488</v>
+        <v>23.63750888437026</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.09137241613126</v>
+        <v>25.17619989882934</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.2955411358636</v>
+        <v>9.142533990840178</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.18419233201836</v>
+        <v>24.76366130799091</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.62756558630324</v>
+        <v>26.44731117087321</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.56329763335744</v>
+        <v>13.33810196003744</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>34.62001811055318</v>
+        <v>36.21075263091773</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.38544156467577</v>
+        <v>36.02479010510977</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.30952244231579</v>
+        <v>36.96542976730432</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.63329328831681</v>
+        <v>43.36741543481912</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.55881463323031</v>
+        <v>42.8393449065175</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.49089966568829</v>
+        <v>25.00945010983433</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.83197249234779</v>
+        <v>39.14192645124</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.34373533866489</v>
+        <v>39.16097750659683</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.7105929178603</v>
+        <v>17.09267278576728</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.34239724640464</v>
+        <v>29.51194344907492</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.40146819060394</v>
+        <v>34.08259248461417</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.90308930941352</v>
+        <v>7.507013131810591</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.35539110170949</v>
+        <v>26.61777778725941</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32.08662907007584</v>
+        <v>32.72334201771792</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.53835088352011</v>
+        <v>9.86356256330615</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.22874933529139</v>
+        <v>40.79615431441569</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.93344597873261</v>
+        <v>13.9813231579845</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.69904484265166</v>
+        <v>19.62518875148673</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.47682431419801</v>
+        <v>24.24381395861659</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.95389823921674</v>
+        <v>8.28106707679175</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.93383173892749</v>
+        <v>23.85279932714559</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.48464054742646</v>
+        <v>25.26800594315655</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.46998830880552</v>
+        <v>12.64887005895541</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.38748530188057</v>
+        <v>34.79547376317691</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.52472656582287</v>
+        <v>38.59603454692287</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.25508262369559</v>
+        <v>37.63401336363189</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.77743830001153</v>
+        <v>41.50809276473852</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.65579139231791</v>
+        <v>44.98016996060767</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.91847129737734</v>
+        <v>16.96802706705972</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.20545954547003</v>
+        <v>31.87302642121201</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.70401669452823</v>
+        <v>34.59750088633692</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.82998251445036</v>
+        <v>11.921196010937</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.10270622125923</v>
+        <v>25.95854843868634</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.16919471792783</v>
+        <v>33.5419601791312</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.77965999579467</v>
+        <v>6.782159904903537</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.35079703386421</v>
+        <v>20.41803454603496</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.00044583772205</v>
+        <v>32.44304780519956</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.54101713995009</v>
+        <v>9.497593257084528</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.10543083501884</v>
+        <v>33.21459127887663</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.32743135765294</v>
+        <v>12.38430620383457</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.39542638998456</v>
+        <v>15.88175863305897</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.71499003313889</v>
+        <v>22.10190398354263</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.98284189255838</v>
+        <v>8.274281029369142</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.28557595107949</v>
+        <v>22.39409398586456</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>30.79329547382277</v>
+        <v>26.06501084439672</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.37927291409552</v>
+        <v>9.956977495067946</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>32.61335429447885</v>
+        <v>30.32883849733116</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.77821622598463</v>
+        <v>36.66332204264916</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.66624444199164</v>
+        <v>30.76561251678509</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.11322948931419</v>
+        <v>34.59803841474212</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.3876501650111</v>
+        <v>38.34470505209257</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.13254205780863</v>
+        <v>14.15690523889231</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.32398219094616</v>
+        <v>26.34745472735637</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.68218213922512</v>
+        <v>33.69060110593193</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>24.06498700532543</v>
+        <v>10.01705935142881</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.83454215828136</v>
+        <v>22.56484677666402</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.37671588123351</v>
+        <v>31.13294900319135</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.83844837283605</v>
+        <v>6.881117575740557</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.61620812627252</v>
+        <v>18.700446200536</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.67127041382944</v>
+        <v>30.9659623754904</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.07318618801237</v>
+        <v>8.45832012601042</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.27122169118325</v>
+        <v>27.67819289783052</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.02208900443772</v>
+        <v>23.57657984797555</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.94455435649607</v>
+        <v>20.91410029481366</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.28124268912537</v>
+        <v>32.47270954498151</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>33.3418499106816</v>
+        <v>35.76578165278001</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.37491243466968</v>
+        <v>11.30829139291389</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.85681916574698</v>
+        <v>17.70752114590207</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.97039137647712</v>
+        <v>22.82516952809977</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.2538750426129</v>
+        <v>17.51325467270477</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.93242048728598</v>
+        <v>26.93675381578321</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.22988226619641</v>
+        <v>32.60160201842732</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.80252497209207</v>
+        <v>6.24933676782895</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.50683787322801</v>
+        <v>10.90035030554937</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.15509069660901</v>
+        <v>15.11706166542706</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.30163460609804</v>
+        <v>9.344225300833717</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.62356989992224</v>
+        <v>22.35141820800201</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.03506992582096</v>
+        <v>33.90241567755686</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.19978274065757</v>
+        <v>23.8784328272664</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.94830286781519</v>
+        <v>35.17352441180715</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.00238394595183</v>
+        <v>38.02810627992671</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.59039813586446</v>
+        <v>12.18012407137206</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.12032762153355</v>
+        <v>21.41815165828262</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.75996963102934</v>
+        <v>28.09437191991022</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>38.22043421493117</v>
+        <v>48.89207712193748</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.5068129542709</v>
+        <v>42.43284195831948</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.48432616975485</v>
+        <v>51.98375760179883</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.63669922832002</v>
+        <v>52.82857448817636</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.12895776272505</v>
+        <v>18.65360635380458</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>38.62330896914803</v>
+        <v>48.8898745877468</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.42339909532471</v>
+        <v>52.52115660558906</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.9586225583468</v>
+        <v>24.72574129661662</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.36300344807736</v>
+        <v>36.30629319594451</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>35.21266805472185</v>
+        <v>41.81742805991545</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.32206586788671</v>
+        <v>9.032536059653193</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.26841598968282</v>
+        <v>35.34553034093618</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.93998425653496</v>
+        <v>40.4297307802051</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.14832974501959</v>
+        <v>15.65425993929783</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.00291488343197</v>
+        <v>55.64168193434233</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.05991529436518</v>
+        <v>59.22085448445559</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.14433682365272</v>
+        <v>61.70476348407747</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.64648659116225</v>
+        <v>66.11998239042674</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>45.87737745539746</v>
+        <v>69.15954996084334</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.5849778166561</v>
+        <v>32.58451192471337</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>43.7832784032164</v>
+        <v>64.05970288462255</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>44.6057462296067</v>
+        <v>66.94888437730607</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.81902303823712</v>
+        <v>50.31419211307113</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.37357923298278</v>
+        <v>33.72038481152967</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.0492165735664</v>
+        <v>41.21265180967946</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>39.7756608903134</v>
+        <v>52.63578706703375</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.11356228982497</v>
+        <v>12.80931510976574</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.32899149917982</v>
+        <v>42.86705503890325</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.66253434485404</v>
+        <v>50.51978306786684</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.49839103867345</v>
+        <v>17.74711334139094</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.29483721721637</v>
+        <v>32.9203641245393</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.74370051691475</v>
+        <v>40.45519212727633</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.95646692341137</v>
+        <v>7.533393922463663</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.52745083342457</v>
+        <v>32.98336687725332</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.6325752308034</v>
+        <v>39.85823013469821</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.53299738371254</v>
+        <v>12.56771609868303</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.17961524824936</v>
+        <v>50.20815269701905</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.67397389664768</v>
+        <v>60.50807492843229</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.58577138162775</v>
+        <v>56.43660616887925</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>43.90611676028272</v>
+        <v>62.70505320331908</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>46.66723076624327</v>
+        <v>71.08356301277023</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.11801192698045</v>
+        <v>20.23446758012685</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>42.15903657229235</v>
+        <v>59.1859804295298</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>44.74158780524476</v>
+        <v>67.21607240687925</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.60232141834047</v>
+        <v>47.111043251377</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.04689888108529</v>
+        <v>22.42946289408378</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.45376645501796</v>
+        <v>29.44413238701861</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.20546311148642</v>
+        <v>41.06191679202063</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.29361421046634</v>
+        <v>10.62381718941013</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.21339983432539</v>
+        <v>36.53600455551221</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>37.30318718235493</v>
+        <v>46.29838620532097</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.36470814474136</v>
+        <v>14.58995114656734</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.62489292090932</v>
+        <v>31.03702359098705</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.03219447976387</v>
+        <v>40.82357932568243</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.92618113207577</v>
+        <v>7.574268806430656</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.5273755973085</v>
+        <v>30.14995012237334</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.00099458120821</v>
+        <v>40.07989720254679</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.33375518423706</v>
+        <v>9.825148996951185</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>37.06573670335676</v>
+        <v>45.14045619240385</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.27276592538208</v>
+        <v>59.59670244969215</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>37.8689286004686</v>
+        <v>46.86701588641527</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.35617414479218</v>
+        <v>55.72994898231851</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>45.64576342678799</v>
+        <v>67.95870989912036</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.96922143262404</v>
+        <v>13.51474528754249</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.27568127985963</v>
+        <v>50.54612093487087</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.99137507245498</v>
+        <v>63.94906178709151</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.10944018005786</v>
+        <v>16.10769686727191</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.73046068192626</v>
+        <v>22.6070576708629</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.01367917921492</v>
+        <v>26.09697314408056</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.89254887651668</v>
+        <v>8.627415563580694</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.83982414813801</v>
+        <v>14.6849880851413</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.57620755512128</v>
+        <v>15.42443599544604</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.16814907810302</v>
+        <v>11.75885126361184</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.23545994674012</v>
+        <v>27.02570889821359</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.56773772672756</v>
+        <v>29.50088888473717</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.21465625988181</v>
+        <v>22.42516252235018</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.16426101961748</v>
+        <v>27.14872462382066</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.80199816237191</v>
+        <v>28.46010191698792</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.14475029963976</v>
+        <v>14.72043147042037</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.19820956235966</v>
+        <v>19.6257217595983</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.23831672522528</v>
+        <v>24.35314530238617</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.59767963768601</v>
+        <v>13.72635289099318</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.05843977541932</v>
+        <v>24.96982510434027</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>30.45126730250969</v>
+        <v>28.30025191282856</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.64694183006479</v>
+        <v>6.181644812282531</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.83642298842978</v>
+        <v>10.98391557340221</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.26577522124729</v>
+        <v>14.27871581260072</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.96193705032324</v>
+        <v>8.374528284486242</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.23287580040328</v>
+        <v>21.75382278723601</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.89451088304281</v>
+        <v>16.97601093387574</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.58946988828047</v>
+        <v>27.77764069205475</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>30.46519382765731</v>
+        <v>27.30353412650535</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.13621767382246</v>
+        <v>8.874686365385987</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.69146238566501</v>
+        <v>26.7993343406444</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.98666314057951</v>
+        <v>27.41154472531933</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.18088067665748</v>
+        <v>11.34616977240385</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.56827930233005</v>
+        <v>38.10380375278032</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.7373963162144</v>
+        <v>38.70103923909777</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.111890915045</v>
+        <v>41.137693732309</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.88541868149174</v>
+        <v>45.54265393285231</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.09582851153159</v>
+        <v>45.33141289849518</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.33440266215315</v>
+        <v>17.79374993005182</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.67822751253205</v>
+        <v>43.52402356484937</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.45514769234453</v>
+        <v>42.81083158203671</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.56977261013585</v>
+        <v>15.67056523348623</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.46274293720107</v>
+        <v>30.44885202061128</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.42861561447427</v>
+        <v>34.12879330993311</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.6992146658308</v>
+        <v>6.968708271260407</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.42256396307935</v>
+        <v>27.43207932132677</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.75079569977815</v>
+        <v>31.46342815720047</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.12812139367117</v>
+        <v>8.660359761318524</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.78464977097097</v>
+        <v>42.36648862475963</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.43371461904766</v>
+        <v>12.10668252448943</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.8670489488047</v>
+        <v>21.91902859418533</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.48073707048258</v>
+        <v>25.53956069124496</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.79015607856493</v>
+        <v>8.321913283231542</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.03244770964188</v>
+        <v>24.77287026614312</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.80679479071889</v>
+        <v>26.62796247218946</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.62565225758527</v>
+        <v>12.6557093298949</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.23876890604234</v>
+        <v>36.52476032323432</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.79715120496304</v>
+        <v>40.87894965468028</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>37.05336935350408</v>
+        <v>41.81146258563518</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.61734617331093</v>
+        <v>43.79115043598386</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.8333686730649</v>
+        <v>45.95921250661911</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.01246847139294</v>
+        <v>12.86748723806535</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.9012228677057</v>
+        <v>34.26905457546446</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>33.80817108349283</v>
+        <v>34.66402668119539</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.22410003690565</v>
+        <v>9.863791145593218</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.45754297120718</v>
+        <v>27.76468635378018</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>32.11570662218292</v>
+        <v>33.63213527276307</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.60955678335964</v>
+        <v>6.465878302658844</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.14257064194135</v>
+        <v>20.88518551674617</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.16888985909522</v>
+        <v>32.39991952583139</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.46532918582547</v>
+        <v>9.007250171395416</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.96379540416866</v>
+        <v>34.87224728059839</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.17794733080545</v>
+        <v>11.50379478967536</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.94389879990043</v>
+        <v>19.46889506580411</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.28696170985107</v>
+        <v>24.75932956268233</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.82628282486711</v>
+        <v>8.270665137536913</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.33054944558013</v>
+        <v>22.97844545855351</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.70373184855097</v>
+        <v>28.79172245833188</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.18414058947246</v>
+        <v>9.316555953088571</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.71435193115639</v>
+        <v>32.60905759398553</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.39749854926448</v>
+        <v>39.99969498636128</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.10757435071636</v>
+        <v>33.80710571505458</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.80419784642257</v>
+        <v>38.04505955183361</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.10801030837036</v>
+        <v>41.46021371201546</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.86453817710352</v>
+        <v>12.87895152861889</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.77680644505417</v>
+        <v>32.00474344717084</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.26642257553523</v>
+        <v>35.30711505426407</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.67356905394323</v>
+        <v>9.062025097690704</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.59748409106005</v>
+        <v>22.96941570157792</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.44996222555586</v>
+        <v>31.40418412197887</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.64565283674292</v>
+        <v>6.475102899991448</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.9643304620099</v>
+        <v>18.26866120927468</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.64975650057208</v>
+        <v>31.17435112689616</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.86569377083625</v>
+        <v>7.894687637471836</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.96140271951398</v>
+        <v>27.25338581256735</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.13048849854324</v>
+        <v>25.25365328332268</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.90069300464397</v>
+        <v>21.97741693736401</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.87145541746064</v>
+        <v>33.8681004411286</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.43203238929433</v>
+        <v>35.60402675485447</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.17238239800886</v>
+        <v>9.907526967642095</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.56574333832807</v>
+        <v>18.29172698569688</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.09331249094328</v>
+        <v>24.11540360638818</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.99497062907228</v>
+        <v>15.61199923173925</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.76677617143726</v>
+        <v>27.11787627677588</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.4031106703636</v>
+        <v>32.84076838355367</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.61907065929461</v>
+        <v>6.000207024333594</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.52099889977795</v>
+        <v>10.40817889290735</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.67040145411733</v>
+        <v>15.03870814997443</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.98084816364032</v>
+        <v>8.367333309495994</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.03378073433545</v>
+        <v>21.0063346450099</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.85785226206442</v>
+        <v>34.22115651024531</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.88852386997769</v>
+        <v>23.63460855414476</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.73687884623239</v>
+        <v>36.61690697249787</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.64550625049879</v>
+        <v>41.2788298303218</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.97821228263237</v>
+        <v>9.903663189155903</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.60320389546218</v>
+        <v>20.61978604656748</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>31.40278366356007</v>
+        <v>28.77837066724513</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.34072956167982</v>
+        <v>49.57386606558082</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>37.72666282668736</v>
+        <v>45.23804763477037</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>40.54401152103163</v>
+        <v>52.78121502307454</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.18689653091923</v>
+        <v>51.60737201965742</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.07497538848579</v>
+        <v>14.23725455126463</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>39.10014661248078</v>
+        <v>49.05072183778538</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.48884797408012</v>
+        <v>53.11178808745503</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.62777967404036</v>
+        <v>21.33211691412223</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>33.75988415311284</v>
+        <v>37.27686779455115</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.3907303883782</v>
+        <v>40.97215276086717</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.03920694978437</v>
+        <v>8.333682277700568</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.06421692899046</v>
+        <v>36.7890906962504</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.95401879319189</v>
+        <v>39.37658969212207</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.47350655818827</v>
+        <v>13.24896798226096</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>42.14454001329495</v>
+        <v>55.93783823378985</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.1070688602387</v>
+        <v>58.37931813068598</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>45.26754502371561</v>
+        <v>64.00015951891743</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.36889192263857</v>
+        <v>67.09676526268952</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>47.68884482702078</v>
+        <v>69.61390924588899</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.8586376552491</v>
+        <v>24.96859037426368</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.12614190763773</v>
+        <v>63.7324842317276</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>45.92904622754538</v>
+        <v>66.31169882179019</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>39.56749501108611</v>
+        <v>50.5339841687793</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>34.64442542806749</v>
+        <v>36.93100965794164</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>37.22363149837158</v>
+        <v>43.36165611246533</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.79730143529459</v>
+        <v>53.31099094452961</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.02155354098378</v>
+        <v>9.102282462182522</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.91982585070269</v>
+        <v>43.62424190897457</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.32264177739335</v>
+        <v>50.64945168213418</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.81146638864254</v>
+        <v>14.52613474822425</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.4677223904015</v>
+        <v>33.40173759231388</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.77299169513453</v>
+        <v>39.57660987320891</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.74026343670031</v>
+        <v>6.879921491239184</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.1585597396877</v>
+        <v>31.34369433280581</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.85613954376592</v>
+        <v>39.46190545639882</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.31798505694357</v>
+        <v>11.53721343297723</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>39.57994867358622</v>
+        <v>48.70335154622305</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>43.68459208745122</v>
+        <v>59.59618817997583</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>43.00377507906732</v>
+        <v>57.10269875377479</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>45.56516843874731</v>
+        <v>63.50658878837221</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>48.5745068162329</v>
+        <v>71.19073288005313</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.80131360216896</v>
+        <v>14.76965739558177</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>42.90966833717604</v>
+        <v>57.78986537313537</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>45.75420337973732</v>
+        <v>65.74063372897604</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>38.43523145162327</v>
+        <v>47.99915602680944</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.98663344847873</v>
+        <v>23.41009819202874</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.80979716467661</v>
+        <v>31.07642890887383</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.74096191353483</v>
+        <v>41.95912017648264</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.64529173384582</v>
+        <v>8.816756267004187</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.05716117094039</v>
+        <v>38.25464600002064</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.17826019694346</v>
+        <v>47.49762228256411</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.8110505213494</v>
+        <v>12.13758066503998</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.2312207305125</v>
+        <v>29.65151458801645</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.11848367881743</v>
+        <v>39.98482289280034</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.72625535929441</v>
+        <v>7.033693453850283</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.47885435318089</v>
+        <v>26.76824171444887</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.42435375837344</v>
+        <v>40.31391340236537</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.1670013267758</v>
+        <v>9.061350639343065</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.20770495623017</v>
+        <v>40.11858293256959</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.41757257650947</v>
+        <v>59.21747954361811</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.48338349179808</v>
+        <v>43.1748631361322</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.47353967467926</v>
+        <v>55.29574632208912</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>47.74093052361281</v>
+        <v>68.86468297165953</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.35114693702412</v>
+        <v>11.02450949358942</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>39.55073276053361</v>
+        <v>48.4372169140116</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>45.03419915019877</v>
+        <v>62.86906195457142</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.0621208583713</v>
+        <v>10.43617317051546</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.79111236572094</v>
+        <v>17.47661380248374</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.8589451516219</v>
+        <v>27.81731268410249</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>11.13598753670606</v>
+        <v>1.479904021980179</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.38375037741577</v>
+        <v>12.75170421921705</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.08731179541626</v>
+        <v>15.06023885112878</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>12.94380833373631</v>
+        <v>4.247833942653866</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.97999434890237</v>
+        <v>29.49539615721296</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.28079426770127</v>
+        <v>34.94389263746088</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.85046926093498</v>
+        <v>19.97806729226059</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.78635144558737</v>
+        <v>25.97101773858307</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.46876900424519</v>
+        <v>26.72443943895057</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.78204149000656</v>
+        <v>9.701183151193824</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.85313209467239</v>
+        <v>15.98829367747197</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.51089406466464</v>
+        <v>27.23397848019326</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.82368985946792</v>
+        <v>10.76605303442916</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.47881683995841</v>
+        <v>25.09658709497926</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.54886666677277</v>
+        <v>28.21389257373708</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.45646589746979</v>
+        <v>0.6777977465257621</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.60520797383888</v>
+        <v>9.161105227446821</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.21217990881193</v>
+        <v>13.52995209988508</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.96180327925614</v>
+        <v>2.607006498230295</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.21043330050738</v>
+        <v>23.51799502082522</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.69900552316748</v>
+        <v>15.60473724109713</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.29352322610369</v>
+        <v>31.00226501273834</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.06836602931218</v>
+        <v>31.80386076227079</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.81821756441982</v>
+        <v>2.239372824570424</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>33.23348087863653</v>
+        <v>34.17324152348097</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.97590055033733</v>
+        <v>33.63247818313396</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.51782968952602</v>
+        <v>4.790088353221449</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>43.96760279178228</v>
+        <v>49.77993886482773</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.72189122003733</v>
+        <v>49.93898868750806</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>43.34294363904326</v>
+        <v>50.09965190514303</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>47.90341098393229</v>
+        <v>57.16881876438165</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>47.62293287223596</v>
+        <v>55.47287877733924</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.04731025246297</v>
+        <v>15.65591137852148</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>44.6778105067533</v>
+        <v>50.29917998209227</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>46.94672687531862</v>
+        <v>51.83924145389923</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.05201111424242</v>
+        <v>16.36864566395099</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>33.25813949916824</v>
+        <v>33.70456832211709</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.01722988411599</v>
+        <v>35.2452337621433</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.58791092682035</v>
+        <v>1.28322748697094</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.69615001778905</v>
+        <v>31.90728393132433</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.0180537647713</v>
+        <v>33.10773760486575</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.32603042723731</v>
+        <v>2.258400345667425</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>44.54859277773216</v>
+        <v>51.09335493580631</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.9064814254276</v>
+        <v>5.555388161852534</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.9790793892853</v>
+        <v>21.81108796008954</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.89703513360859</v>
+        <v>28.54896541539791</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.29547269792446</v>
+        <v>1.622472779688987</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.4045154143965</v>
+        <v>31.0479861355297</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>32.76396572130678</v>
+        <v>33.292236581712</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.04496141315491</v>
+        <v>6.678823425089416</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.50763944667595</v>
+        <v>48.8101479413388</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.08077897730625</v>
+        <v>53.20484820968963</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>47.45216108022834</v>
+        <v>54.9316342953156</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>50.87855551394561</v>
+        <v>59.0792279763499</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>50.56069756837965</v>
+        <v>60.28485694002029</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.89310791727714</v>
+        <v>6.497309489565076</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.76265955776118</v>
+        <v>37.95902940260949</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.12648723974571</v>
+        <v>41.34021152722598</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.13803264057529</v>
+        <v>8.759497691362537</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.99570970322316</v>
+        <v>32.51951910660839</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>33.63721298411111</v>
+        <v>35.33780773051075</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.41982340547189</v>
+        <v>1.759858707953956</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.55924759692822</v>
+        <v>27.29683289522749</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.45447940562411</v>
+        <v>35.54723353891026</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.4240388182913</v>
+        <v>4.702219671615222</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.28076003142672</v>
+        <v>47.63751527281705</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.09488712872249</v>
+        <v>3.216427040406323</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.15321819852589</v>
+        <v>16.40631784466722</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.79364401176325</v>
+        <v>26.1772703850705</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.3205616945559</v>
+        <v>1.459070504342499</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.36732610710012</v>
+        <v>26.35841521113088</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.6827729006386</v>
+        <v>36.19205224159587</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>11.7315689512124</v>
+        <v>2.10940319228342</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.79376762361042</v>
+        <v>41.53614236001037</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>44.75605786837043</v>
+        <v>51.10581564134242</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.14029986294503</v>
+        <v>43.46064916480559</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.50942195281955</v>
+        <v>50.30673163726578</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>47.23825198718333</v>
+        <v>54.1533263885064</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>14.28653242504922</v>
+        <v>5.092958129310237</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.49828780260095</v>
+        <v>31.45542983673707</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>38.07671733485268</v>
+        <v>41.76056544262315</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.22926338513005</v>
+        <v>5.918807454557321</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.9673188117341</v>
+        <v>25.9702248118186</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.17960828426806</v>
+        <v>32.55918801305424</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.4408481835796</v>
+        <v>1.003576381310758</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.88830230383049</v>
+        <v>21.79163849679837</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.75255729029412</v>
+        <v>33.75106725353702</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.52044363545685</v>
+        <v>1.521563144640275</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.29025635415363</v>
+        <v>35.5625624443947</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.7913743001736</v>
+        <v>29.46962661291242</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.1339070536965</v>
+        <v>21.93151095781123</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.85377829316529</v>
+        <v>37.54414407409253</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.9711666130157</v>
+        <v>38.86278144030253</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.01481813763242</v>
+        <v>6.405682901265838</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.86352759704643</v>
+        <v>19.76511148857421</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.48022179285858</v>
+        <v>27.75998632652901</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.04288542080588</v>
+        <v>11.62150179261605</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.85818402932812</v>
+        <v>25.76386712619534</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.2421756905353</v>
+        <v>35.63535350023982</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.40120190359031</v>
+        <v>0.5999312952238185</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.28584974679048</v>
+        <v>7.33911770263267</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.16592439748462</v>
+        <v>12.65194203289354</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>11.53801135390982</v>
+        <v>1.922286106738763</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.52872928233003</v>
+        <v>20.00352885410182</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.74566470427183</v>
+        <v>39.53175506283704</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.99393022151035</v>
+        <v>23.9432665683793</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.45410534859138</v>
+        <v>44.333758927255</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.51001764496476</v>
+        <v>50.25362391889429</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.88437168954385</v>
+        <v>5.042028911485495</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.57013858730377</v>
+        <v>18.93341798830466</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.25383981820733</v>
+        <v>32.18682377021737</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.67829567762269</v>
+        <v>55.93811919964253</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.86680667087577</v>
+        <v>55.87126204779631</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.71288026883108</v>
+        <v>61.42522341268736</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.27863829794626</v>
+        <v>59.77753481507941</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.98926907409535</v>
+        <v>14.72034154683417</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>49.32229340574106</v>
+        <v>57.92288994827813</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>51.06992150822807</v>
+        <v>60.00464502486709</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.34464337042869</v>
+        <v>19.16054746521428</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.19678742291102</v>
+        <v>38.88198012916321</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.99114826456422</v>
+        <v>44.49216993204579</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.02131131900657</v>
+        <v>2.603360209350466</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.25500139934468</v>
+        <v>43.46758814456533</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.5401535854526</v>
+        <v>43.86062980561637</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>13.6402984873395</v>
+        <v>5.057894610078542</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.72083556635828</v>
+        <v>65.44872140097151</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.02541670234475</v>
+        <v>68.86591334319708</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>61.20292333910089</v>
+        <v>75.83847252349643</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>63.7268193691181</v>
+        <v>79.63786406320747</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.93671066502681</v>
+        <v>82.4391682129845</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.70619637340922</v>
+        <v>21.7029416081815</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>60.70045467657318</v>
+        <v>74.17049189781756</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>62.69039817996077</v>
+        <v>77.42748139516003</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.6677549606306</v>
+        <v>59.7682508936976</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>42.81340836139489</v>
+        <v>49.36274543799839</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.19242694295933</v>
+        <v>54.44612947454704</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>52.47184425033009</v>
+        <v>62.18301263907307</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.79250338149333</v>
+        <v>8.307020935670021</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.77523282013654</v>
+        <v>53.2027982125805</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.00391465619762</v>
+        <v>57.76680243644347</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.8027845498503</v>
+        <v>10.85014641149852</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.23984042865933</v>
+        <v>35.34540842974184</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.36733025431147</v>
+        <v>43.37754018532627</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.56815473288394</v>
+        <v>1.72262540558847</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.86503132178026</v>
+        <v>36.4286061696175</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.26060795515943</v>
+        <v>43.85730136550237</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.54587499494309</v>
+        <v>6.258491714722926</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>50.51484563034806</v>
+        <v>59.66819787698622</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>58.87448408278289</v>
+        <v>72.11176032040055</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.5872143778506</v>
+        <v>71.78995740788291</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>62.73533682330766</v>
+        <v>77.36766687952853</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>68.26258954911592</v>
+        <v>85.88000180695001</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>17.35403012494377</v>
+        <v>9.883270351493259</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.05846985187094</v>
+        <v>68.20575686072387</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.858512881034</v>
+        <v>78.13363845502123</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>47.08284566357609</v>
+        <v>54.83909207764744</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.02093005386817</v>
+        <v>27.81266732983049</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.93160252388364</v>
+        <v>36.66535736063562</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.34896070164149</v>
+        <v>46.93739297487419</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>14.45560868775968</v>
+        <v>6.068614917470192</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.30768650955669</v>
+        <v>47.32881145656863</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.35871299182163</v>
+        <v>53.83708839460093</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.714011212469</v>
+        <v>7.191723097848573</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.92416240583755</v>
+        <v>29.76237000326116</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.36603977708409</v>
+        <v>43.77322239136976</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.60246917311177</v>
+        <v>1.289023268806393</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.1417002622575</v>
+        <v>29.17151131562879</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.88898259382056</v>
+        <v>45.49071527915857</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>11.91816506181744</v>
+        <v>1.729727839485658</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.60273091661665</v>
+        <v>45.676138739104</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.55800989898093</v>
+        <v>70.0238972589799</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.99431118178028</v>
+        <v>50.71126007019943</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.25966182793577</v>
+        <v>66.02439999581627</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.12346256567686</v>
+        <v>83.9569211597986</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.9135633399107</v>
+        <v>5.895249630340075</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>48.39664493505813</v>
+        <v>55.55480864289245</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>59.93704128952731</v>
+        <v>73.60559599508279</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.56034797765608</v>
+        <v>17.25190714284633</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.70718792021555</v>
+        <v>18.94761710911614</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.7720996504579</v>
+        <v>27.75796319169202</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.67694443108659</v>
+        <v>8.235628756612584</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.45111516298054</v>
+        <v>20.83502978503934</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.35475365621463</v>
+        <v>22.28143411991503</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.43987737097223</v>
+        <v>12.47977582144723</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.74434785363504</v>
+        <v>33.00014657692105</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.73075186236188</v>
+        <v>35.57358184792031</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.05525044457161</v>
+        <v>19.58283534806547</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.72123758011124</v>
+        <v>23.42000643824715</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.03867320486992</v>
+        <v>24.18597451589853</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.02118798308242</v>
+        <v>21.8242181309361</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.67570746483254</v>
+        <v>19.52917022730549</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.33862864659008</v>
+        <v>32.25328974470275</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>23.64122299885713</v>
+        <v>13.35231518509239</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.84313151609208</v>
+        <v>25.11683232255171</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.12630074817623</v>
+        <v>30.06485965201623</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.23548322226434</v>
+        <v>9.211298392878287</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.79611607514178</v>
+        <v>14.92905172919094</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.05255633919459</v>
+        <v>17.29235349156538</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.67517143451025</v>
+        <v>7.611994170050551</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.25332413131577</v>
+        <v>21.60820882821233</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.61364219217664</v>
+        <v>21.15346129195284</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>30.01793063267218</v>
+        <v>27.69576350513852</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.6854605541694</v>
+        <v>29.83583602763635</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.81247273474888</v>
+        <v>7.920562210259771</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.69558757004937</v>
+        <v>32.37051113945016</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.01959846370777</v>
+        <v>33.46594611970544</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.29955625777801</v>
+        <v>11.80679280168202</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.27738237239622</v>
+        <v>44.27384893087333</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.81791057439431</v>
+        <v>43.85987005218281</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.70069071417407</v>
+        <v>43.70301215331025</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.43170100622173</v>
+        <v>49.76727427149823</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.51116336507844</v>
+        <v>49.07144600476967</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.50919246593494</v>
+        <v>27.54560040872819</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.04936269214652</v>
+        <v>42.29059778984378</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.19933142304966</v>
+        <v>45.44147847758887</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.21187889163588</v>
+        <v>19.72607085414605</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.8060904153744</v>
+        <v>31.26744238166889</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>32.89063754242945</v>
+        <v>34.47185674844494</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.36313672095816</v>
+        <v>9.908112365518225</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.1201348463676</v>
+        <v>30.80976913440504</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.05893054288651</v>
+        <v>35.04250272993297</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.21548479253077</v>
+        <v>8.46046480543021</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.02377583803591</v>
+        <v>44.11611034195569</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.88891367983156</v>
+        <v>13.15261001405555</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.5864208426745</v>
+        <v>22.44324521390153</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.97904797538931</v>
+        <v>28.27230949917926</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.37493829757877</v>
+        <v>6.962793442593647</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.19980045661112</v>
+        <v>30.89400960674398</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.13938865115047</v>
+        <v>32.88990471835419</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.48486047604871</v>
+        <v>11.61170524461608</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.50603512054129</v>
+        <v>43.88197162218394</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.8374731990564</v>
+        <v>47.56530030277146</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.85079662176109</v>
+        <v>47.16502434897036</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.67065947352771</v>
+        <v>51.29626677993496</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>41.68249597999939</v>
+        <v>53.93912130145554</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.42355026800425</v>
+        <v>17.79840882091799</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.56028340492211</v>
+        <v>35.70003221198128</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.85066365015545</v>
+        <v>40.95154514540562</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.6786716575903</v>
+        <v>14.14825989206173</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.71583206168714</v>
+        <v>29.10398435102295</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.62240236157748</v>
+        <v>33.92478426867594</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.2023395171695</v>
+        <v>9.689414815546627</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.01067055773653</v>
+        <v>26.14233394441167</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.17976942678709</v>
+        <v>35.49919045561651</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.34404831645885</v>
+        <v>9.114253039293313</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.60115021359105</v>
+        <v>39.76739884703154</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.89018374809494</v>
+        <v>10.09780557195926</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.52705478965187</v>
+        <v>17.03044334795315</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.83857475791616</v>
+        <v>25.43064600397522</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>20.45052262830312</v>
+        <v>7.040571219221274</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.4212791519458</v>
+        <v>29.6460135786745</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.65226290616121</v>
+        <v>34.26340771123544</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.75714807351806</v>
+        <v>7.96729741895648</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.30716989996694</v>
+        <v>39.71230680444057</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.82010613227299</v>
+        <v>45.56901928439535</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.43419539745756</v>
+        <v>38.92839187705863</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.14923703494949</v>
+        <v>43.28244978095207</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.14065231572157</v>
+        <v>46.86083650398132</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>23.42346814134132</v>
+        <v>14.27159421695992</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.53740839130721</v>
+        <v>28.29244486423628</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.02084476453004</v>
+        <v>41.05098239429327</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.34487479168715</v>
+        <v>10.94360411936636</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.95497021741433</v>
+        <v>25.27961939630542</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.83267977114427</v>
+        <v>32.04307332723729</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.28715112555945</v>
+        <v>9.631605974159566</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.22406278408753</v>
+        <v>24.51173926024902</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.97871287264664</v>
+        <v>34.8789537338937</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.40844263848206</v>
+        <v>6.945009126080542</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.97188872779762</v>
+        <v>33.86316211657556</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.59358616850342</v>
+        <v>24.66191602684007</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.09893068484338</v>
+        <v>21.34140807641763</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>32.93429034599415</v>
+        <v>33.56997793107005</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.21707403575191</v>
+        <v>36.42295620952229</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.33176011896781</v>
+        <v>11.0848236939244</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.84209583458724</v>
+        <v>18.35108533447313</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.51697795878952</v>
+        <v>24.0044353166417</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.55488301082975</v>
+        <v>16.31290601914964</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.97285145308381</v>
+        <v>25.55390483866908</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.51653495521763</v>
+        <v>33.29837846665441</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.20770804266864</v>
+        <v>9.077318577128139</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.35712764380685</v>
+        <v>14.33169092752272</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.44004080774631</v>
+        <v>18.08133737862216</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.75475593360669</v>
+        <v>7.925722516045862</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.61365958077874</v>
+        <v>22.8724040942589</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>33.91507471343769</v>
+        <v>37.36095560773988</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.35309231015611</v>
+        <v>24.04461117268831</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>35.45190723335992</v>
+        <v>39.0292290048055</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.22995247195898</v>
+        <v>42.48250410398622</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.23646235453268</v>
+        <v>10.98399289279173</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.02928391817307</v>
+        <v>21.29331396320156</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.95935839870732</v>
+        <v>30.65717373374659</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.59481050200318</v>
+        <v>50.5047852634655</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.98337354825232</v>
+        <v>46.51507417949279</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.49174042809983</v>
+        <v>54.62997460593482</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.71197261345976</v>
+        <v>54.7905101765031</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.82690814267423</v>
+        <v>21.44537043412981</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.01396853351589</v>
+        <v>51.14550614454111</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.1275098677314</v>
+        <v>53.91940185704239</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.59453505462476</v>
+        <v>25.33164136022174</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.97142463615467</v>
+        <v>36.39380758915986</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.2744695271715</v>
+        <v>41.96111423202621</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>21.81254561995533</v>
+        <v>11.1084810840313</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.77500192557769</v>
+        <v>39.6655225520725</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.40745293051924</v>
+        <v>42.5269599775989</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.61646198431953</v>
+        <v>12.30601019839323</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>43.8111525907581</v>
+        <v>57.72342272648946</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.52453188412413</v>
+        <v>61.61208382620214</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>47.34120131850786</v>
+        <v>65.80215356431864</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.45002379169287</v>
+        <v>69.98068094526805</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.97753873532345</v>
+        <v>73.11547878510214</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.41871577754898</v>
+        <v>32.36571018106627</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.6671869015356</v>
+        <v>66.13054503284295</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.76754215920373</v>
+        <v>69.05584030966932</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.72246845694244</v>
+        <v>53.26699411779451</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>35.60116286850995</v>
+        <v>39.77078727689018</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>38.56899992476847</v>
+        <v>45.63776746451634</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.78558292566312</v>
+        <v>54.7384876766553</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.20241016858223</v>
+        <v>15.51843858216411</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.78112885138998</v>
+        <v>46.73310811920729</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>41.16924871982615</v>
+        <v>52.09480931237304</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.34374799455084</v>
+        <v>18.32986657096799</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.77238321661169</v>
+        <v>33.84891879887643</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.87137732517043</v>
+        <v>41.05703946064588</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.41833633520726</v>
+        <v>10.1705171301017</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>33.6273279481394</v>
+        <v>36.75579112438954</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.20669182932322</v>
+        <v>42.35840625471771</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.47835611998388</v>
+        <v>11.84531332543417</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>42.2434882948864</v>
+        <v>54.38287831876185</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>46.68921991836868</v>
+        <v>64.3907740490469</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>45.9077031449855</v>
+        <v>62.85257660517142</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>48.37606532511464</v>
+        <v>67.44625915426943</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>51.99307383398065</v>
+        <v>75.77938237473573</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.20881531223274</v>
+        <v>20.69210163041396</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>45.40173107248026</v>
+        <v>61.60960803831047</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>48.91914597398409</v>
+        <v>69.81364554630404</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.99094253898011</v>
+        <v>49.3695358811329</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.18058329907167</v>
+        <v>25.21431060091788</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.02663835983444</v>
+        <v>31.63916855615289</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.61563802783628</v>
+        <v>41.63522549647097</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.74675777027795</v>
+        <v>11.77412689261642</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.56154362703634</v>
+        <v>41.53825397112254</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>39.81411229753407</v>
+        <v>49.04287955424174</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.86611445424217</v>
+        <v>14.49534112412818</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.87997887543505</v>
+        <v>31.77766532633242</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.32774422951697</v>
+        <v>41.85695987040908</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.49408687549926</v>
+        <v>10.28868498171632</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.42305517369455</v>
+        <v>34.0176383625607</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>37.10786245894514</v>
+        <v>43.9553863520005</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.72335181524409</v>
+        <v>7.671044971213938</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.12897968373957</v>
+        <v>48.0959096002631</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>46.19259796679963</v>
+        <v>63.02011971997794</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.72456440163607</v>
+        <v>50.7337534111697</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.86730534598343</v>
+        <v>59.82679851933327</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.96738752353508</v>
+        <v>73.40404987816967</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.47871941905102</v>
+        <v>13.72669752408551</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>41.74608833773963</v>
+        <v>52.94901862232832</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>48.10278661204594</v>
+        <v>67.36920958414966</v>
       </c>
     </row>
   </sheetData>
